--- a/revenue-streamlit/tenancy_list_scenario_01.xlsx
+++ b/revenue-streamlit/tenancy_list_scenario_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawan/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8D6D5A-98C2-A441-AC5F-E136A7EE1A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0D6FD-DF16-7D4F-A0AA-FE3AB5EB63D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="880" windowWidth="31740" windowHeight="22500" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22660" yWindow="9000" windowWidth="22660" windowHeight="14380" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="193">
   <si>
     <t>AMG</t>
   </si>
@@ -245,9 +245,6 @@
     <t>ADPMET</t>
   </si>
   <si>
-    <t>{Vacant} -&gt; ADPMET</t>
-  </si>
-  <si>
     <t>Thunderbird</t>
   </si>
   <si>
@@ -416,18 +413,12 @@
     <t>Expire Maret</t>
   </si>
   <si>
-    <t>Deviasi - dilepas MEPI</t>
-  </si>
-  <si>
     <t>MDAL</t>
   </si>
   <si>
     <t>KSO-PAU Umbulan</t>
   </si>
   <si>
-    <t>{VACANT} -&gt; INALUM</t>
-  </si>
-  <si>
     <t>{Vacant} -&gt; Anugrah Tirta Global</t>
   </si>
   <si>
@@ -612,6 +603,30 @@
   </si>
   <si>
     <t>Raiz</t>
+  </si>
+  <si>
+    <t>{Vacant} -&gt; MEPI</t>
+  </si>
+  <si>
+    <t>scenario 1</t>
+  </si>
+  <si>
+    <t>{Vacant} -&gt; Macmahon Indonesia</t>
+  </si>
+  <si>
+    <t>MindID</t>
+  </si>
+  <si>
+    <t>{Vacant} -&gt; MindID</t>
+  </si>
+  <si>
+    <t>{Vacant} -&gt; Korea Agro</t>
+  </si>
+  <si>
+    <t>{Vacant} -&gt;Medco Power Indonesia</t>
+  </si>
+  <si>
+    <t>{Vacant} -&gt; New tenant MDAL</t>
   </si>
 </sst>
 </file>
@@ -621,11 +636,11 @@
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,13 +798,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1278,28 +1286,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1320,11 +1328,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1351,44 +1359,44 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1407,13 +1415,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1429,17 +1437,17 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,16 +1456,16 @@
     <xf numFmtId="43" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,17 +1480,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,14 +1489,23 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="43" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="22" fillId="0" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1547,7 +1555,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="69">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1556,6 +1564,228 @@
         <right/>
         <top style="thin">
           <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
         <bottom/>
       </border>
@@ -1577,37 +1807,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1663,37 +1862,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -1720,22 +1888,46 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color auto="1"/>
+          <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1775,92 +1967,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1897,41 +2004,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1952,21 +2027,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2009,35 +2069,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2056,21 +2087,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2097,21 +2113,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2132,21 +2133,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2189,35 +2175,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor rgb="FF000000"/>
@@ -2234,19 +2191,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2345,6 +2289,46 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -2355,6 +2339,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2559,13 +2563,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>246807</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>132619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>288616</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>77683</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2637,13 +2641,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>234894</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>86989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>276703</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>32053</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2715,13 +2719,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>222981</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>131271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264790</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>157345</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2831,26 +2835,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N162" totalsRowCount="1" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="A1:N161" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N133">
-    <sortCondition descending="1" ref="C3:C133"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N160" totalsRowCount="1" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:N159" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="25"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Office"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:N96">
+    <sortCondition ref="J1:J159"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{49AC1DFB-968F-8C4C-B46A-BA65A08A82F8}" name="Floor" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{7407A2D4-11A2-B14C-9C1E-EB812BA07976}" name="Zone" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{EDDF5F0D-2514-4DA3-8E09-CC07C1F5EC73}" name="Product_Type" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{584F12DA-F9A2-F044-BEE3-95C850B08187}" name="Group" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9F70DA22-AD03-2E40-982C-172221ED7B17}" name="Tenant" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{38FEB9FC-3468-1746-8CEA-0778DBB66ECF}" name="Area" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{D64C9D1A-FA8B-4C4D-B607-52E1E05305B0}" name="Chg_Type" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{CFF86D67-BC6E-F940-B6C5-060702DC8E14}" name="Start" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{A0B757F2-99D8-6B48-9212-0A3F40DF200F}" name="End" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{29206E0A-C3D4-7148-A9B7-062237C9AD9C}" name="Rental_Rate" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Comma [0]"/>
-    <tableColumn id="12" xr3:uid="{6631B20D-5386-3149-B067-110BB05C3B0A}" name="SC_Rate" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" xr3:uid="{61759F5E-0021-784D-BB1B-F0F0AD385D08}" name="Notes_1" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="26" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{49AC1DFB-968F-8C4C-B46A-BA65A08A82F8}" name="Floor" dataDxfId="25" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7407A2D4-11A2-B14C-9C1E-EB812BA07976}" name="Zone" dataDxfId="24" totalsRowDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{EDDF5F0D-2514-4DA3-8E09-CC07C1F5EC73}" name="Product_Type" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{584F12DA-F9A2-F044-BEE3-95C850B08187}" name="Group" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9F70DA22-AD03-2E40-982C-172221ED7B17}" name="Tenant" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{38FEB9FC-3468-1746-8CEA-0778DBB66ECF}" name="Area" dataDxfId="20" totalsRowDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{D64C9D1A-FA8B-4C4D-B607-52E1E05305B0}" name="Chg_Type" dataDxfId="19" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{CFF86D67-BC6E-F940-B6C5-060702DC8E14}" name="Start" dataDxfId="18" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{A0B757F2-99D8-6B48-9212-0A3F40DF200F}" name="End" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{29206E0A-C3D4-7148-A9B7-062237C9AD9C}" name="Rental_Rate" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
+    <tableColumn id="12" xr3:uid="{6631B20D-5386-3149-B067-110BB05C3B0A}" name="SC_Rate" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" xr3:uid="{61759F5E-0021-784D-BB1B-F0F0AD385D08}" name="Notes_1" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3174,7 +3189,7 @@
         <v>44562</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -3185,7 +3200,7 @@
         <v>48579</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J5" s="21">
         <v>60456.682860379246</v>
@@ -3193,14 +3208,14 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="19">
         <f>J7</f>
         <v>60736.472860379246</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J6" s="21">
         <v>279.79000000000002</v>
@@ -3208,13 +3223,13 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
       </c>
       <c r="J7" s="22">
         <f>SUM(J5:J6)</f>
@@ -3228,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="113" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3251,54 +3266,54 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="N1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3307,10 +3322,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>19</v>
@@ -3335,12 +3350,12 @@
       </c>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2">
         <v>55</v>
@@ -3349,10 +3364,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
@@ -3378,12 +3393,12 @@
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2">
         <v>53</v>
@@ -3392,10 +3407,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
@@ -3421,12 +3436,12 @@
       </c>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2">
         <v>52</v>
@@ -3435,10 +3450,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>20</v>
@@ -3464,12 +3479,12 @@
       </c>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6" s="4">
         <v>51</v>
@@ -3478,10 +3493,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>21</v>
@@ -3505,24 +3520,24 @@
       </c>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4">
         <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>20</v>
@@ -3548,12 +3563,12 @@
       </c>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2">
         <v>50</v>
@@ -3562,10 +3577,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>20</v>
@@ -3591,12 +3606,12 @@
       </c>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2">
         <v>39</v>
@@ -3605,10 +3620,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>22</v>
@@ -3634,12 +3649,12 @@
       </c>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2">
         <v>38</v>
@@ -3648,10 +3663,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>22</v>
@@ -3677,12 +3692,12 @@
       </c>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2">
         <v>37</v>
@@ -3691,10 +3706,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>22</v>
@@ -3720,12 +3735,12 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2">
         <v>36</v>
@@ -3734,10 +3749,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>22</v>
@@ -3763,12 +3778,12 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2">
         <v>35</v>
@@ -3777,10 +3792,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
@@ -3806,12 +3821,12 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>14</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2">
         <v>33</v>
@@ -3820,10 +3835,10 @@
         <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>25</v>
@@ -3848,12 +3863,12 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>15</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2">
         <v>33</v>
@@ -3862,13 +3877,13 @@
         <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H15" s="35">
         <v>704.51</v>
@@ -3890,12 +3905,12 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>13</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2">
         <v>33</v>
@@ -3904,10 +3919,10 @@
         <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>22</v>
@@ -3933,12 +3948,12 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>18</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C17" s="4">
         <v>32</v>
@@ -3947,13 +3962,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="H17" s="36">
         <v>347.01</v>
@@ -3962,19 +3977,27 @@
         <v>3</v>
       </c>
       <c r="J17" s="37">
-        <v>44562</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44927</v>
+      </c>
+      <c r="K17" s="37">
+        <v>49125</v>
+      </c>
+      <c r="L17" s="14">
+        <v>347396</v>
+      </c>
+      <c r="M17" s="14">
+        <v>84100</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2">
         <v>32</v>
@@ -3983,13 +4006,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H18" s="38">
         <v>357.73</v>
@@ -4010,27 +4033,27 @@
         <v>70000</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C19" s="4">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>28</v>
@@ -4045,7 +4068,7 @@
         <v>44484</v>
       </c>
       <c r="K19" s="5">
-        <v>46735</v>
+        <v>49292</v>
       </c>
       <c r="L19" s="40">
         <v>490000</v>
@@ -4053,26 +4076,26 @@
       <c r="M19" s="40">
         <v>70000</v>
       </c>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="29">
-        <v>19</v>
-      </c>
+      <c r="N19" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
       <c r="B20" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>56</v>
@@ -4084,19 +4107,19 @@
         <v>3</v>
       </c>
       <c r="J20" s="39">
-        <v>46736</v>
+        <v>49310</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>20</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C21" s="4">
         <v>32</v>
@@ -4105,13 +4128,13 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="H21" s="8">
         <v>488.65</v>
@@ -4120,19 +4143,25 @@
         <v>3</v>
       </c>
       <c r="J21" s="39">
-        <v>44562</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="40"/>
+        <v>44927</v>
+      </c>
+      <c r="K21" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L21" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M21" s="40">
+        <v>84100</v>
+      </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>22</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C22" s="2">
         <v>31</v>
@@ -4141,10 +4170,10 @@
         <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>29</v>
@@ -4169,90 +4198,96 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="4">
-        <v>31</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>175</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="H23" s="8">
-        <v>1623.88</v>
+        <v>162.18</v>
       </c>
       <c r="I23" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="7">
-        <v>45108</v>
+        <v>44927</v>
       </c>
       <c r="K23" s="5">
-        <v>49125</v>
+        <v>49309</v>
       </c>
       <c r="L23" s="6">
-        <v>347396</v>
+        <v>383000</v>
       </c>
       <c r="M23" s="6">
-        <v>84100</v>
+        <v>70000</v>
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2">
         <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="H24" s="8">
-        <v>162.18</v>
+        <v>168.21</v>
       </c>
       <c r="I24" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="7">
-        <v>44562</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+        <v>44927</v>
+      </c>
+      <c r="K24" s="5">
+        <v>49309</v>
+      </c>
+      <c r="L24" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M24" s="6">
+        <v>70000</v>
+      </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>25</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C25" s="2">
         <v>30</v>
@@ -4261,10 +4296,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>30</v>
@@ -4289,52 +4324,48 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="2">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>175</v>
+      </c>
+      <c r="C26" s="4">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="8">
-        <v>168.21</v>
+        <v>1116.77</v>
       </c>
       <c r="I26" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="7">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>26</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2">
         <v>30</v>
@@ -4343,10 +4374,10 @@
         <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>31</v>
@@ -4369,12 +4400,12 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <v>27</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C28" s="2">
         <v>30</v>
@@ -4383,10 +4414,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>32</v>
@@ -4411,12 +4442,12 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>28</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2">
         <v>29</v>
@@ -4425,10 +4456,10 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>20</v>
@@ -4454,12 +4485,12 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>29</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C30" s="4">
         <v>28</v>
@@ -4468,10 +4499,10 @@
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G30" s="42" t="s">
         <v>33</v>
@@ -4486,7 +4517,7 @@
         <v>43678</v>
       </c>
       <c r="K30" s="5">
-        <v>46630</v>
+        <v>49187</v>
       </c>
       <c r="L30" s="6">
         <v>383000</v>
@@ -4496,12 +4527,12 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>30</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C31" s="4">
         <v>28</v>
@@ -4510,10 +4541,10 @@
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G31" s="42" t="s">
         <v>56</v>
@@ -4532,12 +4563,12 @@
       <c r="M31" s="6"/>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>31</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C32" s="4">
         <v>27</v>
@@ -4546,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>34</v>
@@ -4574,12 +4605,12 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <v>32</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C33" s="4">
         <v>27</v>
@@ -4588,13 +4619,13 @@
         <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H33" s="8">
         <v>137.66999999999999</v>
@@ -4616,72 +4647,72 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C34" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1179.0999999999999</v>
+        <v>40</v>
+      </c>
+      <c r="H34" s="36">
+        <v>306.92</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="7">
-        <v>43647</v>
+      <c r="J34" s="39">
+        <v>44927</v>
       </c>
       <c r="K34" s="5">
-        <v>44926</v>
-      </c>
-      <c r="L34" s="6">
-        <v>410000</v>
-      </c>
-      <c r="M34" s="6">
+        <v>49155</v>
+      </c>
+      <c r="L34" s="40">
+        <v>367500</v>
+      </c>
+      <c r="M34" s="40">
         <v>70000</v>
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C35" s="4">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="H35" s="8">
-        <v>1116.77</v>
+        <v>264.23</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>3</v>
@@ -4689,143 +4720,151 @@
       <c r="J35" s="7">
         <v>44927</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="20"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K35" s="5">
+        <v>49309</v>
+      </c>
+      <c r="L35" s="6">
+        <v>367500</v>
+      </c>
+      <c r="M35" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C36" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H36" s="8">
-        <v>977.74</v>
+        <v>1179.0999999999999</v>
       </c>
       <c r="I36" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J36" s="7">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="K36" s="5">
-        <v>49156</v>
+        <v>44926</v>
       </c>
       <c r="L36" s="6">
-        <v>367500</v>
+        <v>410000</v>
       </c>
       <c r="M36" s="6">
         <v>70000</v>
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C37" s="4">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H37" s="8">
-        <v>275.33</v>
+        <v>1547.68451044725</v>
       </c>
       <c r="I37" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="7">
-        <v>44317</v>
+      <c r="J37" s="45">
+        <v>44986</v>
       </c>
       <c r="K37" s="5">
-        <v>45412</v>
+        <v>49003</v>
       </c>
       <c r="L37" s="6">
-        <v>440000</v>
+        <v>390000</v>
       </c>
       <c r="M37" s="6">
         <v>70000</v>
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C38" s="4">
         <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="H38" s="8">
-        <v>275.33</v>
+        <v>977.74</v>
       </c>
       <c r="I38" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="7">
-        <v>45413</v>
+        <v>43678</v>
       </c>
       <c r="K38" s="5">
-        <v>46507</v>
+        <v>49156</v>
       </c>
       <c r="L38" s="6">
-        <v>383000</v>
+        <v>367500</v>
       </c>
       <c r="M38" s="6">
         <v>70000</v>
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C39" s="4">
         <v>26</v>
@@ -4834,13 +4873,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H39" s="8">
         <v>275.33</v>
@@ -4849,327 +4888,351 @@
         <v>3</v>
       </c>
       <c r="J39" s="7">
+        <v>44317</v>
+      </c>
+      <c r="K39" s="5">
+        <v>45412</v>
+      </c>
+      <c r="L39" s="6">
+        <v>440000</v>
+      </c>
+      <c r="M39" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29">
+        <v>89</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="8">
+        <v>137.51</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="7">
+        <v>45017</v>
+      </c>
+      <c r="K40" s="5">
+        <v>49034</v>
+      </c>
+      <c r="L40" s="6">
+        <v>410000</v>
+      </c>
+      <c r="M40" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29">
+        <v>38</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="4">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="8">
+        <v>275.33</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="7">
         <v>46874</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="29">
-        <v>35</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="4">
-        <v>26</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="36">
-        <v>306.92</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="39">
+      <c r="K41" s="5">
+        <v>49156</v>
+      </c>
+      <c r="L41" s="6">
+        <v>400000</v>
+      </c>
+      <c r="M41" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N41" s="20"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29">
+        <v>21</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="4">
+        <v>31</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1623.88</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="7">
         <v>45108</v>
       </c>
-      <c r="K40" s="5">
-        <v>49064</v>
-      </c>
-      <c r="L40" s="40">
-        <v>367500</v>
-      </c>
-      <c r="M40" s="40">
-        <v>70000</v>
-      </c>
-      <c r="N40" s="20"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="K42" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L42" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M42" s="6">
+        <v>84100</v>
+      </c>
+      <c r="N42" s="20"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="29">
         <v>46</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B43" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="4">
         <v>25</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H43" s="8">
         <v>439.08</v>
       </c>
-      <c r="I41" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="7">
+      <c r="I43" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="7">
         <v>43739</v>
       </c>
-      <c r="K41" s="5">
-        <v>49217</v>
-      </c>
-      <c r="L41" s="6">
+      <c r="K43" s="5">
+        <v>45291</v>
+      </c>
+      <c r="L43" s="6">
         <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M43" s="6">
         <v>84100</v>
       </c>
-      <c r="N41" s="20"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="29">
-        <v>42</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="4">
-        <v>25</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="43">
-        <v>137.66999999999999</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="7">
-        <v>43282</v>
-      </c>
-      <c r="K42" s="5">
-        <v>44742</v>
-      </c>
-      <c r="L42" s="6">
-        <v>410000</v>
-      </c>
-      <c r="M42" s="40">
-        <v>70000</v>
-      </c>
-      <c r="N42" s="20"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
-        <v>43</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="4">
-        <v>25</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="43">
-        <v>137.66999999999999</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="7">
-        <v>44743</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="40"/>
       <c r="N43" s="20"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C44" s="4">
         <v>25</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="8">
+        <v>182</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="43">
         <v>137.66999999999999</v>
       </c>
       <c r="I44" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="7">
-        <v>44562</v>
-      </c>
-      <c r="K44" s="5"/>
+        <v>43282</v>
+      </c>
+      <c r="K44" s="5">
+        <v>44926</v>
+      </c>
       <c r="L44" s="6">
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0</v>
+        <v>410000</v>
+      </c>
+      <c r="M44" s="40">
+        <v>70000</v>
       </c>
       <c r="N44" s="20"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C45" s="4">
         <v>25</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="8">
-        <v>306.92</v>
+        <v>182</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="43">
+        <v>137.66999999999999</v>
       </c>
       <c r="I45" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="7">
-        <v>43191</v>
+        <v>45658</v>
       </c>
       <c r="K45" s="5">
-        <v>45382</v>
+        <v>49309</v>
       </c>
       <c r="L45" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M45" s="6">
+        <v>400000</v>
+      </c>
+      <c r="M45" s="40">
         <v>70000</v>
       </c>
-      <c r="N45" s="20"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C46" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H46" s="8">
-        <v>306.92</v>
+        <v>1547.71</v>
       </c>
       <c r="I46" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="7">
-        <v>45383</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+        <v>45108</v>
+      </c>
+      <c r="K46" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L46" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M46" s="6">
+        <v>84100</v>
+      </c>
       <c r="N46" s="20"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C47" s="4">
         <v>25</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47" s="8">
-        <v>388.65999999999997</v>
+        <v>306.92</v>
       </c>
       <c r="I47" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="7">
-        <v>43739</v>
+        <v>43191</v>
       </c>
       <c r="K47" s="5">
-        <v>49217</v>
+        <v>45382</v>
       </c>
       <c r="L47" s="6">
         <v>383000</v>
@@ -5179,156 +5242,154 @@
       </c>
       <c r="N47" s="20"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C48" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H48" s="8">
-        <v>137.71</v>
+        <v>1547.7674437292999</v>
       </c>
       <c r="I48" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="7">
-        <v>44682</v>
+        <v>45108</v>
       </c>
       <c r="K48" s="5">
-        <v>49064</v>
+        <v>49125</v>
       </c>
       <c r="L48" s="6">
-        <v>383000</v>
+        <v>347396</v>
       </c>
       <c r="M48" s="6">
-        <v>70000</v>
+        <v>84100</v>
       </c>
       <c r="N48" s="20"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C49" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H49" s="8">
-        <v>1547.71</v>
+        <v>388.65999999999997</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="7">
-        <v>45108</v>
+        <v>43739</v>
       </c>
       <c r="K49" s="5">
-        <v>49125</v>
+        <v>49217</v>
       </c>
       <c r="L49" s="6">
-        <v>347396</v>
+        <v>383000</v>
       </c>
       <c r="M49" s="6">
-        <v>84100</v>
+        <v>70000</v>
       </c>
       <c r="N49" s="20"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="29">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C50" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H50" s="8">
-        <v>1567.54</v>
+        <v>137.71</v>
       </c>
       <c r="I50" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J50" s="7">
-        <v>43647</v>
+        <v>44682</v>
       </c>
       <c r="K50" s="5">
-        <v>49125</v>
+        <v>49064</v>
       </c>
       <c r="L50" s="6">
-        <v>347396</v>
+        <v>383000</v>
       </c>
       <c r="M50" s="6">
-        <v>84100</v>
+        <v>70000</v>
       </c>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="29">
-        <v>50</v>
-      </c>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
       <c r="B51" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C51" s="4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="H51" s="8">
-        <v>1547.7674437292999</v>
+        <v>272.08</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>3</v>
@@ -5336,41 +5397,43 @@
       <c r="J51" s="7">
         <v>45108</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="45">
         <v>49125</v>
       </c>
       <c r="L51" s="6">
-        <v>347396</v>
+        <v>383000</v>
       </c>
       <c r="M51" s="6">
-        <v>84100</v>
-      </c>
-      <c r="N51" s="20"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <v>70000</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="29">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C52" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H52" s="8">
-        <v>370.08</v>
+        <v>1567.54</v>
       </c>
       <c r="I52" s="32" t="s">
         <v>3</v>
@@ -5382,416 +5445,422 @@
         <v>49125</v>
       </c>
       <c r="L52" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M52" s="6">
+        <v>84100</v>
+      </c>
+      <c r="N52" s="20"/>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="29">
+        <v>76</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="4">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="8">
+        <v>272.08</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="7">
+        <v>45108</v>
+      </c>
+      <c r="K53" s="45"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="20"/>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29">
+        <v>51</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="4">
+        <v>20</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="8">
+        <v>370.08</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="7">
+        <v>43647</v>
+      </c>
+      <c r="K54" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L54" s="6">
         <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M54" s="6">
         <v>84100</v>
       </c>
-      <c r="N52" s="20"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="29">
+      <c r="N54" s="20"/>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="29">
         <v>53</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="4">
-        <v>20</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="8">
-        <v>651.25</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="7">
-        <v>43206</v>
-      </c>
-      <c r="K53" s="5">
-        <v>45762</v>
-      </c>
-      <c r="L53" s="6">
-        <v>420000</v>
-      </c>
-      <c r="M53" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N53" s="20"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="29">
-        <v>52</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="4">
-        <v>20</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="34">
-        <v>651.25</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="5">
-        <v>45763</v>
-      </c>
-      <c r="K54" s="5">
-        <v>49049</v>
-      </c>
-      <c r="L54" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M54" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N54" s="20"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="29">
-        <v>55</v>
-      </c>
       <c r="B55" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C55" s="4">
         <v>20</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" s="34">
-        <v>250.99</v>
+        <v>48</v>
+      </c>
+      <c r="H55" s="8">
+        <v>651.25</v>
       </c>
       <c r="I55" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="5">
-        <v>44562</v>
-      </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
+      <c r="J55" s="7">
+        <v>43206</v>
+      </c>
+      <c r="K55" s="5">
+        <v>45762</v>
+      </c>
+      <c r="L55" s="6">
+        <v>420000</v>
+      </c>
+      <c r="M55" s="6">
+        <v>70000</v>
+      </c>
       <c r="N55" s="20"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C56" s="4">
         <v>20</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="8">
-        <v>137.67083232602312</v>
+        <v>49</v>
+      </c>
+      <c r="H56" s="34">
+        <v>651.25</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="44">
-        <v>44197</v>
+      <c r="J56" s="5">
+        <v>45763</v>
       </c>
       <c r="K56" s="5">
-        <v>45291</v>
+        <v>49049</v>
       </c>
       <c r="L56" s="6">
-        <v>430000</v>
+        <v>383000</v>
       </c>
       <c r="M56" s="6">
         <v>70000</v>
       </c>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4">
         <v>20</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="8">
-        <v>137.67083232602312</v>
+      <c r="H57" s="34">
+        <v>250.99</v>
       </c>
       <c r="I57" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="44">
-        <v>45292</v>
+      <c r="J57" s="5">
+        <v>44562</v>
       </c>
       <c r="K57" s="5"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C58" s="4">
         <v>20</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H58" s="8">
-        <v>137.71</v>
+        <v>137.67083232602312</v>
       </c>
       <c r="I58" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="7">
-        <v>44562</v>
-      </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
+      <c r="J58" s="44">
+        <v>44197</v>
+      </c>
+      <c r="K58" s="5">
+        <v>45291</v>
+      </c>
+      <c r="L58" s="6">
+        <v>430000</v>
+      </c>
+      <c r="M58" s="6">
+        <v>70000</v>
+      </c>
       <c r="N58" s="20"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C59" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H59" s="8">
-        <v>989.79</v>
+        <v>1547.75</v>
       </c>
       <c r="I59" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="7">
-        <v>44075</v>
+        <v>45139</v>
       </c>
       <c r="K59" s="5">
-        <v>45169</v>
+        <v>49156</v>
       </c>
       <c r="L59" s="6">
-        <v>425000</v>
+        <v>390000</v>
       </c>
       <c r="M59" s="6">
         <v>70000</v>
       </c>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H60" s="8">
-        <v>989.79</v>
+        <v>137.71</v>
       </c>
       <c r="I60" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J60" s="7">
-        <v>45170</v>
-      </c>
-      <c r="K60" s="5">
-        <v>49187</v>
-      </c>
-      <c r="L60" s="6">
-        <v>400000</v>
-      </c>
-      <c r="M60" s="6">
-        <v>70000</v>
-      </c>
+        <v>44562</v>
+      </c>
+      <c r="K60" s="5"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C61" s="4">
         <v>19</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H61" s="8">
-        <v>306.92</v>
+        <v>989.79</v>
       </c>
       <c r="I61" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J61" s="7">
-        <v>43449</v>
+        <v>44075</v>
       </c>
       <c r="K61" s="5">
-        <v>44544</v>
+        <v>45169</v>
       </c>
       <c r="L61" s="6">
-        <v>383000</v>
+        <v>425000</v>
       </c>
       <c r="M61" s="6">
         <v>70000</v>
       </c>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="29">
+        <v>60</v>
+      </c>
       <c r="B62" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C62" s="4">
         <v>19</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H62" s="8">
-        <v>306.92</v>
+        <v>989.79</v>
       </c>
       <c r="I62" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="7">
-        <v>44545</v>
+        <v>45170</v>
       </c>
       <c r="K62" s="5">
-        <v>45169</v>
-      </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
+        <v>49187</v>
+      </c>
+      <c r="L62" s="6">
+        <v>400000</v>
+      </c>
+      <c r="M62" s="6">
+        <v>70000</v>
+      </c>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4">
         <v>19</v>
@@ -5800,13 +5869,13 @@
         <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="H63" s="8">
         <v>306.92</v>
@@ -5815,85 +5884,77 @@
         <v>3</v>
       </c>
       <c r="J63" s="7">
-        <v>45170</v>
+        <v>43449</v>
       </c>
       <c r="K63" s="5">
-        <v>49187</v>
+        <v>44544</v>
       </c>
       <c r="L63" s="6">
-        <v>400000</v>
+        <v>383000</v>
       </c>
       <c r="M63" s="6">
         <v>70000</v>
       </c>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="29">
-        <v>62</v>
-      </c>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="29"/>
       <c r="B64" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C64" s="4">
         <v>19</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="8">
+        <v>306.92</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="7">
+        <v>44545</v>
+      </c>
+      <c r="K64" s="5"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="20"/>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="29">
+        <v>62</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="4">
+        <v>19</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="8">
-        <v>250.99</v>
-      </c>
-      <c r="I64" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="7">
-        <v>45170</v>
-      </c>
-      <c r="K64" s="5">
-        <v>49187</v>
-      </c>
-      <c r="L64" s="6">
-        <v>400000</v>
-      </c>
-      <c r="M64" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N64" s="20"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="29">
-        <v>63</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="4">
-        <v>18</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H65" s="8">
-        <v>1563.7810374560884</v>
+        <v>250.99</v>
       </c>
       <c r="I65" s="32" t="s">
         <v>3</v>
@@ -5901,7 +5962,7 @@
       <c r="J65" s="7">
         <v>45170</v>
       </c>
-      <c r="K65" s="47">
+      <c r="K65" s="5">
         <v>49187</v>
       </c>
       <c r="L65" s="6">
@@ -5912,54 +5973,54 @@
       </c>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="58">
-        <v>17</v>
-      </c>
-      <c r="D66" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="4">
         <v>18</v>
       </c>
-      <c r="E66" s="57" t="s">
-        <v>176</v>
+      <c r="D66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G66" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="H66" s="62">
-        <v>1547.6845104472457</v>
-      </c>
-      <c r="I66" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="54">
-        <v>43891</v>
-      </c>
-      <c r="K66" s="71">
-        <v>44985</v>
-      </c>
-      <c r="L66" s="73">
-        <v>450000</v>
+        <v>182</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="8">
+        <v>1563.7810374560884</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="7">
+        <v>45170</v>
+      </c>
+      <c r="K66" s="47">
+        <v>49187</v>
+      </c>
+      <c r="L66" s="6">
+        <v>400000</v>
       </c>
       <c r="M66" s="6">
         <v>70000</v>
       </c>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C67" s="58">
         <v>17</v>
@@ -5968,40 +6029,40 @@
         <v>18</v>
       </c>
       <c r="E67" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G67" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H67" s="62">
-        <v>1547.68451044725</v>
+        <v>1547.6845104472457</v>
       </c>
       <c r="I67" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J67" s="54">
-        <v>44986</v>
+        <v>43891</v>
       </c>
       <c r="K67" s="71">
-        <v>49003</v>
+        <v>44985</v>
       </c>
       <c r="L67" s="73">
-        <v>390000</v>
+        <v>450000</v>
       </c>
       <c r="M67" s="6">
         <v>70000</v>
       </c>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C68" s="58">
         <v>16</v>
@@ -6010,13 +6071,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G68" s="59" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="H68" s="62">
         <v>1559.07</v>
@@ -6025,25 +6086,25 @@
         <v>3</v>
       </c>
       <c r="J68" s="69">
-        <v>44075</v>
+        <v>45170</v>
       </c>
       <c r="K68" s="71">
-        <v>45169</v>
+        <v>49187</v>
       </c>
       <c r="L68" s="73">
-        <v>425000</v>
+        <v>400000</v>
       </c>
       <c r="M68" s="6">
         <v>70000</v>
       </c>
       <c r="N68" s="20"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C69" s="58">
         <v>16</v>
@@ -6052,13 +6113,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G69" s="59" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="H69" s="62">
         <v>1559.07</v>
@@ -6067,67 +6128,69 @@
         <v>3</v>
       </c>
       <c r="J69" s="69">
-        <v>45170</v>
+        <v>44075</v>
       </c>
       <c r="K69" s="71">
-        <v>49187</v>
+        <v>45169</v>
       </c>
       <c r="L69" s="73">
-        <v>400000</v>
+        <v>425000</v>
       </c>
       <c r="M69" s="6">
         <v>70000</v>
       </c>
       <c r="N69" s="20"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C70" s="58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E70" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G70" s="59" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="H70" s="62">
-        <v>1547.75</v>
+        <v>135.97999999999999</v>
       </c>
       <c r="I70" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J70" s="69">
-        <v>44044</v>
+        <v>45184</v>
       </c>
       <c r="K70" s="71">
-        <v>45138</v>
+        <v>49201</v>
       </c>
       <c r="L70" s="73">
-        <v>425000</v>
+        <v>390000</v>
       </c>
       <c r="M70" s="6">
         <v>70000</v>
       </c>
-      <c r="N70" s="20"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C71" s="58">
         <v>15</v>
@@ -6136,13 +6199,13 @@
         <v>18</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G71" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H71" s="62">
         <v>1547.75</v>
@@ -6151,67 +6214,67 @@
         <v>3</v>
       </c>
       <c r="J71" s="69">
-        <v>45139</v>
+        <v>44044</v>
       </c>
       <c r="K71" s="71">
-        <v>49156</v>
+        <v>45138</v>
       </c>
       <c r="L71" s="73">
-        <v>390000</v>
+        <v>425000</v>
       </c>
       <c r="M71" s="6">
         <v>70000</v>
       </c>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C72" s="58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="58" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E72" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G72" s="59" t="s">
-        <v>52</v>
-      </c>
       <c r="H72" s="62">
-        <v>1565.69</v>
+        <v>1234.75</v>
       </c>
       <c r="I72" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="72">
-        <v>43449</v>
+      <c r="J72" s="69">
+        <v>45200</v>
       </c>
       <c r="K72" s="71">
-        <v>44544</v>
+        <v>49308</v>
       </c>
       <c r="L72" s="73">
-        <v>383000</v>
+        <v>367500</v>
       </c>
       <c r="M72" s="6">
         <v>70000</v>
       </c>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="29">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C73" s="58">
         <v>12</v>
@@ -6220,13 +6283,13 @@
         <v>18</v>
       </c>
       <c r="E73" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G73" s="59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H73" s="62">
         <v>1565.69</v>
@@ -6235,61 +6298,61 @@
         <v>3</v>
       </c>
       <c r="J73" s="72">
-        <v>44562</v>
-      </c>
-      <c r="K73" s="71"/>
-      <c r="L73" s="73"/>
-      <c r="M73" s="6"/>
+        <v>43449</v>
+      </c>
+      <c r="K73" s="71">
+        <v>44544</v>
+      </c>
+      <c r="L73" s="73">
+        <v>383000</v>
+      </c>
+      <c r="M73" s="6">
+        <v>70000</v>
+      </c>
       <c r="N73" s="20"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C74" s="58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G74" s="59" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H74" s="62">
-        <v>1519.21</v>
+        <v>1565.69</v>
       </c>
       <c r="I74" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J74" s="72">
-        <v>43449</v>
-      </c>
-      <c r="K74" s="71">
-        <v>44544</v>
-      </c>
-      <c r="L74" s="73">
-        <v>383000</v>
-      </c>
-      <c r="M74" s="6">
-        <v>70000</v>
-      </c>
+        <v>44562</v>
+      </c>
+      <c r="K74" s="71"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="6"/>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C75" s="58">
         <v>11</v>
@@ -6298,13 +6361,13 @@
         <v>18</v>
       </c>
       <c r="E75" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G75" s="59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H75" s="62">
         <v>1519.21</v>
@@ -6313,61 +6376,69 @@
         <v>3</v>
       </c>
       <c r="J75" s="72">
-        <v>44562</v>
-      </c>
-      <c r="K75" s="71"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="6"/>
+        <v>43449</v>
+      </c>
+      <c r="K75" s="71">
+        <v>44544</v>
+      </c>
+      <c r="L75" s="73">
+        <v>383000</v>
+      </c>
+      <c r="M75" s="6">
+        <v>70000</v>
+      </c>
       <c r="N75" s="20"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C76" s="58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" s="58" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E76" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G76" s="59" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H76" s="62">
-        <v>287.33999999999997</v>
+        <v>1519.21</v>
       </c>
       <c r="I76" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J76" s="69">
-        <v>44136</v>
+      <c r="J76" s="72">
+        <v>46388</v>
       </c>
       <c r="K76" s="71">
-        <v>45350</v>
+        <v>49309</v>
       </c>
       <c r="L76" s="73">
-        <v>425000</v>
+        <v>400000</v>
       </c>
       <c r="M76" s="6">
         <v>70000</v>
       </c>
-      <c r="N76" s="20"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C77" s="58">
         <v>10</v>
@@ -6376,13 +6447,13 @@
         <v>3</v>
       </c>
       <c r="E77" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G77" s="59" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="H77" s="62">
         <v>287.33999999999997</v>
@@ -6391,103 +6462,95 @@
         <v>3</v>
       </c>
       <c r="J77" s="69">
-        <v>45352</v>
+        <v>44136</v>
       </c>
       <c r="K77" s="71">
-        <v>46446</v>
+        <v>45350</v>
       </c>
       <c r="L77" s="73">
-        <v>400000</v>
+        <v>425000</v>
       </c>
       <c r="M77" s="6">
         <v>70000</v>
       </c>
       <c r="N77" s="20"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="29">
-        <v>81</v>
-      </c>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="29"/>
       <c r="B78" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C78" s="58">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D78" s="58" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G78" s="59" t="s">
         <v>56</v>
       </c>
       <c r="H78" s="62">
-        <v>287.33999999999997</v>
+        <v>289.7</v>
       </c>
       <c r="I78" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J78" s="69">
-        <v>46813</v>
+        <v>45292</v>
       </c>
       <c r="K78" s="71"/>
       <c r="L78" s="73"/>
       <c r="M78" s="6"/>
       <c r="N78" s="20"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C79" s="58">
         <v>10</v>
       </c>
       <c r="D79" s="58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G79" s="59" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H79" s="62">
-        <v>135.97999999999999</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="I79" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J79" s="69">
-        <v>44089</v>
-      </c>
-      <c r="K79" s="71">
-        <v>45183</v>
-      </c>
-      <c r="L79" s="73">
-        <v>435000</v>
-      </c>
-      <c r="M79" s="6">
-        <v>70000</v>
-      </c>
+        <v>46813</v>
+      </c>
+      <c r="K79" s="71"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="6"/>
       <c r="N79" s="20"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C80" s="58">
         <v>10</v>
@@ -6496,13 +6559,13 @@
         <v>4</v>
       </c>
       <c r="E80" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G80" s="59" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="H80" s="62">
         <v>135.97999999999999</v>
@@ -6511,119 +6574,113 @@
         <v>3</v>
       </c>
       <c r="J80" s="69">
-        <v>45184</v>
+        <v>44089</v>
       </c>
       <c r="K80" s="71">
-        <v>46279</v>
+        <v>45183</v>
       </c>
       <c r="L80" s="73">
-        <v>390000</v>
+        <v>435000</v>
       </c>
       <c r="M80" s="6">
         <v>70000</v>
       </c>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="29">
-        <v>82</v>
-      </c>
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="29"/>
       <c r="B81" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C81" s="58">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D81" s="58" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G81" s="59" t="s">
         <v>56</v>
       </c>
       <c r="H81" s="62">
-        <v>135.97999999999999</v>
+        <v>137.66999999999999</v>
       </c>
       <c r="I81" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="69">
-        <v>46280</v>
+        <v>45292</v>
       </c>
       <c r="K81" s="71"/>
       <c r="L81" s="73"/>
       <c r="M81" s="6"/>
       <c r="N81" s="20"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C82" s="58">
         <v>10</v>
       </c>
       <c r="D82" s="58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G82" s="59" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H82" s="62">
-        <v>135.99</v>
+        <v>135.97999999999999</v>
       </c>
       <c r="I82" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J82" s="69"/>
-      <c r="K82" s="71">
-        <v>49187</v>
-      </c>
-      <c r="L82" s="73">
-        <v>0</v>
-      </c>
-      <c r="M82" s="6">
-        <v>0</v>
-      </c>
+      <c r="J82" s="69">
+        <v>46280</v>
+      </c>
+      <c r="K82" s="71"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="6"/>
       <c r="N82" s="20"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="29">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C83" s="58">
         <v>10</v>
       </c>
       <c r="D83" s="58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G83" s="59" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H83" s="62">
-        <v>392.7</v>
+        <v>135.99</v>
       </c>
       <c r="I83" s="67" t="s">
         <v>3</v>
@@ -6640,171 +6697,179 @@
       </c>
       <c r="N83" s="20"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="29">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C84" s="58">
         <v>10</v>
       </c>
       <c r="D84" s="58" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="E84" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G84" s="59" t="s">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H84" s="62">
-        <v>272.08</v>
+        <v>392.7</v>
       </c>
       <c r="I84" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J84" s="69">
-        <v>45108</v>
-      </c>
-      <c r="K84" s="54">
-        <v>46203</v>
+      <c r="J84" s="69"/>
+      <c r="K84" s="71">
+        <v>49187</v>
       </c>
       <c r="L84" s="73">
-        <v>383000</v>
+        <v>0</v>
       </c>
       <c r="M84" s="6">
+        <v>0</v>
+      </c>
+      <c r="N84" s="20"/>
+    </row>
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="29">
+        <v>56</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="58">
+        <v>20</v>
+      </c>
+      <c r="D85" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G85" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="H85" s="62">
+        <v>137.67083232602312</v>
+      </c>
+      <c r="I85" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" s="85">
+        <v>45292</v>
+      </c>
+      <c r="K85" s="71">
+        <v>46752</v>
+      </c>
+      <c r="L85" s="73">
+        <v>410000</v>
+      </c>
+      <c r="M85" s="6">
         <v>70000</v>
       </c>
-      <c r="N84" s="20"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="29">
-        <v>83</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" s="58">
-        <v>10</v>
-      </c>
-      <c r="D85" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G85" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H85" s="62">
-        <v>272.08</v>
-      </c>
-      <c r="I85" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J85" s="69">
-        <v>46204</v>
-      </c>
-      <c r="K85" s="54"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="6"/>
       <c r="N85" s="20"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="29">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C86" s="58">
         <v>10</v>
       </c>
       <c r="D86" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G86" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86" s="62">
+        <v>287.33999999999997</v>
+      </c>
+      <c r="I86" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" s="69">
+        <v>45352</v>
+      </c>
+      <c r="K86" s="71">
+        <v>49003</v>
+      </c>
+      <c r="L86" s="73">
+        <v>400000</v>
+      </c>
+      <c r="M86" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N86" s="20"/>
+    </row>
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="29">
+        <v>80</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="58">
+        <v>10</v>
+      </c>
+      <c r="D87" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" s="59" t="s">
+      <c r="E87" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="62">
+      <c r="H87" s="62">
         <v>264.23</v>
       </c>
-      <c r="I86" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J86" s="69">
+      <c r="I87" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J87" s="69">
         <v>43647</v>
       </c>
-      <c r="K86" s="71">
+      <c r="K87" s="71">
         <v>44561</v>
       </c>
-      <c r="L86" s="73">
+      <c r="L87" s="73">
         <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M87" s="6">
         <v>84100</v>
       </c>
-      <c r="N86" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="58">
-        <v>10</v>
-      </c>
-      <c r="D87" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G87" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H87" s="62">
-        <v>264.23</v>
-      </c>
-      <c r="I87" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J87" s="69">
-        <v>44197</v>
-      </c>
-      <c r="K87" s="71">
-        <v>44834</v>
-      </c>
-      <c r="L87" s="73"/>
-      <c r="M87" s="6"/>
       <c r="N87" s="20"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="29">
         <v>78</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C88" s="58">
         <v>10</v>
@@ -6813,10 +6878,10 @@
         <v>9</v>
       </c>
       <c r="E88" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G88" s="59" t="s">
         <v>40</v>
@@ -6831,7 +6896,7 @@
         <v>44835</v>
       </c>
       <c r="K88" s="71">
-        <v>45291</v>
+        <v>44926</v>
       </c>
       <c r="L88" s="73">
         <v>367500</v>
@@ -6843,61 +6908,61 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="29">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C89" s="58">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D89" s="58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E89" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="G89" s="59" t="s">
         <v>56</v>
       </c>
       <c r="H89" s="62">
-        <v>264.23</v>
+        <v>137.66999999999999</v>
       </c>
       <c r="I89" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="69">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="K89" s="71"/>
       <c r="L89" s="73"/>
       <c r="M89" s="6"/>
       <c r="N89" s="20"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="29">
         <v>91</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C90" s="58">
         <v>9</v>
       </c>
       <c r="D90" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G90" s="59" t="s">
         <v>68</v>
-      </c>
-      <c r="E90" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G90" s="59" t="s">
-        <v>69</v>
       </c>
       <c r="H90" s="62">
         <v>1234.75</v>
@@ -6917,22 +6982,22 @@
       </c>
       <c r="N90" s="20"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
       <c r="B91" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C91" s="58">
         <v>9</v>
       </c>
       <c r="D91" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E91" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G91" s="59" t="s">
         <v>56</v>
@@ -6946,61 +7011,61 @@
       <c r="J91" s="69">
         <v>44896</v>
       </c>
-      <c r="K91" s="71">
-        <v>44926</v>
-      </c>
+      <c r="K91" s="71"/>
       <c r="L91" s="73"/>
       <c r="M91" s="6"/>
       <c r="N91" s="20"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C92" s="58">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E92" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="G92" s="59" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H92" s="62">
-        <v>1234.75</v>
+        <v>306.92</v>
       </c>
       <c r="I92" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J92" s="69">
-        <v>44927</v>
+        <v>45383</v>
       </c>
       <c r="K92" s="71">
-        <v>49308</v>
+        <v>49034</v>
       </c>
       <c r="L92" s="73">
-        <v>367500</v>
+        <v>383000</v>
       </c>
       <c r="M92" s="6">
         <v>70000</v>
       </c>
-      <c r="N92" s="20"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
         <v>90</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C93" s="58">
         <v>9</v>
@@ -7009,10 +7074,10 @@
         <v>4</v>
       </c>
       <c r="E93" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G93" s="59" t="s">
         <v>64</v>
@@ -7037,88 +7102,96 @@
       </c>
       <c r="N93" s="20"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C94" s="58">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D94" s="58" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E94" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G94" s="59" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="H94" s="62">
-        <v>137.51</v>
+        <v>275.33</v>
       </c>
       <c r="I94" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="69">
-        <v>45017</v>
+        <v>45413</v>
       </c>
       <c r="K94" s="71">
-        <v>45382</v>
-      </c>
-      <c r="L94" s="73"/>
+        <v>46507</v>
+      </c>
+      <c r="L94" s="73">
+        <v>383000</v>
+      </c>
       <c r="M94" s="6">
         <v>70000</v>
       </c>
       <c r="N94" s="20"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="29">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C95" s="58">
         <v>9</v>
       </c>
       <c r="D95" s="58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E95" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G95" s="59" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H95" s="62">
-        <v>137.51</v>
+        <v>137.52000000000001</v>
       </c>
       <c r="I95" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J95" s="69">
-        <v>45383</v>
-      </c>
-      <c r="K95" s="71"/>
-      <c r="L95" s="73"/>
-      <c r="M95" s="6"/>
+        <v>43717</v>
+      </c>
+      <c r="K95" s="71">
+        <v>45565</v>
+      </c>
+      <c r="L95" s="73">
+        <v>0</v>
+      </c>
+      <c r="M95" s="6">
+        <v>70000</v>
+      </c>
       <c r="N95" s="20"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="29">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C96" s="58">
         <v>9</v>
@@ -7127,12 +7200,12 @@
         <v>5</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G96" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H96" s="62">
@@ -7142,10 +7215,10 @@
         <v>3</v>
       </c>
       <c r="J96" s="69">
-        <v>43717</v>
+        <v>45566</v>
       </c>
       <c r="K96" s="71">
-        <v>45565</v>
+        <v>49217</v>
       </c>
       <c r="L96" s="73">
         <v>0</v>
@@ -7153,118 +7226,126 @@
       <c r="M96" s="6">
         <v>70000</v>
       </c>
-      <c r="N96" s="20"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C97" s="58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="58" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E97" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H97" s="62">
-        <v>137.52000000000001</v>
+        <v>129</v>
+      </c>
+      <c r="G97" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="63">
+        <v>1693.35</v>
       </c>
       <c r="I97" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J97" s="69">
-        <v>45566</v>
-      </c>
-      <c r="K97" s="71">
-        <v>46295</v>
+      <c r="J97" s="78">
+        <v>43922</v>
+      </c>
+      <c r="K97" s="78">
+        <v>49309</v>
       </c>
       <c r="L97" s="73">
-        <v>0</v>
+        <v>367500</v>
       </c>
       <c r="M97" s="6">
         <v>70000</v>
       </c>
       <c r="N97" s="20"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C98" s="58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D98" s="58" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="G98" s="59" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H98" s="62">
-        <v>137.52000000000001</v>
+        <v>785.01</v>
       </c>
       <c r="I98" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J98" s="69">
-        <v>46296</v>
-      </c>
-      <c r="K98" s="71"/>
-      <c r="L98" s="73"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="53"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43922</v>
+      </c>
+      <c r="K98" s="71">
+        <v>49309</v>
+      </c>
+      <c r="L98" s="73">
+        <v>367500</v>
+      </c>
+      <c r="M98" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N98" s="20"/>
+    </row>
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C99" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" s="58" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G99" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" s="63">
-        <v>1693.35</v>
+        <v>69</v>
+      </c>
+      <c r="H99" s="62">
+        <v>705.53</v>
       </c>
       <c r="I99" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J99" s="81">
-        <v>43922</v>
-      </c>
-      <c r="K99" s="81">
+      <c r="J99" s="69">
+        <v>43556</v>
+      </c>
+      <c r="K99" s="71">
         <v>49309</v>
       </c>
       <c r="L99" s="73">
@@ -7275,114 +7356,112 @@
       </c>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C100" s="58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" s="58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E100" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="G100" s="59" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H100" s="62">
-        <v>785.01</v>
+        <v>547</v>
       </c>
       <c r="I100" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="69">
-        <v>43922</v>
-      </c>
+      <c r="J100" s="69"/>
       <c r="K100" s="71">
-        <v>49309</v>
+        <v>45961</v>
       </c>
       <c r="L100" s="73">
-        <v>367500</v>
+        <v>410000</v>
       </c>
       <c r="M100" s="6">
         <v>70000</v>
       </c>
       <c r="N100" s="20"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C101" s="58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" s="58" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E101" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G101" s="59" t="s">
-        <v>70</v>
+        <v>182</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H101" s="62">
-        <v>705.53</v>
+        <v>548</v>
       </c>
       <c r="I101" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J101" s="69">
-        <v>43556</v>
+        <v>45962</v>
       </c>
       <c r="K101" s="71">
-        <v>49309</v>
+        <v>49248</v>
       </c>
       <c r="L101" s="73">
-        <v>367500</v>
+        <v>390000</v>
       </c>
       <c r="M101" s="6">
         <v>70000</v>
       </c>
       <c r="N101" s="20"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C102" s="58">
         <v>6</v>
       </c>
       <c r="D102" s="58" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E102" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G102" s="59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H102" s="62">
-        <v>547</v>
+        <v>938.59</v>
       </c>
       <c r="I102" s="67" t="s">
         <v>3</v>
@@ -7399,30 +7478,30 @@
       </c>
       <c r="N102" s="20"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C103" s="58">
         <v>6</v>
       </c>
       <c r="D103" s="58" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E103" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>72</v>
+        <v>182</v>
+      </c>
+      <c r="G103" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="H103" s="62">
-        <v>548</v>
+        <v>939.59</v>
       </c>
       <c r="I103" s="67" t="s">
         <v>3</v>
@@ -7441,30 +7520,30 @@
       </c>
       <c r="N103" s="20"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C104" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G104" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E104" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G104" s="59" t="s">
-        <v>74</v>
-      </c>
       <c r="H104" s="62">
-        <v>938.59</v>
+        <v>1505.1</v>
       </c>
       <c r="I104" s="67" t="s">
         <v>3</v>
@@ -7481,30 +7560,30 @@
       </c>
       <c r="N104" s="20"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="29">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C105" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" s="58" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E105" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G105" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H105" s="62">
-        <v>939.59</v>
+        <v>1506.1</v>
       </c>
       <c r="I105" s="67" t="s">
         <v>3</v>
@@ -7523,503 +7602,505 @@
       </c>
       <c r="N105" s="20"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="29">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C106" s="58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D106" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G106" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H106" s="62">
-        <v>1505.1</v>
+        <v>130</v>
+      </c>
+      <c r="H106" s="80">
+        <v>1422.37</v>
       </c>
       <c r="I106" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J106" s="69"/>
+      <c r="J106" s="81"/>
       <c r="K106" s="71">
-        <v>45961</v>
-      </c>
-      <c r="L106" s="73">
-        <v>410000</v>
-      </c>
-      <c r="M106" s="6">
+        <v>49034</v>
+      </c>
+      <c r="L106" s="82">
+        <v>0</v>
+      </c>
+      <c r="M106" s="46">
+        <v>0</v>
+      </c>
+      <c r="N106" s="20"/>
+    </row>
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="29">
+        <v>105</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="50">
+        <v>2</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G107" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H107" s="10">
+        <v>399</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" s="12">
+        <v>44562</v>
+      </c>
+      <c r="K107" s="12">
+        <v>46599</v>
+      </c>
+      <c r="L107" s="13">
         <v>70000</v>
       </c>
-      <c r="N106" s="20"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="29">
-        <v>103</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C107" s="58">
-        <v>5</v>
-      </c>
-      <c r="D107" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G107" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H107" s="62">
-        <v>1506.1</v>
-      </c>
-      <c r="I107" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J107" s="69">
-        <v>45962</v>
-      </c>
-      <c r="K107" s="71">
-        <v>49248</v>
-      </c>
-      <c r="L107" s="73">
-        <v>390000</v>
-      </c>
-      <c r="M107" s="6">
-        <v>70000</v>
+      <c r="M107" s="14">
+        <v>50000</v>
       </c>
       <c r="N107" s="20"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C108" s="58">
-        <v>3</v>
-      </c>
-      <c r="D108" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="C108" s="50">
+        <v>2</v>
+      </c>
+      <c r="D108" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G108" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H108" s="83">
-        <v>1422.37</v>
-      </c>
-      <c r="I108" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J108" s="84"/>
-      <c r="K108" s="71">
-        <v>49034</v>
-      </c>
-      <c r="L108" s="85">
-        <v>0</v>
-      </c>
-      <c r="M108" s="46">
-        <v>0</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G108" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="H108" s="10">
+        <v>145.78</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12">
+        <v>46599</v>
+      </c>
+      <c r="L108" s="13"/>
+      <c r="M108" s="14"/>
       <c r="N108" s="20"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C109" s="50">
         <v>2</v>
       </c>
       <c r="D109" s="50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G109" s="52" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="H109" s="10">
-        <v>399</v>
+        <v>25.1</v>
       </c>
       <c r="I109" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J109" s="12">
-        <v>44562</v>
-      </c>
+      <c r="J109" s="12"/>
       <c r="K109" s="12">
         <v>46599</v>
       </c>
-      <c r="L109" s="13">
-        <v>70000</v>
-      </c>
-      <c r="M109" s="14">
-        <v>50000</v>
-      </c>
+      <c r="L109" s="13"/>
+      <c r="M109" s="14"/>
       <c r="N109" s="20"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C110" s="50">
         <v>2</v>
       </c>
       <c r="D110" s="50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G110" s="52" t="s">
-        <v>166</v>
+        <v>182</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H110" s="10">
-        <v>145.78</v>
+        <v>230.81</v>
       </c>
       <c r="I110" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J110" s="12"/>
+      <c r="J110" s="12">
+        <v>44562</v>
+      </c>
       <c r="K110" s="12">
         <v>46599</v>
       </c>
-      <c r="L110" s="13"/>
-      <c r="M110" s="14"/>
+      <c r="L110" s="13">
+        <v>70000</v>
+      </c>
+      <c r="M110" s="14">
+        <v>50000</v>
+      </c>
       <c r="N110" s="20"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
+        <v>109</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G111" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H111" s="56">
+        <v>249.77</v>
+      </c>
+      <c r="I111" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J111" s="70">
+        <v>44378</v>
+      </c>
+      <c r="K111" s="37">
+        <v>46752</v>
+      </c>
+      <c r="L111" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B111" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C111" s="50">
-        <v>2</v>
-      </c>
-      <c r="D111" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="11" t="s">
+      <c r="M111" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N111" s="20"/>
+    </row>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="29">
+        <v>110</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G111" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="H111" s="10">
-        <v>25.1</v>
-      </c>
-      <c r="I111" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12">
-        <v>46599</v>
-      </c>
-      <c r="L111" s="13"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="20"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="29">
-        <v>108</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C112" s="50">
-        <v>2</v>
-      </c>
-      <c r="D112" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H112" s="10">
-        <v>230.81</v>
-      </c>
-      <c r="I112" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J112" s="12">
-        <v>44562</v>
-      </c>
-      <c r="K112" s="12">
-        <v>46599</v>
-      </c>
-      <c r="L112" s="13">
-        <v>70000</v>
-      </c>
-      <c r="M112" s="14">
-        <v>50000</v>
+        <v>182</v>
+      </c>
+      <c r="G112" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H112" s="56">
+        <v>63.5</v>
+      </c>
+      <c r="I112" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J112" s="70">
+        <v>44378</v>
+      </c>
+      <c r="K112" s="37">
+        <v>46752</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M112" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="N112" s="20"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="29">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="D113" s="48" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E113" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G113" s="51" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="H113" s="56">
-        <v>249.77</v>
+        <v>6</v>
       </c>
       <c r="I113" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J113" s="70">
-        <v>44378</v>
+        <v>171</v>
+      </c>
+      <c r="J113" s="37">
+        <v>44470</v>
       </c>
       <c r="K113" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M113" s="14" t="s">
-        <v>85</v>
+        <v>46660</v>
+      </c>
+      <c r="L113" s="14">
+        <v>950000</v>
+      </c>
+      <c r="M113" s="15">
+        <v>72000</v>
       </c>
       <c r="N113" s="20"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="29">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C114" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D114" s="55" t="s">
-        <v>18</v>
+        <v>175</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="48" t="s">
+        <v>5</v>
       </c>
       <c r="E114" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G114" s="60" t="s">
-        <v>165</v>
+        <v>182</v>
+      </c>
+      <c r="G114" s="51" t="s">
+        <v>108</v>
       </c>
       <c r="H114" s="56">
-        <v>63.5</v>
+        <v>103.16</v>
       </c>
       <c r="I114" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J114" s="70">
-        <v>44378</v>
+      <c r="J114" s="45">
+        <v>43692</v>
       </c>
       <c r="K114" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L114" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M114" s="14" t="s">
-        <v>85</v>
+        <v>46613</v>
+      </c>
+      <c r="L114" s="14">
+        <v>331250</v>
+      </c>
+      <c r="M114" s="14">
+        <v>70000</v>
       </c>
       <c r="N114" s="20"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="29">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="H115" s="56">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I115" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="J115" s="37">
-        <v>44470</v>
+        <v>3</v>
+      </c>
+      <c r="J115" s="45">
+        <v>43692</v>
       </c>
       <c r="K115" s="37">
-        <v>46660</v>
+        <v>46613</v>
       </c>
       <c r="L115" s="14">
-        <v>950000</v>
-      </c>
-      <c r="M115" s="15">
-        <v>72000</v>
+        <v>231875</v>
+      </c>
+      <c r="M115" s="14">
+        <v>80000</v>
       </c>
       <c r="N115" s="20"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="29">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D116" s="48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E116" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H116" s="56">
-        <v>103.16</v>
+        <v>152.08000000000001</v>
       </c>
       <c r="I116" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J116" s="45">
-        <v>43692</v>
+      <c r="J116" s="37">
+        <v>44044</v>
       </c>
       <c r="K116" s="37">
-        <v>46613</v>
-      </c>
-      <c r="L116" s="14">
-        <v>331250</v>
+        <v>46599</v>
+      </c>
+      <c r="L116" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="M116" s="14">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="N116" s="20"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="29">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H117" s="56">
-        <v>30</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="I117" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J117" s="45">
-        <v>43692</v>
+      <c r="J117" s="37">
+        <v>44044</v>
       </c>
       <c r="K117" s="37">
-        <v>46613</v>
-      </c>
-      <c r="L117" s="14">
-        <v>231875</v>
+        <v>46599</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="M117" s="14">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="N117" s="20"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="29">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D118" s="48" t="s">
         <v>7</v>
@@ -8028,13 +8109,13 @@
         <v>16</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H118" s="56">
-        <v>152.08000000000001</v>
+        <v>30.88</v>
       </c>
       <c r="I118" s="66" t="s">
         <v>3</v>
@@ -8046,455 +8127,451 @@
         <v>46599</v>
       </c>
       <c r="L118" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M118" s="14">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="N118" s="20"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="29">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="H119" s="56">
-        <v>36.880000000000003</v>
+        <v>28.21</v>
       </c>
       <c r="I119" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J119" s="37">
-        <v>44044</v>
-      </c>
+      <c r="J119" s="37"/>
       <c r="K119" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L119" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M119" s="14">
-        <v>70000</v>
-      </c>
+        <v>46752</v>
+      </c>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
       <c r="N119" s="20"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="29">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D120" s="48" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="H120" s="56">
-        <v>30.88</v>
+        <v>80.92</v>
       </c>
       <c r="I120" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J120" s="37">
-        <v>44044</v>
-      </c>
+      <c r="J120" s="37"/>
       <c r="K120" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L120" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M120" s="14">
-        <v>70000</v>
-      </c>
+        <v>46752</v>
+      </c>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
       <c r="N120" s="20"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="29">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D121" s="48" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="E121" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G121" s="51" t="s">
         <v>169</v>
       </c>
       <c r="H121" s="56">
-        <v>28.21</v>
+        <v>6</v>
       </c>
       <c r="I121" s="66" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="J121" s="37"/>
       <c r="K121" s="37">
         <v>46752</v>
       </c>
       <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
+      <c r="M121" s="15"/>
       <c r="N121" s="20"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="29">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D122" s="48" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="E122" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H122" s="56">
         <v>185</v>
       </c>
-      <c r="G122" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="H122" s="56">
-        <v>80.92</v>
-      </c>
       <c r="I122" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J122" s="37"/>
+      <c r="J122" s="37">
+        <v>45245</v>
+      </c>
       <c r="K122" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
+        <v>46705</v>
+      </c>
+      <c r="L122" s="14">
+        <v>225000</v>
+      </c>
+      <c r="M122" s="14">
+        <v>65000</v>
+      </c>
       <c r="N122" s="20"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="29">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C123" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D123" s="48" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="E123" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="H123" s="56">
-        <v>6</v>
+        <v>347.88</v>
       </c>
       <c r="I123" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="J123" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="J123" s="37">
+        <v>43891</v>
+      </c>
       <c r="K123" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L123" s="14"/>
-      <c r="M123" s="15"/>
+        <v>46446</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M123" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N123" s="20"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C124" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D124" s="48" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E124" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G124" s="51" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="H124" s="56">
-        <v>185</v>
+        <v>28.21</v>
       </c>
       <c r="I124" s="66" t="s">
         <v>3</v>
       </c>
       <c r="J124" s="37">
-        <v>45245</v>
+        <v>43891</v>
       </c>
       <c r="K124" s="37">
-        <v>46705</v>
+        <v>46446</v>
       </c>
       <c r="L124" s="14">
-        <v>225000</v>
+        <v>240000</v>
       </c>
       <c r="M124" s="14">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="N124" s="20"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D125" s="48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E125" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G125" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H125" s="56">
         <v>185</v>
       </c>
-      <c r="G125" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H125" s="56">
-        <v>347.88</v>
-      </c>
       <c r="I125" s="66" t="s">
         <v>3</v>
       </c>
       <c r="J125" s="37">
-        <v>43891</v>
+        <v>44515</v>
       </c>
       <c r="K125" s="37">
-        <v>46446</v>
-      </c>
-      <c r="L125" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M125" s="14" t="s">
-        <v>85</v>
+        <v>45244</v>
+      </c>
+      <c r="L125" s="14">
+        <v>225000</v>
+      </c>
+      <c r="M125" s="14">
+        <v>65000</v>
       </c>
       <c r="N125" s="20"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D126" s="48" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="E126" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G126" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H126" s="56">
         <v>185</v>
       </c>
-      <c r="G126" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="H126" s="56">
-        <v>28.21</v>
-      </c>
       <c r="I126" s="66" t="s">
         <v>3</v>
       </c>
       <c r="J126" s="37">
-        <v>43891</v>
+        <v>43419</v>
       </c>
       <c r="K126" s="37">
-        <v>46446</v>
+        <v>44514</v>
       </c>
       <c r="L126" s="14">
-        <v>240000</v>
+        <v>200000</v>
       </c>
       <c r="M126" s="14">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="N126" s="20"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D127" s="48" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E127" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G127" s="51" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="H127" s="56">
-        <v>185</v>
+        <v>82.74</v>
       </c>
       <c r="I127" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J127" s="37">
-        <v>44515</v>
-      </c>
-      <c r="K127" s="37">
-        <v>45244</v>
-      </c>
-      <c r="L127" s="14">
-        <v>225000</v>
-      </c>
-      <c r="M127" s="14">
-        <v>65000</v>
-      </c>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
       <c r="N127" s="20"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="48" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="C128" s="58">
+        <v>1</v>
+      </c>
+      <c r="D128" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="57" t="s">
+        <v>173</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G128" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="H128" s="56">
-        <v>185</v>
-      </c>
-      <c r="I128" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J128" s="37">
-        <v>43419</v>
-      </c>
-      <c r="K128" s="37">
-        <v>44514</v>
-      </c>
-      <c r="L128" s="14">
-        <v>200000</v>
-      </c>
-      <c r="M128" s="14">
-        <v>65000</v>
+        <v>182</v>
+      </c>
+      <c r="G128" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H128" s="62">
+        <v>639.83000000000004</v>
+      </c>
+      <c r="I128" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128" s="69"/>
+      <c r="K128" s="71">
+        <v>49064</v>
+      </c>
+      <c r="L128" s="73">
+        <v>420000</v>
+      </c>
+      <c r="M128" s="6">
+        <v>70000</v>
       </c>
       <c r="N128" s="20"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C129" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" s="48" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="C129" s="58">
+        <v>1</v>
+      </c>
+      <c r="D129" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="57" t="s">
+        <v>173</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G129" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H129" s="56">
-        <v>82.74</v>
-      </c>
-      <c r="I129" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J129" s="37"/>
-      <c r="K129" s="37"/>
-      <c r="L129" s="14"/>
-      <c r="M129" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="G129" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H129" s="62">
+        <v>70</v>
+      </c>
+      <c r="I129" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J129" s="69"/>
+      <c r="K129" s="71">
+        <v>49034</v>
+      </c>
+      <c r="L129" s="73">
+        <v>435000</v>
+      </c>
+      <c r="M129" s="6">
+        <v>70000</v>
+      </c>
       <c r="N129" s="20"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C130" s="58">
         <v>1</v>
@@ -8503,327 +8580,329 @@
         <v>18</v>
       </c>
       <c r="E130" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G130" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H130" s="62">
-        <v>639.83000000000004</v>
+        <v>134.37</v>
       </c>
       <c r="I130" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J130" s="69"/>
       <c r="K130" s="71">
-        <v>49064</v>
-      </c>
-      <c r="L130" s="73">
-        <v>420000</v>
+        <v>49187</v>
+      </c>
+      <c r="L130" s="79">
+        <v>390000</v>
       </c>
       <c r="M130" s="6">
         <v>70000</v>
       </c>
       <c r="N130" s="20"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="29">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C131" s="58">
+        <v>175</v>
+      </c>
+      <c r="C131" s="4">
         <v>1</v>
       </c>
-      <c r="D131" s="58" t="s">
+      <c r="D131" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E131" s="57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G131" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="H131" s="62">
-        <v>70</v>
+        <v>182</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H131" s="8">
+        <v>453.65</v>
       </c>
       <c r="I131" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J131" s="69"/>
-      <c r="K131" s="71">
-        <v>49034</v>
-      </c>
-      <c r="L131" s="73">
-        <v>435000</v>
+      <c r="J131" s="7">
+        <v>42948</v>
+      </c>
+      <c r="K131" s="5">
+        <v>49156</v>
+      </c>
+      <c r="L131" s="6">
+        <v>405000</v>
       </c>
       <c r="M131" s="6">
         <v>70000</v>
       </c>
       <c r="N131" s="20"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="29">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C132" s="58">
-        <v>1</v>
-      </c>
-      <c r="D132" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="C132" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D132" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E132" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G132" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H132" s="62">
-        <v>134.37</v>
-      </c>
-      <c r="I132" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J132" s="69"/>
-      <c r="K132" s="71">
-        <v>49187</v>
-      </c>
-      <c r="L132" s="82">
-        <v>390000</v>
-      </c>
-      <c r="M132" s="6">
-        <v>70000</v>
+        <v>182</v>
+      </c>
+      <c r="G132" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H132" s="56">
+        <v>7.4</v>
+      </c>
+      <c r="I132" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J132" s="37">
+        <v>44488</v>
+      </c>
+      <c r="K132" s="37">
+        <v>46460</v>
+      </c>
+      <c r="L132" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="M132" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="N132" s="20"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="29">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C133" s="4">
-        <v>1</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="C133" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D133" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E133" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H133" s="8">
-        <v>453.65</v>
-      </c>
-      <c r="I133" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J133" s="7">
-        <v>42948</v>
-      </c>
-      <c r="K133" s="5">
-        <v>49156</v>
-      </c>
-      <c r="L133" s="6">
-        <v>405000</v>
-      </c>
-      <c r="M133" s="6">
-        <v>70000</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G133" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H133" s="56">
+        <v>7.9</v>
+      </c>
+      <c r="I133" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J133" s="37">
+        <v>44150</v>
+      </c>
+      <c r="K133" s="37">
+        <v>46705</v>
+      </c>
+      <c r="L133" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="M133" s="15"/>
       <c r="N133" s="20"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="29">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C134" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D134" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E134" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H134" s="56">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="I134" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J134" s="37">
-        <v>44488</v>
+        <v>44256</v>
       </c>
       <c r="K134" s="37">
-        <v>46460</v>
+        <v>46446</v>
       </c>
       <c r="L134" s="14">
         <v>5000000</v>
       </c>
-      <c r="M134" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="M134" s="15"/>
       <c r="N134" s="20"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="29">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C135" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D135" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E135" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H135" s="56">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="I135" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J135" s="37">
-        <v>44150</v>
+        <v>44440</v>
       </c>
       <c r="K135" s="37">
-        <v>46705</v>
+        <v>46630</v>
       </c>
       <c r="L135" s="14">
         <v>5000000</v>
       </c>
-      <c r="M135" s="15"/>
+      <c r="M135" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N135" s="20"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="29">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C136" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D136" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E136" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H136" s="56">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="I136" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J136" s="37">
-        <v>44256</v>
+        <v>44301</v>
       </c>
       <c r="K136" s="37">
-        <v>46446</v>
+        <v>46491</v>
       </c>
       <c r="L136" s="14">
         <v>5000000</v>
       </c>
-      <c r="M136" s="15"/>
+      <c r="M136" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N136" s="20"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="29">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C137" s="55" t="s">
-        <v>90</v>
+        <v>175</v>
+      </c>
+      <c r="C137" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E137" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="H137" s="56">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="I137" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J137" s="37">
-        <v>44440</v>
+        <v>44256</v>
       </c>
       <c r="K137" s="37">
-        <v>46630</v>
+        <v>46446</v>
       </c>
       <c r="L137" s="14">
         <v>5000000</v>
       </c>
-      <c r="M137" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="M137" s="15"/>
       <c r="N137" s="20"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="29">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C138" s="55" t="s">
-        <v>90</v>
+        <v>175</v>
+      </c>
+      <c r="C138" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="D138" s="48" t="s">
         <v>148</v>
@@ -8832,40 +8911,38 @@
         <v>16</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G138" s="51" t="s">
         <v>95</v>
       </c>
       <c r="H138" s="56">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="I138" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J138" s="37">
-        <v>44301</v>
+        <v>44256</v>
       </c>
       <c r="K138" s="37">
-        <v>46491</v>
+        <v>46446</v>
       </c>
       <c r="L138" s="14">
         <v>5000000</v>
       </c>
-      <c r="M138" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="M138" s="15"/>
       <c r="N138" s="20"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="29">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D139" s="48" t="s">
         <v>149</v>
@@ -8874,171 +8951,171 @@
         <v>16</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="H139" s="56">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="I139" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J139" s="37">
-        <v>44256</v>
+        <v>43661</v>
       </c>
       <c r="K139" s="37">
-        <v>46446</v>
+        <v>46582</v>
       </c>
       <c r="L139" s="14">
         <v>5000000</v>
       </c>
-      <c r="M139" s="15"/>
+      <c r="M139" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N139" s="20"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="29">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D140" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E140" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H140" s="56">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="I140" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J140" s="37">
-        <v>44256</v>
+        <v>44105</v>
       </c>
       <c r="K140" s="37">
-        <v>46446</v>
+        <v>46660</v>
       </c>
       <c r="L140" s="14">
         <v>5000000</v>
       </c>
-      <c r="M140" s="15"/>
+      <c r="M140" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N140" s="20"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="29">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E141" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H141" s="56">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="I141" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J141" s="37">
-        <v>43661</v>
+        <v>44175</v>
       </c>
       <c r="K141" s="37">
-        <v>46582</v>
+        <v>46730</v>
       </c>
       <c r="L141" s="14">
         <v>5000000</v>
       </c>
-      <c r="M141" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="M141" s="15"/>
       <c r="N141" s="20"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="29">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D142" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E142" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="H142" s="56">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="I142" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J142" s="37">
-        <v>44105</v>
+        <v>44256</v>
       </c>
       <c r="K142" s="37">
-        <v>46660</v>
+        <v>46446</v>
       </c>
       <c r="L142" s="14">
         <v>5000000</v>
       </c>
-      <c r="M142" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="M142" s="15"/>
       <c r="N142" s="20"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E143" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G143" s="51" t="s">
         <v>99</v>
@@ -9047,364 +9124,356 @@
         <v>6.4</v>
       </c>
       <c r="I143" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J143" s="37">
-        <v>44175</v>
+        <v>44013</v>
       </c>
       <c r="K143" s="37">
-        <v>46730</v>
+        <v>46568</v>
       </c>
       <c r="L143" s="14">
         <v>5000000</v>
       </c>
-      <c r="M143" s="15"/>
+      <c r="M143" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N143" s="20"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D144" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E144" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H144" s="56">
-        <v>6.4</v>
+        <v>100</v>
+      </c>
+      <c r="H144" s="65">
+        <v>16.350000000000001</v>
       </c>
       <c r="I144" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J144" s="37">
-        <v>44256</v>
+        <v>43983</v>
       </c>
       <c r="K144" s="37">
-        <v>46446</v>
+        <v>46538</v>
       </c>
       <c r="L144" s="14">
-        <v>5000000</v>
-      </c>
-      <c r="M144" s="15"/>
+        <v>4200000</v>
+      </c>
+      <c r="M144" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N144" s="20"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="29">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C145" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D145" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E145" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H145" s="56">
-        <v>6.4</v>
-      </c>
-      <c r="I145" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="J145" s="37">
-        <v>44013</v>
-      </c>
-      <c r="K145" s="37">
-        <v>46568</v>
-      </c>
-      <c r="L145" s="14">
-        <v>5000000</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H145" s="65">
+        <v>8.11</v>
+      </c>
+      <c r="I145" s="66"/>
+      <c r="J145" s="37"/>
+      <c r="K145" s="37"/>
+      <c r="L145" s="14"/>
       <c r="M145" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N145" s="20"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="29">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C146" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D146" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E146" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G146" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="H146" s="65">
-        <v>16.350000000000001</v>
+      <c r="H146" s="56">
+        <v>15.73</v>
       </c>
       <c r="I146" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J146" s="37">
-        <v>43983</v>
+        <v>43617</v>
       </c>
       <c r="K146" s="37">
         <v>46538</v>
       </c>
       <c r="L146" s="14">
-        <v>4200000</v>
+        <v>5000000</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N146" s="20"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="29">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D147" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E147" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H147" s="65">
-        <v>8.11</v>
-      </c>
-      <c r="I147" s="66"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="37"/>
-      <c r="L147" s="14"/>
-      <c r="M147" s="14" t="s">
-        <v>85</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H147" s="56">
+        <v>97.5</v>
+      </c>
+      <c r="I147" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J147" s="37">
+        <v>43922</v>
+      </c>
+      <c r="K147" s="37">
+        <v>46477</v>
+      </c>
+      <c r="L147" s="14">
+        <v>360000</v>
+      </c>
+      <c r="M147" s="15"/>
       <c r="N147" s="20"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="29">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C148" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D148" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D148" s="55" t="s">
         <v>159</v>
       </c>
       <c r="E148" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G148" s="51" t="s">
         <v>102</v>
       </c>
       <c r="H148" s="56">
-        <v>15.73</v>
+        <v>9</v>
       </c>
       <c r="I148" s="66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J148" s="37">
-        <v>43617</v>
+        <v>44150</v>
       </c>
       <c r="K148" s="37">
-        <v>46538</v>
+        <v>46705</v>
       </c>
       <c r="L148" s="14">
-        <v>5000000</v>
-      </c>
-      <c r="M148" s="14" t="s">
-        <v>85</v>
-      </c>
+        <v>3000000</v>
+      </c>
+      <c r="M148" s="14"/>
       <c r="N148" s="20"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="29">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C149" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D149" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="55" t="s">
         <v>160</v>
       </c>
       <c r="E149" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G149" s="51" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="H149" s="56">
-        <v>97.5</v>
+        <v>1</v>
       </c>
       <c r="I149" s="66" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="J149" s="37">
-        <v>43922</v>
+        <v>44027</v>
       </c>
       <c r="K149" s="37">
-        <v>46477</v>
+        <v>46582</v>
       </c>
       <c r="L149" s="14">
-        <v>360000</v>
-      </c>
-      <c r="M149" s="15"/>
+        <v>3000000</v>
+      </c>
+      <c r="M149" s="14"/>
       <c r="N149" s="20"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="29">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C150" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D150" s="55" t="s">
-        <v>162</v>
+        <v>11</v>
+      </c>
+      <c r="D150" s="55">
+        <v>1</v>
       </c>
       <c r="E150" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="H150" s="56">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I150" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="J150" s="37">
-        <v>44150</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J150" s="37"/>
       <c r="K150" s="37">
-        <v>46705</v>
-      </c>
-      <c r="L150" s="14">
-        <v>3000000</v>
-      </c>
-      <c r="M150" s="14"/>
+        <v>46599</v>
+      </c>
+      <c r="L150" s="14"/>
+      <c r="M150" s="15"/>
       <c r="N150" s="20"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="29">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C151" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D151" s="55" t="s">
-        <v>163</v>
+        <v>11</v>
+      </c>
+      <c r="D151" s="55">
+        <v>2</v>
       </c>
       <c r="E151" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="H151" s="56">
-        <v>1</v>
+        <v>34.24</v>
       </c>
       <c r="I151" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="J151" s="37">
-        <v>44027</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J151" s="37"/>
       <c r="K151" s="37">
-        <v>46582</v>
-      </c>
-      <c r="L151" s="14">
-        <v>3000000</v>
-      </c>
-      <c r="M151" s="14"/>
+        <v>46599</v>
+      </c>
+      <c r="L151" s="14"/>
+      <c r="M151" s="15"/>
       <c r="N151" s="20"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="29">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C152" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E152" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G152" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H152" s="56">
-        <v>54</v>
+        <v>22.72</v>
       </c>
       <c r="I152" s="66" t="s">
         <v>3</v>
@@ -9417,30 +9486,30 @@
       <c r="M152" s="15"/>
       <c r="N152" s="20"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="29">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C153" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E153" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H153" s="56">
-        <v>34.24</v>
+        <v>139.47</v>
       </c>
       <c r="I153" s="66" t="s">
         <v>3</v>
@@ -9453,30 +9522,30 @@
       <c r="M153" s="15"/>
       <c r="N153" s="20"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="29">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C154" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E154" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H154" s="56">
-        <v>22.72</v>
+        <v>17.96</v>
       </c>
       <c r="I154" s="66" t="s">
         <v>3</v>
@@ -9489,30 +9558,30 @@
       <c r="M154" s="15"/>
       <c r="N154" s="20"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="29">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C155" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E155" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H155" s="56">
-        <v>139.47</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="I155" s="66" t="s">
         <v>3</v>
@@ -9525,127 +9594,139 @@
       <c r="M155" s="15"/>
       <c r="N155" s="20"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="29">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C156" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D156" s="55">
-        <v>5</v>
+      <c r="D156" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="E156" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G156" s="51" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="H156" s="56">
-        <v>17.96</v>
-      </c>
-      <c r="I156" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J156" s="37"/>
+        <v>26.38</v>
+      </c>
+      <c r="I156" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="J156" s="37">
+        <v>44211</v>
+      </c>
       <c r="K156" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L156" s="14"/>
+        <v>46401</v>
+      </c>
+      <c r="L156" s="14">
+        <v>2750000</v>
+      </c>
       <c r="M156" s="15"/>
       <c r="N156" s="20"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="29">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="55">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D157" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="E157" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="H157" s="56">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="I157" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J157" s="37"/>
+        <v>26.38</v>
+      </c>
+      <c r="I157" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="J157" s="37">
+        <v>44058</v>
+      </c>
       <c r="K157" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L157" s="14"/>
-      <c r="M157" s="15"/>
+        <v>46613</v>
+      </c>
+      <c r="L157" s="14">
+        <v>2750000</v>
+      </c>
+      <c r="M157" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N157" s="20"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="29">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B158" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C158" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D158" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E158" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H158" s="56">
         <v>26.38</v>
       </c>
       <c r="I158" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J158" s="37">
-        <v>44211</v>
+        <v>43739</v>
       </c>
       <c r="K158" s="37">
-        <v>46401</v>
+        <v>46660</v>
       </c>
       <c r="L158" s="14">
         <v>2750000</v>
       </c>
-      <c r="M158" s="15"/>
+      <c r="M158" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N158" s="20"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="29">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B159" s="29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D159" s="48" t="s">
         <v>18</v>
@@ -9654,254 +9735,200 @@
         <v>16</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G159" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H159" s="56">
+        <v>182</v>
+      </c>
+      <c r="G159" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H159" s="64">
         <v>26.38</v>
       </c>
       <c r="I159" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J159" s="37">
-        <v>44058</v>
+        <v>43753</v>
       </c>
       <c r="K159" s="37">
-        <v>46613</v>
-      </c>
-      <c r="L159" s="14">
+        <v>46674</v>
+      </c>
+      <c r="L159" s="49">
         <v>2750000</v>
       </c>
-      <c r="M159" s="14" t="s">
-        <v>85</v>
+      <c r="M159" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="N159" s="20"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="29">
-        <v>156</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C160" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D160" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E160" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G160" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H160" s="56">
-        <v>26.38</v>
-      </c>
-      <c r="I160" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="J160" s="37">
-        <v>43739</v>
-      </c>
-      <c r="K160" s="37">
-        <v>46660</v>
-      </c>
-      <c r="L160" s="14">
-        <v>2750000</v>
-      </c>
-      <c r="M160" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="N160" s="20"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A161" s="29">
-        <v>157</v>
-      </c>
-      <c r="B161" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C161" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D161" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G161" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="H161" s="64">
-        <v>26.38</v>
-      </c>
-      <c r="I161" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="J161" s="37">
-        <v>43753</v>
-      </c>
-      <c r="K161" s="37">
-        <v>46674</v>
-      </c>
-      <c r="L161" s="49">
-        <v>2750000</v>
-      </c>
-      <c r="M161" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="N161" s="20"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="74" t="s">
+      <c r="A160" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="75"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="75"/>
-      <c r="G162" s="76"/>
-      <c r="H162" s="80"/>
-      <c r="I162" s="79"/>
-      <c r="J162" s="78"/>
-      <c r="K162" s="79"/>
-      <c r="L162" s="77"/>
-      <c r="M162" s="77"/>
-      <c r="N162" s="53"/>
+      <c r="B160" s="75"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="83"/>
+      <c r="I160" s="77"/>
+      <c r="J160" s="77"/>
+      <c r="K160" s="77"/>
+      <c r="L160" s="84"/>
+      <c r="M160" s="84"/>
+      <c r="N160" s="53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G159:G161 G1:G5 G113:G129 G152:G157 G134:G150 G12:G26 G31:G66">
-    <cfRule type="expression" dxfId="62" priority="95">
+  <conditionalFormatting sqref="G157:G159 G1:G5 G111:G127 G150:G155 G132:G148 G31:G63 G12:G26 G65:G67">
+    <cfRule type="expression" dxfId="68" priority="105">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="96">
+    <cfRule type="expression" dxfId="67" priority="106">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),NOT(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27 G10 G7:G8 G29">
-    <cfRule type="expression" dxfId="60" priority="45">
+    <cfRule type="expression" dxfId="66" priority="55">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G7)),(ISNUMBER(SEARCH("-&gt;",G7))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="46">
+    <cfRule type="expression" dxfId="65" priority="56">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G7)),NOT(ISNUMBER(SEARCH("-&gt;",G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G158">
-    <cfRule type="expression" dxfId="58" priority="41">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G158)),(ISNUMBER(SEARCH("-&gt;",G158))))</formula>
+  <conditionalFormatting sqref="G156">
+    <cfRule type="expression" dxfId="64" priority="51">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G156)),(ISNUMBER(SEARCH("-&gt;",G156))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="42">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G158)),NOT(ISNUMBER(SEARCH("-&gt;",G158))))</formula>
+    <cfRule type="expression" dxfId="63" priority="52">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G156)),NOT(ISNUMBER(SEARCH("-&gt;",G156))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="56" priority="39">
+    <cfRule type="expression" dxfId="62" priority="49">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G25)),(ISNUMBER(SEARCH("-&gt;",G25))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="40">
+    <cfRule type="expression" dxfId="61" priority="50">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G25)),NOT(ISNUMBER(SEARCH("-&gt;",G25))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="54" priority="37">
+    <cfRule type="expression" dxfId="60" priority="47">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G28)),(ISNUMBER(SEARCH("-&gt;",G28))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="38">
+    <cfRule type="expression" dxfId="59" priority="48">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G28)),NOT(ISNUMBER(SEARCH("-&gt;",G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G151">
-    <cfRule type="expression" dxfId="52" priority="29">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G151)),(ISNUMBER(SEARCH("-&gt;",G151))))</formula>
+  <conditionalFormatting sqref="G149">
+    <cfRule type="expression" dxfId="58" priority="39">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G149)),(ISNUMBER(SEARCH("-&gt;",G149))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G151)),NOT(ISNUMBER(SEARCH("-&gt;",G151))))</formula>
+    <cfRule type="expression" dxfId="57" priority="40">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G149)),NOT(ISNUMBER(SEARCH("-&gt;",G149))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G138:G141">
-    <cfRule type="expression" dxfId="50" priority="25">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G138)),(ISNUMBER(SEARCH("-&gt;",G138))))</formula>
+  <conditionalFormatting sqref="G136:G139">
+    <cfRule type="expression" dxfId="56" priority="35">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G136)),(ISNUMBER(SEARCH("-&gt;",G136))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="26">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G138)),NOT(ISNUMBER(SEARCH("-&gt;",G138))))</formula>
+    <cfRule type="expression" dxfId="55" priority="36">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G136)),NOT(ISNUMBER(SEARCH("-&gt;",G136))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="48" priority="21">
+    <cfRule type="expression" dxfId="54" priority="31">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G9)),(ISNUMBER(SEARCH("-&gt;",G9))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="22">
+    <cfRule type="expression" dxfId="53" priority="32">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G9)),NOT(ISNUMBER(SEARCH("-&gt;",G9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="46" priority="19">
+    <cfRule type="expression" dxfId="52" priority="29">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G11)),(ISNUMBER(SEARCH("-&gt;",G11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="20">
+    <cfRule type="expression" dxfId="51" priority="30">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G11)),NOT(ISNUMBER(SEARCH("-&gt;",G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="44" priority="13">
+    <cfRule type="expression" dxfId="50" priority="23">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G6)),(ISNUMBER(SEARCH("-&gt;",G6))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="14">
+    <cfRule type="expression" dxfId="49" priority="24">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G6)),NOT(ISNUMBER(SEARCH("-&gt;",G6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="48" priority="19">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G30)),(ISNUMBER(SEARCH("-&gt;",G30))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="10">
+    <cfRule type="expression" dxfId="47" priority="20">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G30)),NOT(ISNUMBER(SEARCH("-&gt;",G30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G39">
-    <cfRule type="expression" dxfId="40" priority="7">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G34)),(ISNUMBER(SEARCH("-&gt;",G34))))</formula>
+  <conditionalFormatting sqref="G36:G41">
+    <cfRule type="expression" dxfId="46" priority="17">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G36)),(ISNUMBER(SEARCH("-&gt;",G36))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="8">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G34)),NOT(ISNUMBER(SEARCH("-&gt;",G34))))</formula>
+    <cfRule type="expression" dxfId="45" priority="18">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G36)),NOT(ISNUMBER(SEARCH("-&gt;",G36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
-    <cfRule type="expression" dxfId="38" priority="5">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G60)),(ISNUMBER(SEARCH("-&gt;",G60))))</formula>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="expression" dxfId="44" priority="15">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G62)),(ISNUMBER(SEARCH("-&gt;",G62))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="6">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G60)),NOT(ISNUMBER(SEARCH("-&gt;",G60))))</formula>
+    <cfRule type="expression" dxfId="43" priority="16">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G62)),NOT(ISNUMBER(SEARCH("-&gt;",G62))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="expression" dxfId="36" priority="3">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G63)),(ISNUMBER(SEARCH("-&gt;",G63))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="4">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G63)),NOT(ISNUMBER(SEARCH("-&gt;",G63))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="endsWith" dxfId="34" priority="2" operator="endsWith" text="vacant}">
+  <conditionalFormatting sqref="G1:G63 G80:G81 G83:G1048576 G65:G78">
+    <cfRule type="endsWith" dxfId="42" priority="12" operator="endsWith" text="vacant}">
       <formula>RIGHT(G1,LEN("vacant}"))="vacant}"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G161">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="vacant} -&gt;">
+  <conditionalFormatting sqref="G2:G63 G80:G81 G83:G159 G65:G78">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="vacant} -&gt;">
       <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" dxfId="40" priority="9">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G64)),(ISNUMBER(SEARCH("-&gt;",G64))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="10">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G64)),NOT(ISNUMBER(SEARCH("-&gt;",G64))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="endsWith" dxfId="38" priority="8" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G64,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="endsWith" dxfId="36" priority="6" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G79,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="endsWith" dxfId="34" priority="4" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G82,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/revenue-streamlit/tenancy_list_scenario_01.xlsx
+++ b/revenue-streamlit/tenancy_list_scenario_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawan/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0D6FD-DF16-7D4F-A0AA-FE3AB5EB63D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30AED2-E57C-7043-BA86-0ECE30EDDDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22660" yWindow="9000" windowWidth="22660" windowHeight="14380" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="2" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1503,9 +1503,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2563,13 +2560,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>246807</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>132619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>288616</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>77683</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2641,13 +2638,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>234894</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>86989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>276703</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>32053</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2719,13 +2716,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>222981</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>131271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>264790</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157345</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -2836,21 +2833,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N160" totalsRowCount="1" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="A1:N159" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="25"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Office"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:N96">
-    <sortCondition ref="J1:J159"/>
-  </sortState>
+  <autoFilter ref="A1:N159" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13"/>
     <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="26" totalsRowDxfId="12"/>
@@ -3246,7 +3229,8 @@
   <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3308,7 +3292,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -3350,7 +3334,7 @@
       </c>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -3385,7 +3369,7 @@
         <v>49125</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" ref="L3:L13" si="0">362500*11.5/12</f>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M3" s="6">
@@ -3393,7 +3377,7 @@
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -3428,7 +3412,7 @@
         <v>49125</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M4" s="6">
@@ -3436,7 +3420,7 @@
       </c>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -3471,7 +3455,7 @@
         <v>49125</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M5" s="6">
@@ -3479,7 +3463,7 @@
       </c>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -3512,7 +3496,7 @@
         <v>49125</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M6" s="6">
@@ -3520,7 +3504,7 @@
       </c>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -3555,7 +3539,7 @@
         <v>49125</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M7" s="6">
@@ -3563,7 +3547,7 @@
       </c>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -3598,7 +3582,7 @@
         <v>49125</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M8" s="6">
@@ -3606,7 +3590,7 @@
       </c>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -3641,7 +3625,7 @@
         <v>49125</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M9" s="6">
@@ -3649,7 +3633,7 @@
       </c>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -3684,7 +3668,7 @@
         <v>49125</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M10" s="6">
@@ -3692,7 +3676,7 @@
       </c>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -3727,7 +3711,7 @@
         <v>49125</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M11" s="6">
@@ -3735,7 +3719,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -3770,7 +3754,7 @@
         <v>49125</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M12" s="6">
@@ -3778,7 +3762,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -3813,7 +3797,7 @@
         <v>49125</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="0"/>
+        <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
       <c r="M13" s="6">
@@ -3821,9 +3805,9 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>175</v>
@@ -3832,19 +3816,19 @@
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="35">
-        <v>704.51</v>
+        <v>22</v>
+      </c>
+      <c r="H14" s="8">
+        <v>925.4</v>
       </c>
       <c r="I14" s="32" t="s">
         <v>3</v>
@@ -3853,19 +3837,20 @@
         <v>43647</v>
       </c>
       <c r="K14" s="5">
-        <v>44773</v>
+        <v>49125</v>
       </c>
       <c r="L14" s="6">
-        <v>450000</v>
+        <f>362500*11.5/12</f>
+        <v>347395.83333333331</v>
       </c>
       <c r="M14" s="6">
-        <v>70000</v>
+        <v>84100</v>
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>175</v>
@@ -3880,10 +3865,10 @@
         <v>173</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H15" s="35">
         <v>704.51</v>
@@ -3892,22 +3877,22 @@
         <v>3</v>
       </c>
       <c r="J15" s="7">
-        <v>44774</v>
+        <v>43647</v>
       </c>
       <c r="K15" s="5">
-        <v>49156</v>
+        <v>44773</v>
       </c>
       <c r="L15" s="6">
-        <v>383000</v>
+        <v>450000</v>
       </c>
       <c r="M15" s="6">
         <v>70000</v>
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>175</v>
@@ -3916,7 +3901,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>173</v>
@@ -3925,120 +3910,119 @@
         <v>129</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="8">
-        <v>925.4</v>
+        <v>121</v>
+      </c>
+      <c r="H16" s="35">
+        <v>704.51</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="7">
-        <v>43647</v>
+        <v>44774</v>
       </c>
       <c r="K16" s="5">
-        <v>49125</v>
+        <v>49156</v>
       </c>
       <c r="L16" s="6">
-        <f>362500*11.5/12</f>
-        <v>347395.83333333331</v>
+        <v>383000</v>
       </c>
       <c r="M16" s="6">
-        <v>84100</v>
+        <v>70000</v>
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="2">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="38">
+        <v>357.73</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>42826</v>
+      </c>
+      <c r="K17" s="5">
+        <v>49034</v>
+      </c>
+      <c r="L17" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M17" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="4">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="8">
+        <v>440.41</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="39">
+        <v>44484</v>
+      </c>
+      <c r="K18" s="5">
+        <v>49292</v>
+      </c>
+      <c r="L18" s="40">
+        <v>490000</v>
+      </c>
+      <c r="M18" s="40">
+        <v>70000</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
         <v>18</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="4">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H17" s="36">
-        <v>347.01</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="37">
-        <v>44927</v>
-      </c>
-      <c r="K17" s="37">
-        <v>49125</v>
-      </c>
-      <c r="L17" s="14">
-        <v>347396</v>
-      </c>
-      <c r="M17" s="14">
-        <v>84100</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29">
-        <v>16</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="2">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="38">
-        <v>357.73</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="7">
-        <v>42826</v>
-      </c>
-      <c r="K18" s="5">
-        <v>49034</v>
-      </c>
-      <c r="L18" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M18" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
-        <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>175</v>
@@ -4046,8 +4030,8 @@
       <c r="C19" s="4">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>180</v>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>173</v>
@@ -4056,32 +4040,34 @@
         <v>182</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="8">
-        <v>440.41</v>
+        <v>185</v>
+      </c>
+      <c r="H19" s="36">
+        <v>347.01</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="39">
-        <v>44484</v>
-      </c>
-      <c r="K19" s="5">
-        <v>49292</v>
-      </c>
-      <c r="L19" s="40">
-        <v>490000</v>
-      </c>
-      <c r="M19" s="40">
-        <v>70000</v>
+      <c r="J19" s="37">
+        <v>44927</v>
+      </c>
+      <c r="K19" s="37">
+        <v>49125</v>
+      </c>
+      <c r="L19" s="14">
+        <v>347396</v>
+      </c>
+      <c r="M19" s="14">
+        <v>84100</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
       <c r="B20" s="29" t="s">
         <v>175</v>
       </c>
@@ -4089,7 +4075,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>173</v>
@@ -4098,23 +4084,29 @@
         <v>182</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="H20" s="8">
-        <v>440.41</v>
+        <v>488.65</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="39">
-        <v>49310</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+        <v>44927</v>
+      </c>
+      <c r="K20" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L20" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M20" s="40">
+        <v>84100</v>
+      </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -4125,7 +4117,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>173</v>
@@ -4134,40 +4126,34 @@
         <v>182</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="H21" s="8">
-        <v>488.65</v>
+        <v>440.41</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="39">
-        <v>44927</v>
-      </c>
-      <c r="K21" s="5">
-        <v>49125</v>
-      </c>
-      <c r="L21" s="6">
-        <v>347396</v>
-      </c>
-      <c r="M21" s="40">
-        <v>84100</v>
-      </c>
+        <v>49310</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>31</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>24</v>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>173</v>
@@ -4176,40 +4162,40 @@
         <v>129</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H22" s="8">
-        <v>704.57</v>
+        <v>1623.88</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="7">
-        <v>43556</v>
+        <v>45108</v>
       </c>
       <c r="K22" s="5">
-        <v>44926</v>
+        <v>49125</v>
       </c>
       <c r="L22" s="6">
-        <v>367500</v>
+        <v>347396</v>
       </c>
       <c r="M22" s="6">
-        <v>70000</v>
+        <v>84100</v>
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C23" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>173</v>
@@ -4218,31 +4204,31 @@
         <v>129</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="H23" s="8">
-        <v>162.18</v>
+        <v>704.57</v>
       </c>
       <c r="I23" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="7">
-        <v>44927</v>
+        <v>43556</v>
       </c>
       <c r="K23" s="5">
-        <v>49309</v>
+        <v>44926</v>
       </c>
       <c r="L23" s="6">
-        <v>383000</v>
+        <v>367500</v>
       </c>
       <c r="M23" s="6">
         <v>70000</v>
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>175</v>
@@ -4251,7 +4237,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>173</v>
@@ -4263,7 +4249,7 @@
         <v>192</v>
       </c>
       <c r="H24" s="8">
-        <v>168.21</v>
+        <v>162.18</v>
       </c>
       <c r="I24" s="32" t="s">
         <v>3</v>
@@ -4282,9 +4268,9 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>175</v>
@@ -4293,7 +4279,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>173</v>
@@ -4302,19 +4288,19 @@
         <v>129</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="H25" s="8">
-        <v>453.45</v>
+        <v>168.21</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="41">
-        <v>43709</v>
+      <c r="J25" s="7">
+        <v>44927</v>
       </c>
       <c r="K25" s="5">
-        <v>49187</v>
+        <v>49309</v>
       </c>
       <c r="L25" s="6">
         <v>383000</v>
@@ -4324,43 +4310,49 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="4">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>36</v>
+      <c r="C26" s="2">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H26" s="8">
-        <v>1116.77</v>
+        <v>453.45</v>
       </c>
       <c r="I26" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="7">
-        <v>44927</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="J26" s="41">
+        <v>43709</v>
+      </c>
+      <c r="K26" s="5">
+        <v>49187</v>
+      </c>
+      <c r="L26" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M26" s="6">
+        <v>70000</v>
+      </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -4400,7 +4392,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -4442,7 +4434,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -4485,7 +4477,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -4527,7 +4519,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -4563,7 +4555,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -4605,7 +4597,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -4647,72 +4639,72 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="36">
-        <v>306.92</v>
+        <v>37</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1179.0999999999999</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="39">
-        <v>44927</v>
+      <c r="J34" s="7">
+        <v>43647</v>
       </c>
       <c r="K34" s="5">
-        <v>49155</v>
-      </c>
-      <c r="L34" s="40">
-        <v>367500</v>
-      </c>
-      <c r="M34" s="40">
+        <v>44926</v>
+      </c>
+      <c r="L34" s="6">
+        <v>410000</v>
+      </c>
+      <c r="M34" s="6">
         <v>70000</v>
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="4">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="H35" s="8">
-        <v>264.23</v>
+        <v>1116.77</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>3</v>
@@ -4720,22 +4712,14 @@
       <c r="J35" s="7">
         <v>44927</v>
       </c>
-      <c r="K35" s="5">
-        <v>49309</v>
-      </c>
-      <c r="L35" s="6">
-        <v>367500</v>
-      </c>
-      <c r="M35" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="5"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>175</v>
@@ -4744,82 +4728,70 @@
         <v>27</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="8">
+        <v>289.7</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="7">
+        <v>45292</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="20"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="29">
         <v>36</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="B37" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="4">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="8">
+        <v>137.66999999999999</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="7">
+        <v>45292</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="20"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
         <v>37</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1179.0999999999999</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="7">
-        <v>43647</v>
-      </c>
-      <c r="K36" s="5">
-        <v>44926</v>
-      </c>
-      <c r="L36" s="6">
-        <v>410000</v>
-      </c>
-      <c r="M36" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N36" s="20"/>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
-        <v>64</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="4">
-        <v>17</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1547.68451044725</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="45">
-        <v>44986</v>
-      </c>
-      <c r="K37" s="5">
-        <v>49003</v>
-      </c>
-      <c r="L37" s="6">
-        <v>390000</v>
-      </c>
-      <c r="M37" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N37" s="20"/>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29">
-        <v>39</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>175</v>
@@ -4828,7 +4800,7 @@
         <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>173</v>
@@ -4837,31 +4809,31 @@
         <v>129</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="8">
-        <v>977.74</v>
+        <v>40</v>
+      </c>
+      <c r="H38" s="36">
+        <v>306.92</v>
       </c>
       <c r="I38" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="7">
-        <v>43678</v>
+      <c r="J38" s="39">
+        <v>44927</v>
       </c>
       <c r="K38" s="5">
-        <v>49156</v>
-      </c>
-      <c r="L38" s="6">
+        <v>49155</v>
+      </c>
+      <c r="L38" s="40">
         <v>367500</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="40">
         <v>70000</v>
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>175</v>
@@ -4879,7 +4851,7 @@
         <v>182</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="H39" s="8">
         <v>275.33</v>
@@ -4888,31 +4860,31 @@
         <v>3</v>
       </c>
       <c r="J39" s="7">
-        <v>44317</v>
+        <v>45413</v>
       </c>
       <c r="K39" s="5">
-        <v>45412</v>
+        <v>46507</v>
       </c>
       <c r="L39" s="6">
-        <v>440000</v>
+        <v>383000</v>
       </c>
       <c r="M39" s="6">
         <v>70000</v>
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C40" s="4">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>173</v>
@@ -4921,33 +4893,31 @@
         <v>182</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="H40" s="8">
-        <v>137.51</v>
+        <v>275.33</v>
       </c>
       <c r="I40" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="7">
-        <v>45017</v>
+        <v>44317</v>
       </c>
       <c r="K40" s="5">
-        <v>49034</v>
+        <v>45412</v>
       </c>
       <c r="L40" s="6">
-        <v>410000</v>
+        <v>440000</v>
       </c>
       <c r="M40" s="6">
         <v>70000</v>
       </c>
-      <c r="N40" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="20"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>175</v>
@@ -4987,18 +4957,18 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C42" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>173</v>
@@ -5007,31 +4977,31 @@
         <v>129</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H42" s="8">
-        <v>1623.88</v>
+        <v>977.74</v>
       </c>
       <c r="I42" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="7">
-        <v>45108</v>
+        <v>43678</v>
       </c>
       <c r="K42" s="5">
-        <v>49125</v>
+        <v>49156</v>
       </c>
       <c r="L42" s="6">
-        <v>347396</v>
+        <v>367500</v>
       </c>
       <c r="M42" s="6">
-        <v>84100</v>
+        <v>70000</v>
       </c>
       <c r="N42" s="20"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>175</v>
@@ -5040,7 +5010,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>173</v>
@@ -5049,286 +5019,282 @@
         <v>129</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="8">
+        <v>137.71</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="7">
+        <v>44682</v>
+      </c>
+      <c r="K43" s="5">
+        <v>49064</v>
+      </c>
+      <c r="L43" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M43" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N43" s="20"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="29">
+        <v>43</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="4">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="8">
+        <v>306.92</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="7">
+        <v>43191</v>
+      </c>
+      <c r="K44" s="5">
+        <v>45382</v>
+      </c>
+      <c r="L44" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M44" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N44" s="20"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="29">
+        <v>44</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="4">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="43">
+        <v>137.66999999999999</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="7">
+        <v>43282</v>
+      </c>
+      <c r="K45" s="5">
+        <v>44926</v>
+      </c>
+      <c r="L45" s="6">
+        <v>410000</v>
+      </c>
+      <c r="M45" s="40">
+        <v>70000</v>
+      </c>
+      <c r="N45" s="20"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
+        <v>45</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="4">
+        <v>25</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" s="43">
+        <v>137.66999999999999</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="7">
+        <v>45658</v>
+      </c>
+      <c r="K46" s="5">
+        <v>49309</v>
+      </c>
+      <c r="L46" s="6">
+        <v>400000</v>
+      </c>
+      <c r="M46" s="40">
+        <v>70000</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="29">
+        <v>46</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="4">
+        <v>25</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="8">
+        <v>137.66999999999999</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="7">
+        <v>45383</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="29">
+        <v>47</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="4">
+        <v>25</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="8">
+        <v>306.92</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="7">
+        <v>45383</v>
+      </c>
+      <c r="K48" s="5">
+        <v>49034</v>
+      </c>
+      <c r="L48" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M48" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="29">
+        <v>48</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="4">
+        <v>25</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H49" s="8">
         <v>439.08</v>
       </c>
-      <c r="I43" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="7">
+      <c r="I49" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="7">
         <v>43739</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K49" s="5">
         <v>45291</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L49" s="6">
         <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M49" s="6">
         <v>84100</v>
-      </c>
-      <c r="N43" s="20"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="29">
-        <v>42</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="4">
-        <v>25</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="43">
-        <v>137.66999999999999</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="7">
-        <v>43282</v>
-      </c>
-      <c r="K44" s="5">
-        <v>44926</v>
-      </c>
-      <c r="L44" s="6">
-        <v>410000</v>
-      </c>
-      <c r="M44" s="40">
-        <v>70000</v>
-      </c>
-      <c r="N44" s="20"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
-        <v>43</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="4">
-        <v>25</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="H45" s="43">
-        <v>137.66999999999999</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="7">
-        <v>45658</v>
-      </c>
-      <c r="K45" s="5">
-        <v>49309</v>
-      </c>
-      <c r="L45" s="6">
-        <v>400000</v>
-      </c>
-      <c r="M45" s="40">
-        <v>70000</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
-        <v>48</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="4">
-        <v>23</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H46" s="8">
-        <v>1547.71</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="7">
-        <v>45108</v>
-      </c>
-      <c r="K46" s="5">
-        <v>49125</v>
-      </c>
-      <c r="L46" s="6">
-        <v>347396</v>
-      </c>
-      <c r="M46" s="6">
-        <v>84100</v>
-      </c>
-      <c r="N46" s="20"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
-        <v>41</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="4">
-        <v>25</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="8">
-        <v>306.92</v>
-      </c>
-      <c r="I47" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="7">
-        <v>43191</v>
-      </c>
-      <c r="K47" s="5">
-        <v>45382</v>
-      </c>
-      <c r="L47" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M47" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="29">
-        <v>50</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="4">
-        <v>21</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="8">
-        <v>1547.7674437292999</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="7">
-        <v>45108</v>
-      </c>
-      <c r="K48" s="5">
-        <v>49125</v>
-      </c>
-      <c r="L48" s="6">
-        <v>347396</v>
-      </c>
-      <c r="M48" s="6">
-        <v>84100</v>
-      </c>
-      <c r="N48" s="20"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="29">
-        <v>47</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="4">
-        <v>25</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="8">
-        <v>388.65999999999997</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="7">
-        <v>43739</v>
-      </c>
-      <c r="K49" s="5">
-        <v>49217</v>
-      </c>
-      <c r="L49" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M49" s="6">
-        <v>70000</v>
       </c>
       <c r="N49" s="20"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="29">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>175</v>
@@ -5337,7 +5303,7 @@
         <v>25</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>173</v>
@@ -5349,16 +5315,16 @@
         <v>43</v>
       </c>
       <c r="H50" s="8">
-        <v>137.71</v>
+        <v>388.65999999999997</v>
       </c>
       <c r="I50" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J50" s="7">
-        <v>44682</v>
+        <v>43739</v>
       </c>
       <c r="K50" s="5">
-        <v>49064</v>
+        <v>49217</v>
       </c>
       <c r="L50" s="6">
         <v>383000</v>
@@ -5368,28 +5334,30 @@
       </c>
       <c r="N50" s="20"/>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="29">
+        <v>50</v>
+      </c>
       <c r="B51" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C51" s="4">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="H51" s="8">
-        <v>272.08</v>
+        <v>1547.71</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>3</v>
@@ -5397,22 +5365,20 @@
       <c r="J51" s="7">
         <v>45108</v>
       </c>
-      <c r="K51" s="45">
+      <c r="K51" s="5">
         <v>49125</v>
       </c>
       <c r="L51" s="6">
-        <v>383000</v>
+        <v>347396</v>
       </c>
       <c r="M51" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+        <v>84100</v>
+      </c>
+      <c r="N51" s="20"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="29">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="29" t="s">
         <v>175</v>
@@ -5452,30 +5418,30 @@
       </c>
       <c r="N52" s="20"/>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="29">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C53" s="4">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H53" s="8">
-        <v>272.08</v>
+        <v>1547.7674437292999</v>
       </c>
       <c r="I53" s="32" t="s">
         <v>3</v>
@@ -5483,14 +5449,20 @@
       <c r="J53" s="7">
         <v>45108</v>
       </c>
-      <c r="K53" s="45"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
+      <c r="K53" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L53" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M53" s="6">
+        <v>84100</v>
+      </c>
       <c r="N53" s="20"/>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="29">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="29" t="s">
         <v>175</v>
@@ -5531,9 +5503,9 @@
       </c>
       <c r="N54" s="20"/>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="29" t="s">
         <v>175</v>
@@ -5551,31 +5523,31 @@
         <v>182</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" s="8">
+        <v>49</v>
+      </c>
+      <c r="H55" s="34">
         <v>651.25</v>
       </c>
       <c r="I55" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="7">
-        <v>43206</v>
+      <c r="J55" s="5">
+        <v>45763</v>
       </c>
       <c r="K55" s="5">
-        <v>45762</v>
+        <v>49049</v>
       </c>
       <c r="L55" s="6">
-        <v>420000</v>
+        <v>383000</v>
       </c>
       <c r="M55" s="6">
         <v>70000</v>
       </c>
       <c r="N55" s="20"/>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>175</v>
@@ -5593,31 +5565,31 @@
         <v>182</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="34">
+        <v>48</v>
+      </c>
+      <c r="H56" s="8">
         <v>651.25</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="5">
-        <v>45763</v>
+      <c r="J56" s="7">
+        <v>43206</v>
       </c>
       <c r="K56" s="5">
-        <v>49049</v>
+        <v>45762</v>
       </c>
       <c r="L56" s="6">
-        <v>383000</v>
+        <v>420000</v>
       </c>
       <c r="M56" s="6">
         <v>70000</v>
       </c>
       <c r="N56" s="20"/>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>175</v>
@@ -5626,7 +5598,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>173</v>
@@ -5635,25 +5607,31 @@
         <v>182</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" s="34">
-        <v>250.99</v>
+        <v>51</v>
+      </c>
+      <c r="H57" s="8">
+        <v>137.67083232602312</v>
       </c>
       <c r="I57" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="5">
-        <v>44562</v>
-      </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
+      <c r="J57" s="44">
+        <v>44197</v>
+      </c>
+      <c r="K57" s="5">
+        <v>45291</v>
+      </c>
+      <c r="L57" s="6">
+        <v>430000</v>
+      </c>
+      <c r="M57" s="6">
+        <v>70000</v>
+      </c>
       <c r="N57" s="20"/>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>175</v>
@@ -5662,82 +5640,76 @@
         <v>20</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="34">
+        <v>250.99</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="5">
+        <v>44562</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="20"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="29">
+        <v>58</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="4">
+        <v>20</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H58" s="8">
+      <c r="E59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59" s="8">
         <v>137.67083232602312</v>
       </c>
-      <c r="I58" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="44">
-        <v>44197</v>
-      </c>
-      <c r="K58" s="5">
-        <v>45291</v>
-      </c>
-      <c r="L58" s="6">
-        <v>430000</v>
-      </c>
-      <c r="M58" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N58" s="20"/>
-    </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="29">
-        <v>69</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="4">
-        <v>15</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" s="8">
-        <v>1547.75</v>
-      </c>
       <c r="I59" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J59" s="7">
-        <v>45139</v>
+      <c r="J59" s="44">
+        <v>45292</v>
       </c>
       <c r="K59" s="5">
-        <v>49156</v>
+        <v>46752</v>
       </c>
       <c r="L59" s="6">
-        <v>390000</v>
+        <v>410000</v>
       </c>
       <c r="M59" s="6">
         <v>70000</v>
       </c>
       <c r="N59" s="20"/>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>175</v>
@@ -5771,9 +5743,9 @@
       <c r="M60" s="6"/>
       <c r="N60" s="20"/>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>175</v>
@@ -5813,9 +5785,9 @@
       </c>
       <c r="N61" s="20"/>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>175</v>
@@ -5824,7 +5796,7 @@
         <v>19</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>173</v>
@@ -5833,31 +5805,31 @@
         <v>182</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H62" s="8">
-        <v>989.79</v>
+        <v>306.92</v>
       </c>
       <c r="I62" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="7">
-        <v>45170</v>
+        <v>43449</v>
       </c>
       <c r="K62" s="5">
-        <v>49187</v>
+        <v>44544</v>
       </c>
       <c r="L62" s="6">
-        <v>400000</v>
+        <v>383000</v>
       </c>
       <c r="M62" s="6">
         <v>70000</v>
       </c>
       <c r="N62" s="20"/>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>175</v>
@@ -5866,7 +5838,7 @@
         <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>173</v>
@@ -5875,30 +5847,32 @@
         <v>182</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H63" s="8">
-        <v>306.92</v>
+        <v>989.79</v>
       </c>
       <c r="I63" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J63" s="7">
-        <v>43449</v>
+        <v>45170</v>
       </c>
       <c r="K63" s="5">
-        <v>44544</v>
+        <v>49187</v>
       </c>
       <c r="L63" s="6">
-        <v>383000</v>
+        <v>400000</v>
       </c>
       <c r="M63" s="6">
         <v>70000</v>
       </c>
       <c r="N63" s="20"/>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="29">
+        <v>63</v>
+      </c>
       <c r="B64" s="29" t="s">
         <v>175</v>
       </c>
@@ -5906,7 +5880,7 @@
         <v>19</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>173</v>
@@ -5915,25 +5889,31 @@
         <v>182</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H64" s="8">
-        <v>306.92</v>
+        <v>250.99</v>
       </c>
       <c r="I64" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="7">
-        <v>44545</v>
-      </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
+        <v>45170</v>
+      </c>
+      <c r="K64" s="5">
+        <v>49187</v>
+      </c>
+      <c r="L64" s="6">
+        <v>400000</v>
+      </c>
+      <c r="M64" s="6">
+        <v>70000</v>
+      </c>
       <c r="N64" s="20"/>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>175</v>
@@ -5942,7 +5922,7 @@
         <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>173</v>
@@ -5951,31 +5931,25 @@
         <v>182</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H65" s="8">
-        <v>250.99</v>
+        <v>306.92</v>
       </c>
       <c r="I65" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J65" s="7">
-        <v>45170</v>
-      </c>
-      <c r="K65" s="5">
-        <v>49187</v>
-      </c>
-      <c r="L65" s="6">
-        <v>400000</v>
-      </c>
-      <c r="M65" s="6">
-        <v>70000</v>
-      </c>
+        <v>44545</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
       <c r="N65" s="20"/>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>175</v>
@@ -6015,9 +5989,9 @@
       </c>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="29" t="s">
         <v>175</v>
@@ -6035,29 +6009,29 @@
         <v>182</v>
       </c>
       <c r="G67" s="59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H67" s="62">
-        <v>1547.6845104472457</v>
+        <v>1547.68451044725</v>
       </c>
       <c r="I67" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J67" s="54">
-        <v>43891</v>
+        <v>44986</v>
       </c>
       <c r="K67" s="71">
-        <v>44985</v>
+        <v>49003</v>
       </c>
       <c r="L67" s="73">
-        <v>450000</v>
+        <v>390000</v>
       </c>
       <c r="M67" s="6">
         <v>70000</v>
       </c>
       <c r="N67" s="20"/>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
         <v>67</v>
       </c>
@@ -6065,7 +6039,7 @@
         <v>175</v>
       </c>
       <c r="C68" s="58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" s="58" t="s">
         <v>18</v>
@@ -6077,31 +6051,31 @@
         <v>182</v>
       </c>
       <c r="G68" s="59" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="H68" s="62">
-        <v>1559.07</v>
+        <v>1547.6845104472457</v>
       </c>
       <c r="I68" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J68" s="69">
-        <v>45170</v>
+      <c r="J68" s="54">
+        <v>43891</v>
       </c>
       <c r="K68" s="71">
-        <v>49187</v>
+        <v>44985</v>
       </c>
       <c r="L68" s="73">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="M68" s="6">
         <v>70000</v>
       </c>
       <c r="N68" s="20"/>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B69" s="29" t="s">
         <v>175</v>
@@ -6141,18 +6115,18 @@
       </c>
       <c r="N69" s="20"/>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C70" s="58">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D70" s="58" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E70" s="57" t="s">
         <v>173</v>
@@ -6161,33 +6135,31 @@
         <v>182</v>
       </c>
       <c r="G70" s="59" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="H70" s="62">
-        <v>135.97999999999999</v>
+        <v>1559.07</v>
       </c>
       <c r="I70" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J70" s="69">
-        <v>45184</v>
+        <v>45170</v>
       </c>
       <c r="K70" s="71">
-        <v>49201</v>
+        <v>49187</v>
       </c>
       <c r="L70" s="73">
-        <v>390000</v>
+        <v>400000</v>
       </c>
       <c r="M70" s="6">
         <v>70000</v>
       </c>
-      <c r="N70" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="20"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>175</v>
@@ -6227,51 +6199,51 @@
       </c>
       <c r="N71" s="20"/>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C72" s="58">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="58" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E72" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G72" s="59" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="H72" s="62">
-        <v>1234.75</v>
+        <v>1547.75</v>
       </c>
       <c r="I72" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J72" s="69">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="K72" s="71">
-        <v>49308</v>
+        <v>49156</v>
       </c>
       <c r="L72" s="73">
-        <v>367500</v>
+        <v>390000</v>
       </c>
       <c r="M72" s="6">
         <v>70000</v>
       </c>
       <c r="N72" s="20"/>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="29">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>175</v>
@@ -6311,9 +6283,9 @@
       </c>
       <c r="N73" s="20"/>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>175</v>
@@ -6347,9 +6319,9 @@
       <c r="M74" s="6"/>
       <c r="N74" s="20"/>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>175</v>
@@ -6389,9 +6361,9 @@
       </c>
       <c r="N75" s="20"/>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>175</v>
@@ -6433,9 +6405,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>175</v>
@@ -6453,7 +6425,7 @@
         <v>182</v>
       </c>
       <c r="G77" s="59" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="H77" s="62">
         <v>287.33999999999997</v>
@@ -6462,29 +6434,31 @@
         <v>3</v>
       </c>
       <c r="J77" s="69">
-        <v>44136</v>
+        <v>45352</v>
       </c>
       <c r="K77" s="71">
-        <v>45350</v>
+        <v>49003</v>
       </c>
       <c r="L77" s="73">
-        <v>425000</v>
+        <v>400000</v>
       </c>
       <c r="M77" s="6">
         <v>70000</v>
       </c>
       <c r="N77" s="20"/>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="29">
+        <v>77</v>
+      </c>
       <c r="B78" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C78" s="58">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D78" s="58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" s="57" t="s">
         <v>173</v>
@@ -6493,25 +6467,33 @@
         <v>182</v>
       </c>
       <c r="G78" s="59" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H78" s="62">
-        <v>289.7</v>
+        <v>135.97999999999999</v>
       </c>
       <c r="I78" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J78" s="69">
-        <v>45292</v>
-      </c>
-      <c r="K78" s="71"/>
-      <c r="L78" s="73"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="20"/>
-    </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+        <v>45184</v>
+      </c>
+      <c r="K78" s="71">
+        <v>49201</v>
+      </c>
+      <c r="L78" s="73">
+        <v>390000</v>
+      </c>
+      <c r="M78" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N78" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>175</v>
@@ -6520,7 +6502,7 @@
         <v>10</v>
       </c>
       <c r="D79" s="58" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E79" s="57" t="s">
         <v>173</v>
@@ -6532,20 +6514,20 @@
         <v>56</v>
       </c>
       <c r="H79" s="62">
-        <v>287.33999999999997</v>
+        <v>272.08</v>
       </c>
       <c r="I79" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J79" s="69">
-        <v>46813</v>
-      </c>
-      <c r="K79" s="71"/>
+        <v>45108</v>
+      </c>
+      <c r="K79" s="54"/>
       <c r="L79" s="73"/>
       <c r="M79" s="6"/>
       <c r="N79" s="20"/>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
         <v>79</v>
       </c>
@@ -6556,7 +6538,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="57" t="s">
         <v>173</v>
@@ -6565,65 +6547,73 @@
         <v>182</v>
       </c>
       <c r="G80" s="59" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="H80" s="62">
-        <v>135.97999999999999</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="I80" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="69">
-        <v>44089</v>
+        <v>44136</v>
       </c>
       <c r="K80" s="71">
-        <v>45183</v>
+        <v>45350</v>
       </c>
       <c r="L80" s="73">
-        <v>435000</v>
+        <v>425000</v>
       </c>
       <c r="M80" s="6">
         <v>70000</v>
       </c>
       <c r="N80" s="20"/>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="29">
+        <v>80</v>
+      </c>
       <c r="B81" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C81" s="58">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E81" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G81" s="59" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H81" s="62">
-        <v>137.66999999999999</v>
+        <v>264.23</v>
       </c>
       <c r="I81" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="69">
-        <v>45292</v>
-      </c>
-      <c r="K81" s="71"/>
-      <c r="L81" s="73"/>
-      <c r="M81" s="6"/>
+        <v>44835</v>
+      </c>
+      <c r="K81" s="71">
+        <v>44926</v>
+      </c>
+      <c r="L81" s="73">
+        <v>367500</v>
+      </c>
+      <c r="M81" s="6">
+        <v>70000</v>
+      </c>
       <c r="N81" s="20"/>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="29" t="s">
         <v>175</v>
@@ -6641,7 +6631,7 @@
         <v>182</v>
       </c>
       <c r="G82" s="59" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H82" s="62">
         <v>135.97999999999999</v>
@@ -6650,16 +6640,22 @@
         <v>3</v>
       </c>
       <c r="J82" s="69">
-        <v>46280</v>
-      </c>
-      <c r="K82" s="71"/>
-      <c r="L82" s="73"/>
-      <c r="M82" s="6"/>
+        <v>44089</v>
+      </c>
+      <c r="K82" s="71">
+        <v>45183</v>
+      </c>
+      <c r="L82" s="73">
+        <v>435000</v>
+      </c>
+      <c r="M82" s="6">
+        <v>70000</v>
+      </c>
       <c r="N82" s="20"/>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="29">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>175</v>
@@ -6668,38 +6664,41 @@
         <v>10</v>
       </c>
       <c r="D83" s="58" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E83" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G83" s="59" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H83" s="62">
-        <v>135.99</v>
+        <v>264.23</v>
       </c>
       <c r="I83" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="69"/>
+      <c r="J83" s="69">
+        <v>43647</v>
+      </c>
       <c r="K83" s="71">
-        <v>49187</v>
+        <v>44561</v>
       </c>
       <c r="L83" s="73">
-        <v>0</v>
+        <f>362500*11.5/12</f>
+        <v>347395.83333333331</v>
       </c>
       <c r="M83" s="6">
-        <v>0</v>
+        <v>84100</v>
       </c>
       <c r="N83" s="20"/>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="29">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>175</v>
@@ -6708,7 +6707,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="58" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E84" s="57" t="s">
         <v>173</v>
@@ -6717,71 +6716,61 @@
         <v>182</v>
       </c>
       <c r="G84" s="59" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H84" s="62">
-        <v>392.7</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="I84" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J84" s="69"/>
-      <c r="K84" s="71">
-        <v>49187</v>
-      </c>
-      <c r="L84" s="73">
-        <v>0</v>
-      </c>
-      <c r="M84" s="6">
-        <v>0</v>
-      </c>
+      <c r="J84" s="69">
+        <v>46813</v>
+      </c>
+      <c r="K84" s="71"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="6"/>
       <c r="N84" s="20"/>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="29">
+        <v>84</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="58">
+        <v>10</v>
+      </c>
+      <c r="D85" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G85" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" s="58">
-        <v>20</v>
-      </c>
-      <c r="D85" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" s="59" t="s">
-        <v>190</v>
-      </c>
       <c r="H85" s="62">
-        <v>137.67083232602312</v>
+        <v>135.97999999999999</v>
       </c>
       <c r="I85" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J85" s="85">
-        <v>45292</v>
-      </c>
-      <c r="K85" s="71">
-        <v>46752</v>
-      </c>
-      <c r="L85" s="73">
-        <v>410000</v>
-      </c>
-      <c r="M85" s="6">
-        <v>70000</v>
-      </c>
+      <c r="J85" s="69">
+        <v>46280</v>
+      </c>
+      <c r="K85" s="71"/>
+      <c r="L85" s="73"/>
+      <c r="M85" s="6"/>
       <c r="N85" s="20"/>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="29">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>175</v>
@@ -6790,40 +6779,42 @@
         <v>10</v>
       </c>
       <c r="D86" s="58" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E86" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G86" s="59" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="H86" s="62">
-        <v>287.33999999999997</v>
+        <v>264.23</v>
       </c>
       <c r="I86" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J86" s="69">
-        <v>45352</v>
+        <v>44927</v>
       </c>
       <c r="K86" s="71">
-        <v>49003</v>
+        <v>49309</v>
       </c>
       <c r="L86" s="73">
-        <v>400000</v>
+        <v>367500</v>
       </c>
       <c r="M86" s="6">
         <v>70000</v>
       </c>
-      <c r="N86" s="20"/>
-    </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N86" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="29">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>175</v>
@@ -6832,41 +6823,38 @@
         <v>10</v>
       </c>
       <c r="D87" s="58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E87" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G87" s="59" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="H87" s="62">
-        <v>264.23</v>
+        <v>135.99</v>
       </c>
       <c r="I87" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J87" s="69">
-        <v>43647</v>
-      </c>
+      <c r="J87" s="69"/>
       <c r="K87" s="71">
-        <v>44561</v>
+        <v>49187</v>
       </c>
       <c r="L87" s="73">
-        <f>362500*11.5/12</f>
-        <v>347395.83333333331</v>
+        <v>0</v>
       </c>
       <c r="M87" s="6">
-        <v>84100</v>
+        <v>0</v>
       </c>
       <c r="N87" s="20"/>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="29">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>175</v>
@@ -6875,49 +6863,47 @@
         <v>10</v>
       </c>
       <c r="D88" s="58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E88" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G88" s="59" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H88" s="62">
-        <v>264.23</v>
+        <v>392.7</v>
       </c>
       <c r="I88" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J88" s="69">
-        <v>44835</v>
-      </c>
+      <c r="J88" s="69"/>
       <c r="K88" s="71">
-        <v>44926</v>
+        <v>49187</v>
       </c>
       <c r="L88" s="73">
-        <v>367500</v>
+        <v>0</v>
       </c>
       <c r="M88" s="6">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="N88" s="20"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="29">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="58">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D89" s="58" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E89" s="57" t="s">
         <v>173</v>
@@ -6926,25 +6912,33 @@
         <v>182</v>
       </c>
       <c r="G89" s="59" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="H89" s="62">
-        <v>137.66999999999999</v>
+        <v>272.08</v>
       </c>
       <c r="I89" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="69">
-        <v>45383</v>
-      </c>
-      <c r="K89" s="71"/>
-      <c r="L89" s="73"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="20"/>
-    </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+        <v>45108</v>
+      </c>
+      <c r="K89" s="54">
+        <v>49125</v>
+      </c>
+      <c r="L89" s="73">
+        <v>383000</v>
+      </c>
+      <c r="M89" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N89" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="29">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>175</v>
@@ -6953,7 +6947,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="58" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E90" s="57" t="s">
         <v>173</v>
@@ -6962,28 +6956,34 @@
         <v>182</v>
       </c>
       <c r="G90" s="59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H90" s="62">
-        <v>1234.75</v>
+        <v>137.52000000000001</v>
       </c>
       <c r="I90" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J90" s="69"/>
+      <c r="J90" s="69">
+        <v>45566</v>
+      </c>
       <c r="K90" s="71">
-        <v>44895</v>
+        <v>49217</v>
       </c>
       <c r="L90" s="73">
-        <v>390000</v>
+        <v>0</v>
       </c>
       <c r="M90" s="6">
         <v>70000</v>
       </c>
-      <c r="N90" s="20"/>
-    </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="29"/>
+      <c r="N90" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="29">
+        <v>90</v>
+      </c>
       <c r="B91" s="29" t="s">
         <v>175</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="58" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E91" s="57" t="s">
         <v>173</v>
@@ -7000,34 +7000,40 @@
         <v>182</v>
       </c>
       <c r="G91" s="59" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H91" s="62">
-        <v>1234.75</v>
+        <v>137.52000000000001</v>
       </c>
       <c r="I91" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="69">
-        <v>44896</v>
-      </c>
-      <c r="K91" s="71"/>
-      <c r="L91" s="73"/>
-      <c r="M91" s="6"/>
+        <v>43717</v>
+      </c>
+      <c r="K91" s="71">
+        <v>45565</v>
+      </c>
+      <c r="L91" s="73">
+        <v>0</v>
+      </c>
+      <c r="M91" s="6">
+        <v>70000</v>
+      </c>
       <c r="N91" s="20"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C92" s="58">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E92" s="57" t="s">
         <v>173</v>
@@ -7036,22 +7042,22 @@
         <v>182</v>
       </c>
       <c r="G92" s="59" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H92" s="62">
-        <v>306.92</v>
+        <v>137.51</v>
       </c>
       <c r="I92" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J92" s="69">
-        <v>45383</v>
+        <v>45017</v>
       </c>
       <c r="K92" s="71">
         <v>49034</v>
       </c>
       <c r="L92" s="73">
-        <v>383000</v>
+        <v>410000</v>
       </c>
       <c r="M92" s="6">
         <v>70000</v>
@@ -7060,9 +7066,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>175</v>
@@ -7102,18 +7108,18 @@
       </c>
       <c r="N93" s="20"/>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C94" s="58">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D94" s="58" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E94" s="57" t="s">
         <v>173</v>
@@ -7122,31 +7128,29 @@
         <v>182</v>
       </c>
       <c r="G94" s="59" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="H94" s="62">
-        <v>275.33</v>
+        <v>1234.75</v>
       </c>
       <c r="I94" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="69">
-        <v>45413</v>
-      </c>
+      <c r="J94" s="69"/>
       <c r="K94" s="71">
-        <v>46507</v>
+        <v>44895</v>
       </c>
       <c r="L94" s="73">
-        <v>383000</v>
+        <v>390000</v>
       </c>
       <c r="M94" s="6">
         <v>70000</v>
       </c>
       <c r="N94" s="20"/>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="29">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>175</v>
@@ -7155,40 +7159,40 @@
         <v>9</v>
       </c>
       <c r="D95" s="58" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E95" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G95" s="59" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="H95" s="62">
-        <v>137.52000000000001</v>
+        <v>1234.75</v>
       </c>
       <c r="I95" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J95" s="69">
-        <v>43717</v>
+        <v>45200</v>
       </c>
       <c r="K95" s="71">
-        <v>45565</v>
+        <v>49308</v>
       </c>
       <c r="L95" s="73">
-        <v>0</v>
+        <v>367500</v>
       </c>
       <c r="M95" s="6">
         <v>70000</v>
       </c>
       <c r="N95" s="20"/>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="29">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>175</v>
@@ -7197,7 +7201,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="58" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E96" s="57" t="s">
         <v>173</v>
@@ -7206,33 +7210,25 @@
         <v>182</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H96" s="62">
-        <v>137.52000000000001</v>
+        <v>1234.75</v>
       </c>
       <c r="I96" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J96" s="69">
-        <v>45566</v>
-      </c>
-      <c r="K96" s="71">
-        <v>49217</v>
-      </c>
-      <c r="L96" s="73">
-        <v>0</v>
-      </c>
-      <c r="M96" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N96" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+        <v>44896</v>
+      </c>
+      <c r="K96" s="71"/>
+      <c r="L96" s="73"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="20"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>175</v>
@@ -7272,9 +7268,9 @@
       </c>
       <c r="N97" s="20"/>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>175</v>
@@ -7314,9 +7310,9 @@
       </c>
       <c r="N98" s="20"/>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>175</v>
@@ -7356,9 +7352,9 @@
       </c>
       <c r="N99" s="20"/>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>175</v>
@@ -7396,7 +7392,7 @@
       </c>
       <c r="N100" s="20"/>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
         <v>100</v>
       </c>
@@ -7407,7 +7403,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="58" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E101" s="57" t="s">
         <v>173</v>
@@ -7416,31 +7412,29 @@
         <v>182</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H101" s="62">
-        <v>548</v>
+        <v>938.59</v>
       </c>
       <c r="I101" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="69">
-        <v>45962</v>
-      </c>
+      <c r="J101" s="69"/>
       <c r="K101" s="71">
-        <v>49248</v>
+        <v>45961</v>
       </c>
       <c r="L101" s="73">
-        <v>390000</v>
+        <v>410000</v>
       </c>
       <c r="M101" s="6">
         <v>70000</v>
       </c>
       <c r="N101" s="20"/>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>175</v>
@@ -7449,7 +7443,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="58" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E102" s="57" t="s">
         <v>173</v>
@@ -7458,29 +7452,31 @@
         <v>182</v>
       </c>
       <c r="G102" s="59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H102" s="62">
-        <v>938.59</v>
+        <v>548</v>
       </c>
       <c r="I102" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="69"/>
+      <c r="J102" s="69">
+        <v>45962</v>
+      </c>
       <c r="K102" s="71">
-        <v>45961</v>
+        <v>49248</v>
       </c>
       <c r="L102" s="73">
-        <v>410000</v>
+        <v>390000</v>
       </c>
       <c r="M102" s="6">
         <v>70000</v>
       </c>
       <c r="N102" s="20"/>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>175</v>
@@ -7520,9 +7516,9 @@
       </c>
       <c r="N103" s="20"/>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>175</v>
@@ -7560,9 +7556,9 @@
       </c>
       <c r="N104" s="20"/>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="29">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>175</v>
@@ -7602,9 +7598,9 @@
       </c>
       <c r="N105" s="20"/>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="29">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>175</v>
@@ -7642,9 +7638,9 @@
       </c>
       <c r="N106" s="20"/>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>175</v>
@@ -7684,9 +7680,9 @@
       </c>
       <c r="N107" s="20"/>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>175</v>
@@ -7720,9 +7716,9 @@
       <c r="M108" s="14"/>
       <c r="N108" s="20"/>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>175</v>
@@ -7756,9 +7752,9 @@
       <c r="M109" s="14"/>
       <c r="N109" s="20"/>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>175</v>
@@ -7798,9 +7794,9 @@
       </c>
       <c r="N110" s="20"/>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>175</v>
@@ -7840,9 +7836,9 @@
       </c>
       <c r="N111" s="20"/>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="29">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>175</v>
@@ -7882,9 +7878,9 @@
       </c>
       <c r="N112" s="20"/>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="29">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>175</v>
@@ -7924,9 +7920,9 @@
       </c>
       <c r="N113" s="20"/>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="29">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="29" t="s">
         <v>175</v>
@@ -7966,9 +7962,9 @@
       </c>
       <c r="N114" s="20"/>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="29">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="29" t="s">
         <v>175</v>
@@ -8008,9 +8004,9 @@
       </c>
       <c r="N115" s="20"/>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="29">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>175</v>
@@ -8050,9 +8046,9 @@
       </c>
       <c r="N116" s="20"/>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="29">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>175</v>
@@ -8092,9 +8088,9 @@
       </c>
       <c r="N117" s="20"/>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="29">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>175</v>
@@ -8134,9 +8130,9 @@
       </c>
       <c r="N118" s="20"/>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="29">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>175</v>
@@ -8170,9 +8166,9 @@
       <c r="M119" s="14"/>
       <c r="N119" s="20"/>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="29">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>175</v>
@@ -8206,9 +8202,9 @@
       <c r="M120" s="14"/>
       <c r="N120" s="20"/>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="29">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>175</v>
@@ -8242,9 +8238,9 @@
       <c r="M121" s="15"/>
       <c r="N121" s="20"/>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="29">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>175</v>
@@ -8284,9 +8280,9 @@
       </c>
       <c r="N122" s="20"/>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="29">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>175</v>
@@ -8326,9 +8322,9 @@
       </c>
       <c r="N123" s="20"/>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>175</v>
@@ -8368,9 +8364,9 @@
       </c>
       <c r="N124" s="20"/>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="29" t="s">
         <v>175</v>
@@ -8410,9 +8406,9 @@
       </c>
       <c r="N125" s="20"/>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>175</v>
@@ -8452,9 +8448,9 @@
       </c>
       <c r="N126" s="20"/>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="29" t="s">
         <v>175</v>
@@ -8486,9 +8482,9 @@
       <c r="M127" s="14"/>
       <c r="N127" s="20"/>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>175</v>
@@ -8526,9 +8522,9 @@
       </c>
       <c r="N128" s="20"/>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>175</v>
@@ -8566,9 +8562,9 @@
       </c>
       <c r="N129" s="20"/>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>175</v>
@@ -8606,9 +8602,9 @@
       </c>
       <c r="N130" s="20"/>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="29">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="29" t="s">
         <v>175</v>
@@ -8648,9 +8644,9 @@
       </c>
       <c r="N131" s="20"/>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="29">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="29" t="s">
         <v>175</v>
@@ -8690,9 +8686,9 @@
       </c>
       <c r="N132" s="20"/>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="29">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="29" t="s">
         <v>175</v>
@@ -8730,9 +8726,9 @@
       <c r="M133" s="15"/>
       <c r="N133" s="20"/>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="29">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>175</v>
@@ -8770,9 +8766,9 @@
       <c r="M134" s="15"/>
       <c r="N134" s="20"/>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="29">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>175</v>
@@ -8812,9 +8808,9 @@
       </c>
       <c r="N135" s="20"/>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="29">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>175</v>
@@ -8854,9 +8850,9 @@
       </c>
       <c r="N136" s="20"/>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="29">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>175</v>
@@ -8894,9 +8890,9 @@
       <c r="M137" s="15"/>
       <c r="N137" s="20"/>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="29">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="29" t="s">
         <v>175</v>
@@ -8934,9 +8930,9 @@
       <c r="M138" s="15"/>
       <c r="N138" s="20"/>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="29">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="29" t="s">
         <v>175</v>
@@ -8976,9 +8972,9 @@
       </c>
       <c r="N139" s="20"/>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="29">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>175</v>
@@ -9018,9 +9014,9 @@
       </c>
       <c r="N140" s="20"/>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="29">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="29" t="s">
         <v>175</v>
@@ -9058,9 +9054,9 @@
       <c r="M141" s="15"/>
       <c r="N141" s="20"/>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="29">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="29" t="s">
         <v>175</v>
@@ -9098,9 +9094,9 @@
       <c r="M142" s="15"/>
       <c r="N142" s="20"/>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="29" t="s">
         <v>175</v>
@@ -9140,9 +9136,9 @@
       </c>
       <c r="N143" s="20"/>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="29">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>175</v>
@@ -9182,9 +9178,9 @@
       </c>
       <c r="N144" s="20"/>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="29">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>175</v>
@@ -9216,9 +9212,9 @@
       </c>
       <c r="N145" s="20"/>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="29">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="29" t="s">
         <v>175</v>
@@ -9258,9 +9254,9 @@
       </c>
       <c r="N146" s="20"/>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="29">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>175</v>
@@ -9298,9 +9294,9 @@
       <c r="M147" s="15"/>
       <c r="N147" s="20"/>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="29">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="29" t="s">
         <v>175</v>
@@ -9338,9 +9334,9 @@
       <c r="M148" s="14"/>
       <c r="N148" s="20"/>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="29">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>175</v>
@@ -9378,9 +9374,9 @@
       <c r="M149" s="14"/>
       <c r="N149" s="20"/>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="29">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>175</v>
@@ -9414,9 +9410,9 @@
       <c r="M150" s="15"/>
       <c r="N150" s="20"/>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="29">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>175</v>
@@ -9450,9 +9446,9 @@
       <c r="M151" s="15"/>
       <c r="N151" s="20"/>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="29">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="29" t="s">
         <v>175</v>
@@ -9486,9 +9482,9 @@
       <c r="M152" s="15"/>
       <c r="N152" s="20"/>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="29">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="29" t="s">
         <v>175</v>
@@ -9522,9 +9518,9 @@
       <c r="M153" s="15"/>
       <c r="N153" s="20"/>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="29">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="29" t="s">
         <v>175</v>
@@ -9558,9 +9554,9 @@
       <c r="M154" s="15"/>
       <c r="N154" s="20"/>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="29">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="29" t="s">
         <v>175</v>
@@ -9594,9 +9590,9 @@
       <c r="M155" s="15"/>
       <c r="N155" s="20"/>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="29">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="29" t="s">
         <v>175</v>
@@ -9634,9 +9630,9 @@
       <c r="M156" s="15"/>
       <c r="N156" s="20"/>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="29">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="29" t="s">
         <v>175</v>
@@ -9676,9 +9672,9 @@
       </c>
       <c r="N157" s="20"/>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="29">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="29" t="s">
         <v>175</v>
@@ -9718,9 +9714,9 @@
       </c>
       <c r="N158" s="20"/>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="29">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="29" t="s">
         <v>175</v>

--- a/revenue-streamlit/tenancy_list_scenario_01.xlsx
+++ b/revenue-streamlit/tenancy_list_scenario_01.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawan/Development/office/revenue-streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30AED2-E57C-7043-BA86-0ECE30EDDDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{CF30AED2-E57C-7043-BA86-0ECE30EDDDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BB82ED-9983-7942-AABA-9B29AB747C16}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="-41240" windowWidth="47640" windowHeight="38340" tabRatio="765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="2" r:id="rId1"/>
     <sheet name="tenant" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_End">#N/A</definedName>
@@ -28,9 +29,9 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
         <x14:slicerCache r:id="rId4"/>
         <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="192">
   <si>
     <t>AMG</t>
   </si>
@@ -609,9 +610,6 @@
   </si>
   <si>
     <t>scenario 1</t>
-  </si>
-  <si>
-    <t>{Vacant} -&gt; Macmahon Indonesia</t>
   </si>
   <si>
     <t>MindID</t>
@@ -1486,9 +1484,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="43" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1502,6 +1497,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="43" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1552,7 +1550,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="80">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1786,6 +1784,374 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2265,282 +2631,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2832,23 +2922,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N160" totalsRowCount="1" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="A1:N159" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}" name="Table1" displayName="Table1" ref="A1:N157" totalsRowCount="1" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="A1:N156" xr:uid="{1A0023E2-6AF7-7B4C-AA3C-5526EA8C01E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N156">
+    <sortCondition ref="A1:A156"/>
+  </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{49AC1DFB-968F-8C4C-B46A-BA65A08A82F8}" name="Floor" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{7407A2D4-11A2-B14C-9C1E-EB812BA07976}" name="Zone" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{EDDF5F0D-2514-4DA3-8E09-CC07C1F5EC73}" name="Product_Type" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{584F12DA-F9A2-F044-BEE3-95C850B08187}" name="Group" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{9F70DA22-AD03-2E40-982C-172221ED7B17}" name="Tenant" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{38FEB9FC-3468-1746-8CEA-0778DBB66ECF}" name="Area" dataDxfId="20" totalsRowDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{D64C9D1A-FA8B-4C4D-B607-52E1E05305B0}" name="Chg_Type" dataDxfId="19" totalsRowDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{CFF86D67-BC6E-F940-B6C5-060702DC8E14}" name="Start" dataDxfId="18" totalsRowDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{A0B757F2-99D8-6B48-9212-0A3F40DF200F}" name="End" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{29206E0A-C3D4-7148-A9B7-062237C9AD9C}" name="Rental_Rate" dataDxfId="16" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
-    <tableColumn id="12" xr3:uid="{6631B20D-5386-3149-B067-110BB05C3B0A}" name="SC_Rate" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" xr3:uid="{61759F5E-0021-784D-BB1B-F0F0AD385D08}" name="Notes_1" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{82702CBB-B7D8-5C45-8EE8-39144A9E6839}" name="No" totalsRowLabel="Total" dataDxfId="74" totalsRowDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{81693DE1-7410-4E03-8801-E72BA5AA4D0C}" name="Location" dataDxfId="73" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{49AC1DFB-968F-8C4C-B46A-BA65A08A82F8}" name="Floor" dataDxfId="72" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7407A2D4-11A2-B14C-9C1E-EB812BA07976}" name="Zone" dataDxfId="71" totalsRowDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{EDDF5F0D-2514-4DA3-8E09-CC07C1F5EC73}" name="Product_Type" dataDxfId="70" totalsRowDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{584F12DA-F9A2-F044-BEE3-95C850B08187}" name="Group" dataDxfId="69" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9F70DA22-AD03-2E40-982C-172221ED7B17}" name="Tenant" dataDxfId="68" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{38FEB9FC-3468-1746-8CEA-0778DBB66ECF}" name="Area" dataDxfId="67" totalsRowDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{D64C9D1A-FA8B-4C4D-B607-52E1E05305B0}" name="Chg_Type" dataDxfId="66" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{CFF86D67-BC6E-F940-B6C5-060702DC8E14}" name="Start" dataDxfId="65" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{A0B757F2-99D8-6B48-9212-0A3F40DF200F}" name="End" dataDxfId="64" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{29206E0A-C3D4-7148-A9B7-062237C9AD9C}" name="Rental_Rate" dataDxfId="63" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
+    <tableColumn id="12" xr3:uid="{6631B20D-5386-3149-B067-110BB05C3B0A}" name="SC_Rate" dataDxfId="62" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" xr3:uid="{61759F5E-0021-784D-BB1B-F0F0AD385D08}" name="Notes_1" dataDxfId="61" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3226,11 +3319,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3816,19 +3909,19 @@
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="8">
-        <v>925.4</v>
+        <v>25</v>
+      </c>
+      <c r="H14" s="35">
+        <v>704.51</v>
       </c>
       <c r="I14" s="32" t="s">
         <v>3</v>
@@ -3837,14 +3930,13 @@
         <v>43647</v>
       </c>
       <c r="K14" s="5">
-        <v>49125</v>
+        <v>44773</v>
       </c>
       <c r="L14" s="6">
-        <f>362500*11.5/12</f>
-        <v>347395.83333333331</v>
+        <v>450000</v>
       </c>
       <c r="M14" s="6">
-        <v>84100</v>
+        <v>70000</v>
       </c>
       <c r="N14" s="20"/>
     </row>
@@ -3865,10 +3957,10 @@
         <v>173</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="H15" s="35">
         <v>704.51</v>
@@ -3877,13 +3969,13 @@
         <v>3</v>
       </c>
       <c r="J15" s="7">
-        <v>43647</v>
+        <v>44774</v>
       </c>
       <c r="K15" s="5">
-        <v>44773</v>
+        <v>49156</v>
       </c>
       <c r="L15" s="6">
-        <v>450000</v>
+        <v>383000</v>
       </c>
       <c r="M15" s="6">
         <v>70000</v>
@@ -3901,7 +3993,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>173</v>
@@ -3910,25 +4002,26 @@
         <v>129</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="35">
-        <v>704.51</v>
+        <v>22</v>
+      </c>
+      <c r="H16" s="8">
+        <v>925.4</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="7">
-        <v>44774</v>
+        <v>43647</v>
       </c>
       <c r="K16" s="5">
-        <v>49156</v>
+        <v>49125</v>
       </c>
       <c r="L16" s="6">
-        <v>383000</v>
+        <f>362500*11.5/12</f>
+        <v>347395.83333333331</v>
       </c>
       <c r="M16" s="6">
-        <v>70000</v>
+        <v>84100</v>
       </c>
       <c r="N16" s="20"/>
     </row>
@@ -3939,41 +4032,41 @@
       <c r="B17" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="38">
-        <v>357.73</v>
+        <v>185</v>
+      </c>
+      <c r="H17" s="36">
+        <v>347.01</v>
       </c>
       <c r="I17" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="7">
-        <v>42826</v>
-      </c>
-      <c r="K17" s="5">
-        <v>49034</v>
-      </c>
-      <c r="L17" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M17" s="6">
-        <v>70000</v>
+      <c r="J17" s="37">
+        <v>44927</v>
+      </c>
+      <c r="K17" s="37">
+        <v>49125</v>
+      </c>
+      <c r="L17" s="14">
+        <v>347396</v>
+      </c>
+      <c r="M17" s="14">
+        <v>84100</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -3983,41 +4076,41 @@
       <c r="B18" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="8">
-        <v>440.41</v>
+        <v>122</v>
+      </c>
+      <c r="H18" s="38">
+        <v>357.73</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="39">
-        <v>44484</v>
+      <c r="J18" s="7">
+        <v>42826</v>
       </c>
       <c r="K18" s="5">
-        <v>49292</v>
-      </c>
-      <c r="L18" s="40">
-        <v>490000</v>
-      </c>
-      <c r="M18" s="40">
+        <v>49034</v>
+      </c>
+      <c r="L18" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M18" s="6">
         <v>70000</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -4030,8 +4123,8 @@
       <c r="C19" s="4">
         <v>32</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
+      <c r="D19" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>173</v>
@@ -4040,25 +4133,25 @@
         <v>182</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H19" s="36">
-        <v>347.01</v>
+        <v>28</v>
+      </c>
+      <c r="H19" s="8">
+        <v>440.41</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="37">
-        <v>44927</v>
-      </c>
-      <c r="K19" s="37">
-        <v>49125</v>
-      </c>
-      <c r="L19" s="14">
-        <v>347396</v>
-      </c>
-      <c r="M19" s="14">
-        <v>84100</v>
+      <c r="J19" s="39">
+        <v>44484</v>
+      </c>
+      <c r="K19" s="5">
+        <v>46309</v>
+      </c>
+      <c r="L19" s="40">
+        <v>490000</v>
+      </c>
+      <c r="M19" s="40">
+        <v>70000</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>186</v>
@@ -4066,7 +4159,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>175</v>
@@ -4075,7 +4168,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>173</v>
@@ -4084,31 +4177,33 @@
         <v>182</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="H20" s="8">
-        <v>488.65</v>
+        <v>440.41</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="39">
-        <v>44927</v>
+        <v>46310</v>
       </c>
       <c r="K20" s="5">
-        <v>49125</v>
-      </c>
-      <c r="L20" s="6">
-        <v>347396</v>
+        <v>49231</v>
+      </c>
+      <c r="L20" s="40">
+        <v>400000</v>
       </c>
       <c r="M20" s="40">
-        <v>84100</v>
-      </c>
-      <c r="N20" s="20"/>
+        <v>70000</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>175</v>
@@ -4144,34 +4239,34 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="4">
-        <v>31</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="H22" s="8">
-        <v>1623.88</v>
+        <v>488.65</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="7">
-        <v>45108</v>
+      <c r="J22" s="39">
+        <v>44927</v>
       </c>
       <c r="K22" s="5">
         <v>49125</v>
@@ -4179,14 +4274,14 @@
       <c r="L22" s="6">
         <v>347396</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="40">
         <v>84100</v>
       </c>
       <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>175</v>
@@ -4228,16 +4323,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="2">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
+      <c r="C24" s="4">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>173</v>
@@ -4246,31 +4341,31 @@
         <v>129</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="H24" s="8">
-        <v>162.18</v>
+        <v>1623.88</v>
       </c>
       <c r="I24" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="7">
-        <v>44927</v>
+        <v>45108</v>
       </c>
       <c r="K24" s="5">
-        <v>49309</v>
+        <v>49125</v>
       </c>
       <c r="L24" s="6">
-        <v>383000</v>
+        <v>347396</v>
       </c>
       <c r="M24" s="6">
-        <v>70000</v>
+        <v>84100</v>
       </c>
       <c r="N24" s="20"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>175</v>
@@ -4279,7 +4374,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>173</v>
@@ -4288,10 +4383,10 @@
         <v>129</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H25" s="8">
-        <v>168.21</v>
+        <v>162.18</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>3</v>
@@ -4312,7 +4407,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>175</v>
@@ -4354,7 +4449,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>175</v>
@@ -4363,7 +4458,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>173</v>
@@ -4372,17 +4467,19 @@
         <v>129</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="H27" s="8">
-        <v>329.07</v>
+        <v>168.21</v>
       </c>
       <c r="I27" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7">
+        <v>44927</v>
+      </c>
       <c r="K27" s="5">
-        <v>49187</v>
+        <v>49309</v>
       </c>
       <c r="L27" s="6">
         <v>383000</v>
@@ -4394,7 +4491,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>175</v>
@@ -4403,7 +4500,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>173</v>
@@ -4412,17 +4509,15 @@
         <v>129</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28" s="8">
-        <v>518.71</v>
+        <v>329.07</v>
       </c>
       <c r="I28" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="7">
-        <v>44075</v>
-      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="5">
         <v>49187</v>
       </c>
@@ -4436,16 +4531,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C29" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>173</v>
@@ -4454,74 +4549,74 @@
         <v>129</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8">
+        <v>518.71</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="7">
+        <v>44075</v>
+      </c>
+      <c r="K29" s="5">
+        <v>49187</v>
+      </c>
+      <c r="L29" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M29" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>1624.34</v>
       </c>
-      <c r="I29" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="I30" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="7">
         <v>43647</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K30" s="5">
         <v>49125</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L30" s="6">
         <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M30" s="6">
         <v>84100</v>
-      </c>
-      <c r="N29" s="20"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="29">
-        <v>29</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="4">
-        <v>28</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1603.39</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" s="41">
-        <v>43678</v>
-      </c>
-      <c r="K30" s="5">
-        <v>49187</v>
-      </c>
-      <c r="L30" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M30" s="6">
-        <v>70000</v>
       </c>
       <c r="N30" s="20"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>175</v>
@@ -4536,10 +4631,10 @@
         <v>173</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H31" s="8">
         <v>1603.39</v>
@@ -4548,25 +4643,31 @@
         <v>3</v>
       </c>
       <c r="J31" s="41">
-        <v>46631</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+        <v>43678</v>
+      </c>
+      <c r="K31" s="5">
+        <v>49187</v>
+      </c>
+      <c r="L31" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M31" s="6">
+        <v>70000</v>
+      </c>
       <c r="N31" s="20"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C32" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>173</v>
@@ -4574,32 +4675,26 @@
       <c r="F32" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>34</v>
+      <c r="G32" s="42" t="s">
+        <v>56</v>
       </c>
       <c r="H32" s="8">
-        <v>289.7</v>
+        <v>1603.39</v>
       </c>
       <c r="I32" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="7">
-        <v>44287</v>
-      </c>
-      <c r="K32" s="5">
-        <v>45291</v>
-      </c>
-      <c r="L32" s="6">
-        <v>430000</v>
-      </c>
-      <c r="M32" s="6">
-        <v>70000</v>
-      </c>
+      <c r="J32" s="41">
+        <v>46631</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="20"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>175</v>
@@ -4608,7 +4703,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>173</v>
@@ -4617,22 +4712,22 @@
         <v>182</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="H33" s="8">
-        <v>137.66999999999999</v>
+        <v>289.7</v>
       </c>
       <c r="I33" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="7">
-        <v>44774</v>
+        <v>44287</v>
       </c>
       <c r="K33" s="5">
         <v>45291</v>
       </c>
       <c r="L33" s="6">
-        <v>410000</v>
+        <v>430000</v>
       </c>
       <c r="M33" s="6">
         <v>70000</v>
@@ -4641,7 +4736,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>175</v>
@@ -4650,7 +4745,7 @@
         <v>27</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>173</v>
@@ -4659,31 +4754,25 @@
         <v>182</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H34" s="8">
-        <v>1179.0999999999999</v>
+        <v>289.7</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J34" s="7">
-        <v>43647</v>
-      </c>
-      <c r="K34" s="5">
-        <v>44926</v>
-      </c>
-      <c r="L34" s="6">
-        <v>410000</v>
-      </c>
-      <c r="M34" s="6">
-        <v>70000</v>
-      </c>
+        <v>45292</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="20"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>175</v>
@@ -4692,7 +4781,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>173</v>
@@ -4701,25 +4790,31 @@
         <v>182</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="H35" s="8">
-        <v>1116.77</v>
+        <v>137.66999999999999</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="7">
-        <v>44927</v>
-      </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+        <v>44774</v>
+      </c>
+      <c r="K35" s="5">
+        <v>45291</v>
+      </c>
+      <c r="L35" s="6">
+        <v>410000</v>
+      </c>
+      <c r="M35" s="6">
+        <v>70000</v>
+      </c>
       <c r="N35" s="20"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>175</v>
@@ -4728,7 +4823,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>173</v>
@@ -4740,7 +4835,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="8">
-        <v>289.7</v>
+        <v>137.66999999999999</v>
       </c>
       <c r="I36" s="32" t="s">
         <v>3</v>
@@ -4755,7 +4850,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>175</v>
@@ -4764,7 +4859,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>173</v>
@@ -4773,67 +4868,67 @@
         <v>182</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H37" s="8">
-        <v>137.66999999999999</v>
+        <v>1179.0999999999999</v>
       </c>
       <c r="I37" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J37" s="7">
-        <v>45292</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+        <v>43647</v>
+      </c>
+      <c r="K37" s="5">
+        <v>44926</v>
+      </c>
+      <c r="L37" s="6">
+        <v>410000</v>
+      </c>
+      <c r="M37" s="6">
+        <v>70000</v>
+      </c>
       <c r="N37" s="20"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C38" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="36">
-        <v>306.92</v>
+        <v>56</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1116.77</v>
       </c>
       <c r="I38" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="7">
         <v>44927</v>
       </c>
-      <c r="K38" s="5">
-        <v>49155</v>
-      </c>
-      <c r="L38" s="40">
-        <v>367500</v>
-      </c>
-      <c r="M38" s="40">
-        <v>70000</v>
-      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="20"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>175</v>
@@ -4842,31 +4937,31 @@
         <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="H39" s="8">
-        <v>275.33</v>
+        <v>977.74</v>
       </c>
       <c r="I39" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="7">
-        <v>45413</v>
+        <v>43678</v>
       </c>
       <c r="K39" s="5">
-        <v>46507</v>
+        <v>49156</v>
       </c>
       <c r="L39" s="6">
-        <v>383000</v>
+        <v>367500</v>
       </c>
       <c r="M39" s="6">
         <v>70000</v>
@@ -4875,7 +4970,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>175</v>
@@ -4917,7 +5012,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>175</v>
@@ -4935,7 +5030,7 @@
         <v>182</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="H41" s="8">
         <v>275.33</v>
@@ -4944,13 +5039,13 @@
         <v>3</v>
       </c>
       <c r="J41" s="7">
-        <v>46874</v>
+        <v>45413</v>
       </c>
       <c r="K41" s="5">
-        <v>49156</v>
+        <v>46507</v>
       </c>
       <c r="L41" s="6">
-        <v>400000</v>
+        <v>383000</v>
       </c>
       <c r="M41" s="6">
         <v>70000</v>
@@ -4959,7 +5054,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>175</v>
@@ -4968,25 +5063,25 @@
         <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H42" s="8">
-        <v>977.74</v>
+        <v>275.33</v>
       </c>
       <c r="I42" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="7">
-        <v>43678</v>
+        <v>46508</v>
       </c>
       <c r="K42" s="5">
         <v>49156</v>
@@ -5001,16 +5096,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C43" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>173</v>
@@ -5019,31 +5114,31 @@
         <v>129</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="8">
-        <v>137.71</v>
+        <v>40</v>
+      </c>
+      <c r="H43" s="36">
+        <v>306.92</v>
       </c>
       <c r="I43" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="7">
-        <v>44682</v>
+      <c r="J43" s="39">
+        <v>44927</v>
       </c>
       <c r="K43" s="5">
-        <v>49064</v>
-      </c>
-      <c r="L43" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M43" s="6">
+        <v>49155</v>
+      </c>
+      <c r="L43" s="40">
+        <v>367500</v>
+      </c>
+      <c r="M43" s="40">
         <v>70000</v>
       </c>
       <c r="N43" s="20"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>175</v>
@@ -5052,40 +5147,41 @@
         <v>25</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H44" s="8">
-        <v>306.92</v>
+        <v>439.08</v>
       </c>
       <c r="I44" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="7">
-        <v>43191</v>
+        <v>43739</v>
       </c>
       <c r="K44" s="5">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="L44" s="6">
-        <v>383000</v>
+        <f>362500*11.5/12</f>
+        <v>347395.83333333331</v>
       </c>
       <c r="M44" s="6">
-        <v>70000</v>
+        <v>84100</v>
       </c>
       <c r="N44" s="20"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="29">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>175</v>
@@ -5127,7 +5223,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="29">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>175</v>
@@ -5171,7 +5267,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="29">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>175</v>
@@ -5207,7 +5303,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="29">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
         <v>175</v>
@@ -5225,7 +5321,7 @@
         <v>182</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="H48" s="8">
         <v>306.92</v>
@@ -5234,10 +5330,10 @@
         <v>3</v>
       </c>
       <c r="J48" s="7">
-        <v>45383</v>
+        <v>43191</v>
       </c>
       <c r="K48" s="5">
-        <v>49034</v>
+        <v>45382</v>
       </c>
       <c r="L48" s="6">
         <v>383000</v>
@@ -5245,13 +5341,11 @@
       <c r="M48" s="6">
         <v>70000</v>
       </c>
-      <c r="N48" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N48" s="20"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>175</v>
@@ -5260,294 +5354,285 @@
         <v>25</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="8">
+        <v>306.92</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="20"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="29">
+        <v>48</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="4">
+        <v>25</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="8">
+        <v>388.65999999999997</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="7">
+        <v>43739</v>
+      </c>
+      <c r="K50" s="5">
+        <v>49217</v>
+      </c>
+      <c r="L50" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M50" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N50" s="20"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="29">
+        <v>49</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="4">
+        <v>25</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="8">
+        <v>137.71</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="7">
+        <v>44682</v>
+      </c>
+      <c r="K51" s="5">
+        <v>49064</v>
+      </c>
+      <c r="L51" s="6">
+        <v>383000</v>
+      </c>
+      <c r="M51" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N51" s="20"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="29">
+        <v>50</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="4">
+        <v>23</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="8">
+        <v>1547.71</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="7">
+        <v>45108</v>
+      </c>
+      <c r="K52" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L52" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M52" s="6">
+        <v>84100</v>
+      </c>
+      <c r="N52" s="20"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="29">
+        <v>51</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="4">
         <v>22</v>
       </c>
-      <c r="H49" s="8">
-        <v>439.08</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="7">
-        <v>43739</v>
-      </c>
-      <c r="K49" s="5">
-        <v>45291</v>
-      </c>
-      <c r="L49" s="6">
+      <c r="D53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1567.54</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="7">
+        <v>43647</v>
+      </c>
+      <c r="K53" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L53" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M53" s="6">
+        <v>84100</v>
+      </c>
+      <c r="N53" s="20"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="29">
+        <v>52</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="4">
+        <v>21</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1547.7674437292999</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="7">
+        <v>45108</v>
+      </c>
+      <c r="K54" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L54" s="6">
+        <v>347396</v>
+      </c>
+      <c r="M54" s="6">
+        <v>84100</v>
+      </c>
+      <c r="N54" s="20"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="29">
+        <v>53</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="4">
+        <v>20</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="8">
+        <v>370.08</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="7">
+        <v>43647</v>
+      </c>
+      <c r="K55" s="5">
+        <v>49125</v>
+      </c>
+      <c r="L55" s="6">
         <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M55" s="6">
         <v>84100</v>
-      </c>
-      <c r="N49" s="20"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="29">
-        <v>49</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="4">
-        <v>25</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="8">
-        <v>388.65999999999997</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="7">
-        <v>43739</v>
-      </c>
-      <c r="K50" s="5">
-        <v>49217</v>
-      </c>
-      <c r="L50" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M50" s="6">
-        <v>70000</v>
-      </c>
-      <c r="N50" s="20"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="29">
-        <v>50</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="4">
-        <v>23</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" s="8">
-        <v>1547.71</v>
-      </c>
-      <c r="I51" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="7">
-        <v>45108</v>
-      </c>
-      <c r="K51" s="5">
-        <v>49125</v>
-      </c>
-      <c r="L51" s="6">
-        <v>347396</v>
-      </c>
-      <c r="M51" s="6">
-        <v>84100</v>
-      </c>
-      <c r="N51" s="20"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="29">
-        <v>51</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="4">
-        <v>22</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="8">
-        <v>1567.54</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="7">
-        <v>43647</v>
-      </c>
-      <c r="K52" s="5">
-        <v>49125</v>
-      </c>
-      <c r="L52" s="6">
-        <v>347396</v>
-      </c>
-      <c r="M52" s="6">
-        <v>84100</v>
-      </c>
-      <c r="N52" s="20"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="29">
-        <v>52</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="4">
-        <v>21</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="8">
-        <v>1547.7674437292999</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="7">
-        <v>45108</v>
-      </c>
-      <c r="K53" s="5">
-        <v>49125</v>
-      </c>
-      <c r="L53" s="6">
-        <v>347396</v>
-      </c>
-      <c r="M53" s="6">
-        <v>84100</v>
-      </c>
-      <c r="N53" s="20"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="29">
-        <v>53</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C54" s="4">
-        <v>20</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="8">
-        <v>370.08</v>
-      </c>
-      <c r="I54" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="7">
-        <v>43647</v>
-      </c>
-      <c r="K54" s="5">
-        <v>49125</v>
-      </c>
-      <c r="L54" s="6">
-        <f>362500*11.5/12</f>
-        <v>347395.83333333331</v>
-      </c>
-      <c r="M54" s="6">
-        <v>84100</v>
-      </c>
-      <c r="N54" s="20"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="29">
-        <v>54</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="4">
-        <v>20</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="34">
-        <v>651.25</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="5">
-        <v>45763</v>
-      </c>
-      <c r="K55" s="5">
-        <v>49049</v>
-      </c>
-      <c r="L55" s="6">
-        <v>383000</v>
-      </c>
-      <c r="M55" s="6">
-        <v>70000</v>
       </c>
       <c r="N55" s="20"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>175</v>
@@ -5565,22 +5650,22 @@
         <v>182</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H56" s="8">
+        <v>49</v>
+      </c>
+      <c r="H56" s="34">
         <v>651.25</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="7">
-        <v>43206</v>
+      <c r="J56" s="5">
+        <v>45763</v>
       </c>
       <c r="K56" s="5">
-        <v>45762</v>
+        <v>49049</v>
       </c>
       <c r="L56" s="6">
-        <v>420000</v>
+        <v>383000</v>
       </c>
       <c r="M56" s="6">
         <v>70000</v>
@@ -5589,7 +5674,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="29">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="29" t="s">
         <v>175</v>
@@ -5598,7 +5683,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>173</v>
@@ -5607,22 +5692,22 @@
         <v>182</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H57" s="8">
-        <v>137.67083232602312</v>
+        <v>651.25</v>
       </c>
       <c r="I57" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="44">
-        <v>44197</v>
+      <c r="J57" s="7">
+        <v>43206</v>
       </c>
       <c r="K57" s="5">
-        <v>45291</v>
+        <v>45762</v>
       </c>
       <c r="L57" s="6">
-        <v>430000</v>
+        <v>420000</v>
       </c>
       <c r="M57" s="6">
         <v>70000</v>
@@ -5631,7 +5716,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="29">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>175</v>
@@ -5667,7 +5752,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="29">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="29" t="s">
         <v>175</v>
@@ -5685,7 +5770,7 @@
         <v>182</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="H59" s="8">
         <v>137.67083232602312</v>
@@ -5694,13 +5779,13 @@
         <v>3</v>
       </c>
       <c r="J59" s="44">
-        <v>45292</v>
+        <v>44197</v>
       </c>
       <c r="K59" s="5">
-        <v>46752</v>
+        <v>45291</v>
       </c>
       <c r="L59" s="6">
-        <v>410000</v>
+        <v>430000</v>
       </c>
       <c r="M59" s="6">
         <v>70000</v>
@@ -5709,7 +5794,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="29">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>175</v>
@@ -5718,7 +5803,7 @@
         <v>20</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>173</v>
@@ -5727,34 +5812,40 @@
         <v>182</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="H60" s="8">
-        <v>137.71</v>
+        <v>137.67083232602312</v>
       </c>
       <c r="I60" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="7">
-        <v>44562</v>
-      </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
+      <c r="J60" s="44">
+        <v>45292</v>
+      </c>
+      <c r="K60" s="5">
+        <v>46752</v>
+      </c>
+      <c r="L60" s="6">
+        <v>410000</v>
+      </c>
+      <c r="M60" s="6">
+        <v>70000</v>
+      </c>
       <c r="N60" s="20"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="29">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C61" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>173</v>
@@ -5763,31 +5854,25 @@
         <v>182</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H61" s="8">
-        <v>989.79</v>
+        <v>137.71</v>
       </c>
       <c r="I61" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J61" s="7">
-        <v>44075</v>
-      </c>
-      <c r="K61" s="5">
-        <v>45169</v>
-      </c>
-      <c r="L61" s="6">
-        <v>425000</v>
-      </c>
-      <c r="M61" s="6">
-        <v>70000</v>
-      </c>
+        <v>44562</v>
+      </c>
+      <c r="K61" s="5"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
       <c r="N61" s="20"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>175</v>
@@ -5796,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>173</v>
@@ -5805,22 +5890,22 @@
         <v>182</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H62" s="8">
-        <v>306.92</v>
+        <v>989.79</v>
       </c>
       <c r="I62" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="7">
-        <v>43449</v>
+        <v>44075</v>
       </c>
       <c r="K62" s="5">
-        <v>44544</v>
+        <v>45169</v>
       </c>
       <c r="L62" s="6">
-        <v>383000</v>
+        <v>425000</v>
       </c>
       <c r="M62" s="6">
         <v>70000</v>
@@ -5829,7 +5914,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="29" t="s">
         <v>175</v>
@@ -5871,7 +5956,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="29" t="s">
         <v>175</v>
@@ -5880,7 +5965,7 @@
         <v>19</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>173</v>
@@ -5889,22 +5974,22 @@
         <v>182</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H64" s="8">
-        <v>250.99</v>
+        <v>306.92</v>
       </c>
       <c r="I64" s="32" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="7">
-        <v>45170</v>
+        <v>43449</v>
       </c>
       <c r="K64" s="5">
-        <v>49187</v>
+        <v>44544</v>
       </c>
       <c r="L64" s="6">
-        <v>400000</v>
+        <v>383000</v>
       </c>
       <c r="M64" s="6">
         <v>70000</v>
@@ -5913,7 +5998,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="29">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="29" t="s">
         <v>175</v>
@@ -5949,16 +6034,16 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="29">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C66" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>173</v>
@@ -5970,7 +6055,7 @@
         <v>53</v>
       </c>
       <c r="H66" s="8">
-        <v>1563.7810374560884</v>
+        <v>250.99</v>
       </c>
       <c r="I66" s="32" t="s">
         <v>3</v>
@@ -5991,13 +6076,13 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="29">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C67" s="58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67" s="58" t="s">
         <v>18</v>
@@ -6009,22 +6094,22 @@
         <v>182</v>
       </c>
       <c r="G67" s="59" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H67" s="62">
-        <v>1547.68451044725</v>
+        <v>1563.7810374560884</v>
       </c>
       <c r="I67" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J67" s="54">
-        <v>44986</v>
+      <c r="J67" s="69">
+        <v>45170</v>
       </c>
       <c r="K67" s="71">
-        <v>49003</v>
+        <v>49187</v>
       </c>
       <c r="L67" s="73">
-        <v>390000</v>
+        <v>400000</v>
       </c>
       <c r="M67" s="6">
         <v>70000</v>
@@ -6033,7 +6118,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="29" t="s">
         <v>175</v>
@@ -6075,13 +6160,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C69" s="58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69" s="58" t="s">
         <v>18</v>
@@ -6093,22 +6178,22 @@
         <v>182</v>
       </c>
       <c r="G69" s="59" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="H69" s="62">
-        <v>1559.07</v>
+        <v>1547.68451044725</v>
       </c>
       <c r="I69" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J69" s="69">
-        <v>44075</v>
+      <c r="J69" s="54">
+        <v>44986</v>
       </c>
       <c r="K69" s="71">
-        <v>45169</v>
+        <v>49003</v>
       </c>
       <c r="L69" s="73">
-        <v>425000</v>
+        <v>390000</v>
       </c>
       <c r="M69" s="6">
         <v>70000</v>
@@ -6117,7 +6202,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="29" t="s">
         <v>175</v>
@@ -6135,7 +6220,7 @@
         <v>182</v>
       </c>
       <c r="G70" s="59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H70" s="62">
         <v>1559.07</v>
@@ -6144,13 +6229,13 @@
         <v>3</v>
       </c>
       <c r="J70" s="69">
-        <v>45170</v>
+        <v>44075</v>
       </c>
       <c r="K70" s="71">
-        <v>49187</v>
+        <v>45169</v>
       </c>
       <c r="L70" s="73">
-        <v>400000</v>
+        <v>425000</v>
       </c>
       <c r="M70" s="6">
         <v>70000</v>
@@ -6159,13 +6244,13 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="29">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C71" s="58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" s="58" t="s">
         <v>18</v>
@@ -6177,22 +6262,22 @@
         <v>182</v>
       </c>
       <c r="G71" s="59" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="H71" s="62">
-        <v>1547.75</v>
+        <v>1559.07</v>
       </c>
       <c r="I71" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J71" s="69">
-        <v>44044</v>
+        <v>45170</v>
       </c>
       <c r="K71" s="71">
-        <v>45138</v>
+        <v>49187</v>
       </c>
       <c r="L71" s="73">
-        <v>425000</v>
+        <v>400000</v>
       </c>
       <c r="M71" s="6">
         <v>70000</v>
@@ -6201,7 +6286,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>175</v>
@@ -6219,7 +6304,7 @@
         <v>182</v>
       </c>
       <c r="G72" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H72" s="62">
         <v>1547.75</v>
@@ -6228,13 +6313,13 @@
         <v>3</v>
       </c>
       <c r="J72" s="69">
-        <v>45139</v>
+        <v>44044</v>
       </c>
       <c r="K72" s="71">
-        <v>49156</v>
+        <v>45138</v>
       </c>
       <c r="L72" s="73">
-        <v>390000</v>
+        <v>425000</v>
       </c>
       <c r="M72" s="6">
         <v>70000</v>
@@ -6243,13 +6328,13 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="29">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C73" s="58">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D73" s="58" t="s">
         <v>18</v>
@@ -6261,22 +6346,22 @@
         <v>182</v>
       </c>
       <c r="G73" s="59" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H73" s="62">
-        <v>1565.69</v>
+        <v>1547.75</v>
       </c>
       <c r="I73" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="72">
-        <v>43449</v>
+      <c r="J73" s="69">
+        <v>45139</v>
       </c>
       <c r="K73" s="71">
-        <v>44544</v>
+        <v>49156</v>
       </c>
       <c r="L73" s="73">
-        <v>383000</v>
+        <v>390000</v>
       </c>
       <c r="M73" s="6">
         <v>70000</v>
@@ -6285,7 +6370,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="29" t="s">
         <v>175</v>
@@ -6303,7 +6388,7 @@
         <v>182</v>
       </c>
       <c r="G74" s="59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H74" s="62">
         <v>1565.69</v>
@@ -6312,22 +6397,28 @@
         <v>3</v>
       </c>
       <c r="J74" s="72">
-        <v>44562</v>
-      </c>
-      <c r="K74" s="71"/>
-      <c r="L74" s="73"/>
-      <c r="M74" s="6"/>
+        <v>43449</v>
+      </c>
+      <c r="K74" s="71">
+        <v>44544</v>
+      </c>
+      <c r="L74" s="73">
+        <v>383000</v>
+      </c>
+      <c r="M74" s="6">
+        <v>70000</v>
+      </c>
       <c r="N74" s="20"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="29">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C75" s="58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="58" t="s">
         <v>18</v>
@@ -6339,31 +6430,25 @@
         <v>182</v>
       </c>
       <c r="G75" s="59" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H75" s="62">
-        <v>1519.21</v>
+        <v>1565.69</v>
       </c>
       <c r="I75" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J75" s="72">
-        <v>43449</v>
-      </c>
-      <c r="K75" s="71">
-        <v>44544</v>
-      </c>
-      <c r="L75" s="73">
-        <v>383000</v>
-      </c>
-      <c r="M75" s="6">
-        <v>70000</v>
-      </c>
+        <v>44562</v>
+      </c>
+      <c r="K75" s="71"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="6"/>
       <c r="N75" s="20"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="29">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>175</v>
@@ -6381,7 +6466,7 @@
         <v>182</v>
       </c>
       <c r="G76" s="59" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="H76" s="62">
         <v>1519.21</v>
@@ -6390,33 +6475,31 @@
         <v>3</v>
       </c>
       <c r="J76" s="72">
-        <v>46388</v>
+        <v>43449</v>
       </c>
       <c r="K76" s="71">
-        <v>49309</v>
+        <v>44544</v>
       </c>
       <c r="L76" s="73">
-        <v>400000</v>
+        <v>383000</v>
       </c>
       <c r="M76" s="6">
         <v>70000</v>
       </c>
-      <c r="N76" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N76" s="20"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C77" s="58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E77" s="57" t="s">
         <v>173</v>
@@ -6425,19 +6508,19 @@
         <v>182</v>
       </c>
       <c r="G77" s="59" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="H77" s="62">
-        <v>287.33999999999997</v>
+        <v>1519.21</v>
       </c>
       <c r="I77" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J77" s="69">
-        <v>45352</v>
+      <c r="J77" s="72">
+        <v>46388</v>
       </c>
       <c r="K77" s="71">
-        <v>49003</v>
+        <v>49309</v>
       </c>
       <c r="L77" s="73">
         <v>400000</v>
@@ -6445,11 +6528,13 @@
       <c r="M77" s="6">
         <v>70000</v>
       </c>
-      <c r="N77" s="20"/>
+      <c r="N77" s="20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>175</v>
@@ -6458,7 +6543,7 @@
         <v>10</v>
       </c>
       <c r="D78" s="58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="57" t="s">
         <v>173</v>
@@ -6467,33 +6552,31 @@
         <v>182</v>
       </c>
       <c r="G78" s="59" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="H78" s="62">
-        <v>135.97999999999999</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="I78" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J78" s="69">
-        <v>45184</v>
+        <v>44136</v>
       </c>
       <c r="K78" s="71">
-        <v>49201</v>
+        <v>45350</v>
       </c>
       <c r="L78" s="73">
-        <v>390000</v>
+        <v>425000</v>
       </c>
       <c r="M78" s="6">
         <v>70000</v>
       </c>
-      <c r="N78" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N78" s="20"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>175</v>
@@ -6502,7 +6585,7 @@
         <v>10</v>
       </c>
       <c r="D79" s="58" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E79" s="57" t="s">
         <v>173</v>
@@ -6511,25 +6594,31 @@
         <v>182</v>
       </c>
       <c r="G79" s="59" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="H79" s="62">
-        <v>272.08</v>
+        <v>287.33999999999997</v>
       </c>
       <c r="I79" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J79" s="69">
-        <v>45108</v>
-      </c>
-      <c r="K79" s="54"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="6"/>
+        <v>45352</v>
+      </c>
+      <c r="K79" s="71">
+        <v>49003</v>
+      </c>
+      <c r="L79" s="73">
+        <v>400000</v>
+      </c>
+      <c r="M79" s="6">
+        <v>70000</v>
+      </c>
       <c r="N79" s="20"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="29" t="s">
         <v>175</v>
@@ -6538,7 +6627,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80" s="57" t="s">
         <v>173</v>
@@ -6547,22 +6636,22 @@
         <v>182</v>
       </c>
       <c r="G80" s="59" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="H80" s="62">
-        <v>287.33999999999997</v>
+        <v>135.97999999999999</v>
       </c>
       <c r="I80" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="69">
-        <v>44136</v>
+        <v>44089</v>
       </c>
       <c r="K80" s="71">
-        <v>45350</v>
+        <v>45183</v>
       </c>
       <c r="L80" s="73">
-        <v>425000</v>
+        <v>435000</v>
       </c>
       <c r="M80" s="6">
         <v>70000</v>
@@ -6571,7 +6660,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="29">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>175</v>
@@ -6580,40 +6669,42 @@
         <v>10</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E81" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G81" s="59" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="H81" s="62">
-        <v>264.23</v>
+        <v>135.97999999999999</v>
       </c>
       <c r="I81" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="69">
-        <v>44835</v>
+        <v>45184</v>
       </c>
       <c r="K81" s="71">
-        <v>44926</v>
+        <v>49201</v>
       </c>
       <c r="L81" s="73">
-        <v>367500</v>
+        <v>390000</v>
       </c>
       <c r="M81" s="6">
         <v>70000</v>
       </c>
-      <c r="N81" s="20"/>
+      <c r="N81" s="20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="29" t="s">
         <v>175</v>
@@ -6622,7 +6713,7 @@
         <v>10</v>
       </c>
       <c r="D82" s="58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82" s="57" t="s">
         <v>173</v>
@@ -6631,31 +6722,29 @@
         <v>182</v>
       </c>
       <c r="G82" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H82" s="62">
-        <v>135.97999999999999</v>
+        <v>135.99</v>
       </c>
       <c r="I82" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J82" s="69">
-        <v>44089</v>
-      </c>
+      <c r="J82" s="69"/>
       <c r="K82" s="71">
-        <v>45183</v>
+        <v>49187</v>
       </c>
       <c r="L82" s="73">
-        <v>435000</v>
+        <v>0</v>
       </c>
       <c r="M82" s="6">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="N82" s="20"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="29">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>175</v>
@@ -6664,113 +6753,125 @@
         <v>10</v>
       </c>
       <c r="D83" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G83" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="62">
+        <v>392.7</v>
+      </c>
+      <c r="I83" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="69"/>
+      <c r="K83" s="71">
+        <v>49187</v>
+      </c>
+      <c r="L83" s="73">
+        <v>0</v>
+      </c>
+      <c r="M83" s="6">
+        <v>0</v>
+      </c>
+      <c r="N83" s="20"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="29">
+        <v>82</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="58">
+        <v>10</v>
+      </c>
+      <c r="D84" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G84" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="H84" s="62">
+        <v>272.08</v>
+      </c>
+      <c r="I84" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" s="69">
+        <v>45108</v>
+      </c>
+      <c r="K84" s="54">
+        <v>49125</v>
+      </c>
+      <c r="L84" s="73">
+        <v>383000</v>
+      </c>
+      <c r="M84" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N84" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="29">
+        <v>83</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="58">
+        <v>10</v>
+      </c>
+      <c r="D85" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="E85" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G83" s="59" t="s">
+      <c r="G85" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="62">
+      <c r="H85" s="62">
         <v>264.23</v>
       </c>
-      <c r="I83" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="69">
+      <c r="I85" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" s="69">
         <v>43647</v>
       </c>
-      <c r="K83" s="71">
+      <c r="K85" s="71">
         <v>44561</v>
       </c>
-      <c r="L83" s="73">
+      <c r="L85" s="73">
         <f>362500*11.5/12</f>
         <v>347395.83333333331</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M85" s="6">
         <v>84100</v>
       </c>
-      <c r="N83" s="20"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="29">
-        <v>83</v>
-      </c>
-      <c r="B84" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="58">
-        <v>10</v>
-      </c>
-      <c r="D84" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G84" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="62">
-        <v>287.33999999999997</v>
-      </c>
-      <c r="I84" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J84" s="69">
-        <v>46813</v>
-      </c>
-      <c r="K84" s="71"/>
-      <c r="L84" s="73"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="20"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="29">
-        <v>84</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" s="58">
-        <v>10</v>
-      </c>
-      <c r="D85" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H85" s="62">
-        <v>135.97999999999999</v>
-      </c>
-      <c r="I85" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J85" s="69">
-        <v>46280</v>
-      </c>
-      <c r="K85" s="71"/>
-      <c r="L85" s="73"/>
-      <c r="M85" s="6"/>
       <c r="N85" s="20"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="29">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>175</v>
@@ -6788,7 +6889,7 @@
         <v>129</v>
       </c>
       <c r="G86" s="59" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="H86" s="62">
         <v>264.23</v>
@@ -6797,10 +6898,10 @@
         <v>3</v>
       </c>
       <c r="J86" s="69">
-        <v>44927</v>
+        <v>44835</v>
       </c>
       <c r="K86" s="71">
-        <v>49309</v>
+        <v>44926</v>
       </c>
       <c r="L86" s="73">
         <v>367500</v>
@@ -6808,13 +6909,11 @@
       <c r="M86" s="6">
         <v>70000</v>
       </c>
-      <c r="N86" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N86" s="20"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="29">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>175</v>
@@ -6823,47 +6922,51 @@
         <v>10</v>
       </c>
       <c r="D87" s="58" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E87" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G87" s="59" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="H87" s="62">
-        <v>135.99</v>
+        <v>264.23</v>
       </c>
       <c r="I87" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J87" s="69"/>
+      <c r="J87" s="69">
+        <v>44927</v>
+      </c>
       <c r="K87" s="71">
-        <v>49187</v>
+        <v>49309</v>
       </c>
       <c r="L87" s="73">
-        <v>0</v>
+        <v>367500</v>
       </c>
       <c r="M87" s="6">
-        <v>0</v>
-      </c>
-      <c r="N87" s="20"/>
+        <v>70000</v>
+      </c>
+      <c r="N87" s="20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="29">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C88" s="58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="58" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E88" s="57" t="s">
         <v>173</v>
@@ -6872,73 +6975,71 @@
         <v>182</v>
       </c>
       <c r="G88" s="59" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H88" s="62">
-        <v>392.7</v>
+        <v>1234.75</v>
       </c>
       <c r="I88" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J88" s="69"/>
       <c r="K88" s="71">
-        <v>49187</v>
+        <v>44895</v>
       </c>
       <c r="L88" s="73">
-        <v>0</v>
+        <v>390000</v>
       </c>
       <c r="M88" s="6">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="N88" s="20"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="29">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" s="58" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E89" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G89" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H89" s="62">
-        <v>272.08</v>
+        <v>1234.75</v>
       </c>
       <c r="I89" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="69">
-        <v>45108</v>
-      </c>
-      <c r="K89" s="54">
-        <v>49125</v>
+        <v>45200</v>
+      </c>
+      <c r="K89" s="71">
+        <v>49308</v>
       </c>
       <c r="L89" s="73">
-        <v>383000</v>
+        <v>367500</v>
       </c>
       <c r="M89" s="6">
         <v>70000</v>
       </c>
-      <c r="N89" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N89" s="20"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="29">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>175</v>
@@ -6947,7 +7048,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" s="57" t="s">
         <v>173</v>
@@ -6956,19 +7057,19 @@
         <v>182</v>
       </c>
       <c r="G90" s="59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H90" s="62">
-        <v>137.52000000000001</v>
+        <v>137.51</v>
       </c>
       <c r="I90" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J90" s="69">
-        <v>45566</v>
+        <v>44287</v>
       </c>
       <c r="K90" s="71">
-        <v>49217</v>
+        <v>45016</v>
       </c>
       <c r="L90" s="73">
         <v>0</v>
@@ -6976,13 +7077,11 @@
       <c r="M90" s="6">
         <v>70000</v>
       </c>
-      <c r="N90" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N90" s="20"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="29">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="29" t="s">
         <v>175</v>
@@ -6991,7 +7090,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91" s="57" t="s">
         <v>173</v>
@@ -7000,31 +7099,33 @@
         <v>182</v>
       </c>
       <c r="G91" s="59" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="H91" s="62">
-        <v>137.52000000000001</v>
+        <v>137.51</v>
       </c>
       <c r="I91" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="69">
-        <v>43717</v>
+        <v>45017</v>
       </c>
       <c r="K91" s="71">
-        <v>45565</v>
+        <v>49034</v>
       </c>
       <c r="L91" s="73">
-        <v>0</v>
+        <v>410000</v>
       </c>
       <c r="M91" s="6">
         <v>70000</v>
       </c>
-      <c r="N91" s="20"/>
+      <c r="N91" s="20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="29" t="s">
         <v>175</v>
@@ -7033,7 +7134,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E92" s="57" t="s">
         <v>173</v>
@@ -7042,33 +7143,31 @@
         <v>182</v>
       </c>
       <c r="G92" s="59" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="H92" s="62">
-        <v>137.51</v>
+        <v>137.52000000000001</v>
       </c>
       <c r="I92" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J92" s="69">
-        <v>45017</v>
+        <v>43717</v>
       </c>
       <c r="K92" s="71">
-        <v>49034</v>
+        <v>45565</v>
       </c>
       <c r="L92" s="73">
-        <v>410000</v>
+        <v>0</v>
       </c>
       <c r="M92" s="6">
         <v>70000</v>
       </c>
-      <c r="N92" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="N92" s="20"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="29" t="s">
         <v>175</v>
@@ -7077,7 +7176,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93" s="57" t="s">
         <v>173</v>
@@ -7086,19 +7185,19 @@
         <v>182</v>
       </c>
       <c r="G93" s="59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H93" s="62">
-        <v>137.51</v>
+        <v>137.52000000000001</v>
       </c>
       <c r="I93" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J93" s="69">
-        <v>44287</v>
+        <v>45566</v>
       </c>
       <c r="K93" s="71">
-        <v>45016</v>
+        <v>49217</v>
       </c>
       <c r="L93" s="73">
         <v>0</v>
@@ -7106,42 +7205,46 @@
       <c r="M93" s="6">
         <v>70000</v>
       </c>
-      <c r="N93" s="20"/>
+      <c r="N93" s="20" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C94" s="58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" s="58" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E94" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G94" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H94" s="62">
-        <v>1234.75</v>
+        <v>29</v>
+      </c>
+      <c r="H94" s="63">
+        <v>1693.35</v>
       </c>
       <c r="I94" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="69"/>
-      <c r="K94" s="71">
-        <v>44895</v>
+      <c r="J94" s="78">
+        <v>43922</v>
+      </c>
+      <c r="K94" s="78">
+        <v>49309</v>
       </c>
       <c r="L94" s="73">
-        <v>390000</v>
+        <v>367500</v>
       </c>
       <c r="M94" s="6">
         <v>70000</v>
@@ -7150,16 +7253,16 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="29">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C95" s="58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D95" s="58" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E95" s="57" t="s">
         <v>173</v>
@@ -7168,19 +7271,19 @@
         <v>129</v>
       </c>
       <c r="G95" s="59" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="H95" s="62">
-        <v>1234.75</v>
+        <v>785.01</v>
       </c>
       <c r="I95" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J95" s="69">
-        <v>45200</v>
+        <v>43922</v>
       </c>
       <c r="K95" s="71">
-        <v>49308</v>
+        <v>49309</v>
       </c>
       <c r="L95" s="73">
         <v>367500</v>
@@ -7192,76 +7295,80 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="29">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C96" s="58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D96" s="58" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E96" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>56</v>
+        <v>129</v>
+      </c>
+      <c r="G96" s="59" t="s">
+        <v>69</v>
       </c>
       <c r="H96" s="62">
-        <v>1234.75</v>
+        <v>705.53</v>
       </c>
       <c r="I96" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J96" s="69">
-        <v>44896</v>
-      </c>
-      <c r="K96" s="71"/>
-      <c r="L96" s="73"/>
-      <c r="M96" s="6"/>
+        <v>43556</v>
+      </c>
+      <c r="K96" s="71">
+        <v>49309</v>
+      </c>
+      <c r="L96" s="73">
+        <v>367500</v>
+      </c>
+      <c r="M96" s="6">
+        <v>70000</v>
+      </c>
       <c r="N96" s="20"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C97" s="58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D97" s="58" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E97" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G97" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" s="63">
-        <v>1693.35</v>
+        <v>70</v>
+      </c>
+      <c r="H97" s="62">
+        <v>547</v>
       </c>
       <c r="I97" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J97" s="78">
-        <v>43922</v>
-      </c>
-      <c r="K97" s="78">
-        <v>49309</v>
+      <c r="J97" s="69"/>
+      <c r="K97" s="71">
+        <v>45961</v>
       </c>
       <c r="L97" s="73">
-        <v>367500</v>
+        <v>410000</v>
       </c>
       <c r="M97" s="6">
         <v>70000</v>
@@ -7270,40 +7377,40 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C98" s="58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E98" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G98" s="59" t="s">
-        <v>29</v>
+        <v>182</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H98" s="62">
-        <v>785.01</v>
+        <v>548</v>
       </c>
       <c r="I98" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J98" s="69">
-        <v>43922</v>
+        <v>45962</v>
       </c>
       <c r="K98" s="71">
-        <v>49309</v>
+        <v>49248</v>
       </c>
       <c r="L98" s="73">
-        <v>367500</v>
+        <v>390000</v>
       </c>
       <c r="M98" s="6">
         <v>70000</v>
@@ -7312,40 +7419,38 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C99" s="58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="58" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E99" s="57" t="s">
         <v>173</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="G99" s="59" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H99" s="62">
-        <v>705.53</v>
+        <v>938.59</v>
       </c>
       <c r="I99" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J99" s="69">
-        <v>43556</v>
-      </c>
+      <c r="J99" s="69"/>
       <c r="K99" s="71">
-        <v>49309</v>
+        <v>45961</v>
       </c>
       <c r="L99" s="73">
-        <v>367500</v>
+        <v>410000</v>
       </c>
       <c r="M99" s="6">
         <v>70000</v>
@@ -7354,7 +7459,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="29" t="s">
         <v>175</v>
@@ -7363,7 +7468,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="58" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E100" s="57" t="s">
         <v>173</v>
@@ -7372,20 +7477,22 @@
         <v>182</v>
       </c>
       <c r="G100" s="59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H100" s="62">
-        <v>547</v>
+        <v>939.59</v>
       </c>
       <c r="I100" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="69"/>
+      <c r="J100" s="69">
+        <v>45962</v>
+      </c>
       <c r="K100" s="71">
-        <v>45961</v>
+        <v>49248</v>
       </c>
       <c r="L100" s="73">
-        <v>410000</v>
+        <v>390000</v>
       </c>
       <c r="M100" s="6">
         <v>70000</v>
@@ -7394,16 +7501,16 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C101" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" s="58" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E101" s="57" t="s">
         <v>173</v>
@@ -7411,11 +7518,11 @@
       <c r="F101" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="59" t="s">
         <v>73</v>
       </c>
       <c r="H101" s="62">
-        <v>938.59</v>
+        <v>1505.1</v>
       </c>
       <c r="I101" s="67" t="s">
         <v>3</v>
@@ -7434,16 +7541,16 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C102" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D102" s="58" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E102" s="57" t="s">
         <v>173</v>
@@ -7452,10 +7559,10 @@
         <v>182</v>
       </c>
       <c r="G102" s="59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H102" s="62">
-        <v>548</v>
+        <v>1506.1</v>
       </c>
       <c r="I102" s="67" t="s">
         <v>3</v>
@@ -7476,16 +7583,16 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C103" s="58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D103" s="58" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E103" s="57" t="s">
         <v>173</v>
@@ -7494,185 +7601,175 @@
         <v>182</v>
       </c>
       <c r="G103" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H103" s="62">
-        <v>939.59</v>
+        <v>130</v>
+      </c>
+      <c r="H103" s="79">
+        <v>1422.37</v>
       </c>
       <c r="I103" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="69">
-        <v>45962</v>
-      </c>
+      <c r="J103" s="80"/>
       <c r="K103" s="71">
-        <v>49248</v>
-      </c>
-      <c r="L103" s="73">
-        <v>390000</v>
-      </c>
-      <c r="M103" s="6">
-        <v>70000</v>
+        <v>49034</v>
+      </c>
+      <c r="L103" s="81">
+        <v>0</v>
+      </c>
+      <c r="M103" s="46">
+        <v>0</v>
       </c>
       <c r="N103" s="20"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C104" s="58">
-        <v>5</v>
-      </c>
-      <c r="D104" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="57" t="s">
-        <v>173</v>
+      <c r="C104" s="50">
+        <v>2</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G104" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H104" s="62">
-        <v>1505.1</v>
-      </c>
-      <c r="I104" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J104" s="69"/>
-      <c r="K104" s="71">
-        <v>45961</v>
-      </c>
-      <c r="L104" s="73">
-        <v>410000</v>
-      </c>
-      <c r="M104" s="6">
+      <c r="G104" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H104" s="10">
+        <v>399</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" s="12">
+        <v>44562</v>
+      </c>
+      <c r="K104" s="12">
+        <v>46599</v>
+      </c>
+      <c r="L104" s="13">
         <v>70000</v>
+      </c>
+      <c r="M104" s="14">
+        <v>50000</v>
       </c>
       <c r="N104" s="20"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="29">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C105" s="58">
-        <v>5</v>
-      </c>
-      <c r="D105" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="57" t="s">
-        <v>173</v>
+      <c r="C105" s="50">
+        <v>2</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G105" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H105" s="62">
-        <v>1506.1</v>
-      </c>
-      <c r="I105" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J105" s="69">
-        <v>45962</v>
-      </c>
-      <c r="K105" s="71">
-        <v>49248</v>
-      </c>
-      <c r="L105" s="73">
-        <v>390000</v>
-      </c>
-      <c r="M105" s="6">
-        <v>70000</v>
-      </c>
+      <c r="G105" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="H105" s="10">
+        <v>145.78</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12">
+        <v>46599</v>
+      </c>
+      <c r="L105" s="13"/>
+      <c r="M105" s="14"/>
       <c r="N105" s="20"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="29">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="58">
-        <v>3</v>
-      </c>
-      <c r="D106" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="57" t="s">
-        <v>173</v>
+      <c r="C106" s="50">
+        <v>2</v>
+      </c>
+      <c r="D106" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G106" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H106" s="80">
-        <v>1422.37</v>
-      </c>
-      <c r="I106" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J106" s="81"/>
-      <c r="K106" s="71">
-        <v>49034</v>
-      </c>
-      <c r="L106" s="82">
-        <v>0</v>
-      </c>
-      <c r="M106" s="46">
-        <v>0</v>
-      </c>
+      <c r="G106" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="H106" s="10">
+        <v>25.1</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12">
+        <v>46599</v>
+      </c>
+      <c r="L106" s="13"/>
+      <c r="M106" s="14"/>
       <c r="N106" s="20"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C107" s="50">
+      <c r="C107" s="55">
         <v>2</v>
       </c>
-      <c r="D107" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="11" t="s">
+      <c r="D107" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G107" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H107" s="10">
-        <v>399</v>
-      </c>
-      <c r="I107" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J107" s="12">
+      <c r="G107" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H107" s="56">
+        <v>230.81</v>
+      </c>
+      <c r="I107" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" s="37">
         <v>44562</v>
       </c>
-      <c r="K107" s="12">
+      <c r="K107" s="37">
         <v>46599</v>
       </c>
-      <c r="L107" s="13">
+      <c r="L107" s="14">
         <v>70000</v>
       </c>
       <c r="M107" s="14">
@@ -7682,130 +7779,142 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
+        <v>106</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D108" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G108" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H108" s="56">
+        <v>249.77</v>
+      </c>
+      <c r="I108" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" s="70">
+        <v>44378</v>
+      </c>
+      <c r="K108" s="37">
+        <v>46752</v>
+      </c>
+      <c r="L108" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C108" s="50">
-        <v>2</v>
-      </c>
-      <c r="D108" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G108" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="H108" s="10">
-        <v>145.78</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12">
-        <v>46599</v>
-      </c>
-      <c r="L108" s="13"/>
-      <c r="M108" s="14"/>
+      <c r="M108" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N108" s="20"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="50">
-        <v>2</v>
-      </c>
-      <c r="D109" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="11" t="s">
+      <c r="C109" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="48" t="s">
         <v>16</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G109" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="H109" s="10">
-        <v>25.1</v>
-      </c>
-      <c r="I109" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12">
-        <v>46599</v>
-      </c>
-      <c r="L109" s="13"/>
-      <c r="M109" s="14"/>
+      <c r="G109" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H109" s="56">
+        <v>63.5</v>
+      </c>
+      <c r="I109" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="70">
+        <v>44378</v>
+      </c>
+      <c r="K109" s="37">
+        <v>46752</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M109" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N109" s="20"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C110" s="50">
-        <v>2</v>
-      </c>
-      <c r="D110" s="50" t="s">
+      <c r="C110" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="H110" s="56">
         <v>6</v>
       </c>
-      <c r="E110" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H110" s="10">
-        <v>230.81</v>
-      </c>
-      <c r="I110" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J110" s="12">
-        <v>44562</v>
-      </c>
-      <c r="K110" s="12">
-        <v>46599</v>
-      </c>
-      <c r="L110" s="13">
-        <v>70000</v>
-      </c>
-      <c r="M110" s="14">
-        <v>50000</v>
+      <c r="I110" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J110" s="37">
+        <v>44470</v>
+      </c>
+      <c r="K110" s="37">
+        <v>46660</v>
+      </c>
+      <c r="L110" s="14">
+        <v>950000</v>
+      </c>
+      <c r="M110" s="15">
+        <v>72000</v>
       </c>
       <c r="N110" s="20"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D111" s="48" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="E111" s="48" t="s">
         <v>16</v>
@@ -7814,40 +7923,34 @@
         <v>182</v>
       </c>
       <c r="G111" s="51" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H111" s="56">
-        <v>249.77</v>
+        <v>6</v>
       </c>
       <c r="I111" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J111" s="70">
-        <v>44378</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="J111" s="37"/>
       <c r="K111" s="37">
         <v>46752</v>
       </c>
-      <c r="L111" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M111" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="L111" s="14"/>
+      <c r="M111" s="15"/>
       <c r="N111" s="20"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="29">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C112" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="D112" s="55" t="s">
-        <v>18</v>
+      <c r="C112" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" s="48" t="s">
+        <v>3</v>
       </c>
       <c r="E112" s="48" t="s">
         <v>16</v>
@@ -7855,32 +7958,32 @@
       <c r="F112" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G112" s="60" t="s">
-        <v>162</v>
+      <c r="G112" s="51" t="s">
+        <v>105</v>
       </c>
       <c r="H112" s="56">
-        <v>63.5</v>
+        <v>185</v>
       </c>
       <c r="I112" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J112" s="70">
-        <v>44378</v>
+      <c r="J112" s="37">
+        <v>43419</v>
       </c>
       <c r="K112" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L112" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M112" s="14" t="s">
-        <v>84</v>
+        <v>44514</v>
+      </c>
+      <c r="L112" s="14">
+        <v>200000</v>
+      </c>
+      <c r="M112" s="14">
+        <v>65000</v>
       </c>
       <c r="N112" s="20"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="29">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>175</v>
@@ -7889,7 +7992,7 @@
         <v>104</v>
       </c>
       <c r="D113" s="48" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="E113" s="48" t="s">
         <v>16</v>
@@ -7898,31 +8001,31 @@
         <v>182</v>
       </c>
       <c r="G113" s="51" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="H113" s="56">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="I113" s="66" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="J113" s="37">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="K113" s="37">
-        <v>46660</v>
+        <v>45244</v>
       </c>
       <c r="L113" s="14">
-        <v>950000</v>
-      </c>
-      <c r="M113" s="15">
-        <v>72000</v>
+        <v>225000</v>
+      </c>
+      <c r="M113" s="14">
+        <v>65000</v>
       </c>
       <c r="N113" s="20"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="29">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="29" t="s">
         <v>175</v>
@@ -7931,7 +8034,7 @@
         <v>104</v>
       </c>
       <c r="D114" s="48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E114" s="48" t="s">
         <v>16</v>
@@ -7940,31 +8043,31 @@
         <v>182</v>
       </c>
       <c r="G114" s="51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H114" s="56">
-        <v>103.16</v>
+        <v>185</v>
       </c>
       <c r="I114" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J114" s="45">
-        <v>43692</v>
+      <c r="J114" s="37">
+        <v>45245</v>
       </c>
       <c r="K114" s="37">
-        <v>46613</v>
+        <v>46705</v>
       </c>
       <c r="L114" s="14">
-        <v>331250</v>
+        <v>225000</v>
       </c>
       <c r="M114" s="14">
-        <v>70000</v>
+        <v>65000</v>
       </c>
       <c r="N114" s="20"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="29">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="29" t="s">
         <v>175</v>
@@ -7973,7 +8076,7 @@
         <v>104</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>16</v>
@@ -7982,31 +8085,31 @@
         <v>182</v>
       </c>
       <c r="G115" s="51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H115" s="56">
-        <v>30</v>
+        <v>347.88</v>
       </c>
       <c r="I115" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J115" s="45">
-        <v>43692</v>
+      <c r="J115" s="37">
+        <v>43891</v>
       </c>
       <c r="K115" s="37">
-        <v>46613</v>
-      </c>
-      <c r="L115" s="14">
-        <v>231875</v>
-      </c>
-      <c r="M115" s="14">
-        <v>80000</v>
+        <v>46446</v>
+      </c>
+      <c r="L115" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M115" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="N115" s="20"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="29">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>175</v>
@@ -8015,7 +8118,7 @@
         <v>104</v>
       </c>
       <c r="D116" s="48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E116" s="48" t="s">
         <v>16</v>
@@ -8024,31 +8127,31 @@
         <v>182</v>
       </c>
       <c r="G116" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H116" s="56">
-        <v>152.08000000000001</v>
+        <v>103.16</v>
       </c>
       <c r="I116" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J116" s="37">
-        <v>44044</v>
+      <c r="J116" s="45">
+        <v>43692</v>
       </c>
       <c r="K116" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L116" s="14" t="s">
-        <v>107</v>
+        <v>46613</v>
+      </c>
+      <c r="L116" s="14">
+        <v>331250</v>
       </c>
       <c r="M116" s="14">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="N116" s="20"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="29">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>175</v>
@@ -8057,7 +8160,7 @@
         <v>104</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>16</v>
@@ -8066,31 +8169,31 @@
         <v>182</v>
       </c>
       <c r="G117" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H117" s="56">
-        <v>36.880000000000003</v>
+        <v>30</v>
       </c>
       <c r="I117" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J117" s="37">
-        <v>44044</v>
+      <c r="J117" s="45">
+        <v>43692</v>
       </c>
       <c r="K117" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L117" s="14" t="s">
-        <v>107</v>
+        <v>46613</v>
+      </c>
+      <c r="L117" s="14">
+        <v>231875</v>
       </c>
       <c r="M117" s="14">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="N117" s="20"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="29">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>175</v>
@@ -8099,7 +8202,7 @@
         <v>104</v>
       </c>
       <c r="D118" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>16</v>
@@ -8108,31 +8211,23 @@
         <v>182</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="H118" s="56">
-        <v>30.88</v>
+        <v>82.74</v>
       </c>
       <c r="I118" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J118" s="37">
-        <v>44044</v>
-      </c>
-      <c r="K118" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L118" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M118" s="14">
-        <v>70000</v>
-      </c>
+      <c r="J118" s="37"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
       <c r="N118" s="20"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="29">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>175</v>
@@ -8141,7 +8236,7 @@
         <v>104</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>16</v>
@@ -8150,25 +8245,31 @@
         <v>182</v>
       </c>
       <c r="G119" s="51" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="H119" s="56">
-        <v>28.21</v>
+        <v>152.08000000000001</v>
       </c>
       <c r="I119" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J119" s="37"/>
+      <c r="J119" s="37">
+        <v>44044</v>
+      </c>
       <c r="K119" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
+        <v>46599</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M119" s="14">
+        <v>50000</v>
+      </c>
       <c r="N119" s="20"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="29">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>175</v>
@@ -8177,7 +8278,7 @@
         <v>104</v>
       </c>
       <c r="D120" s="48" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>16</v>
@@ -8186,25 +8287,31 @@
         <v>182</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="H120" s="56">
-        <v>80.92</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="I120" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J120" s="37"/>
+      <c r="J120" s="37">
+        <v>44044</v>
+      </c>
       <c r="K120" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
+        <v>46599</v>
+      </c>
+      <c r="L120" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M120" s="14">
+        <v>70000</v>
+      </c>
       <c r="N120" s="20"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="29">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>175</v>
@@ -8213,7 +8320,7 @@
         <v>104</v>
       </c>
       <c r="D121" s="48" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="E121" s="48" t="s">
         <v>16</v>
@@ -8222,25 +8329,31 @@
         <v>182</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="H121" s="56">
-        <v>6</v>
+        <v>30.88</v>
       </c>
       <c r="I121" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J121" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="J121" s="37">
+        <v>44044</v>
+      </c>
       <c r="K121" s="37">
-        <v>46752</v>
-      </c>
-      <c r="L121" s="14"/>
-      <c r="M121" s="15"/>
+        <v>46599</v>
+      </c>
+      <c r="L121" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M121" s="14">
+        <v>70000</v>
+      </c>
       <c r="N121" s="20"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="29">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>175</v>
@@ -8249,7 +8362,7 @@
         <v>104</v>
       </c>
       <c r="D122" s="48" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E122" s="48" t="s">
         <v>16</v>
@@ -8258,31 +8371,31 @@
         <v>182</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="H122" s="56">
-        <v>185</v>
+        <v>28.21</v>
       </c>
       <c r="I122" s="66" t="s">
         <v>3</v>
       </c>
       <c r="J122" s="37">
-        <v>45245</v>
+        <v>43891</v>
       </c>
       <c r="K122" s="37">
-        <v>46705</v>
+        <v>46446</v>
       </c>
       <c r="L122" s="14">
-        <v>225000</v>
+        <v>240000</v>
       </c>
       <c r="M122" s="14">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="N122" s="20"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="29">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>175</v>
@@ -8291,7 +8404,7 @@
         <v>104</v>
       </c>
       <c r="D123" s="48" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E123" s="48" t="s">
         <v>16</v>
@@ -8300,222 +8413,214 @@
         <v>182</v>
       </c>
       <c r="G123" s="51" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="H123" s="56">
-        <v>347.88</v>
+        <v>28.21</v>
       </c>
       <c r="I123" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J123" s="37">
-        <v>43891</v>
-      </c>
+      <c r="J123" s="37"/>
       <c r="K123" s="37">
-        <v>46446</v>
-      </c>
-      <c r="L123" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="M123" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>46752</v>
+      </c>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
       <c r="N123" s="20"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C124" s="48" t="s">
+      <c r="C124" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D124" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E124" s="48" t="s">
+      <c r="D124" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G124" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="H124" s="56">
-        <v>28.21</v>
-      </c>
-      <c r="I124" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J124" s="37">
-        <v>43891</v>
-      </c>
-      <c r="K124" s="37">
-        <v>46446</v>
-      </c>
-      <c r="L124" s="14">
-        <v>240000</v>
-      </c>
-      <c r="M124" s="14">
-        <v>70000</v>
-      </c>
+      <c r="G124" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H124" s="10">
+        <v>80.92</v>
+      </c>
+      <c r="I124" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12">
+        <v>46752</v>
+      </c>
+      <c r="L124" s="13"/>
+      <c r="M124" s="14"/>
       <c r="N124" s="20"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C125" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D125" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E125" s="48" t="s">
-        <v>16</v>
+      <c r="C125" s="58">
+        <v>1</v>
+      </c>
+      <c r="D125" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="57" t="s">
+        <v>173</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G125" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H125" s="56">
-        <v>185</v>
-      </c>
-      <c r="I125" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J125" s="37">
-        <v>44515</v>
-      </c>
-      <c r="K125" s="37">
-        <v>45244</v>
-      </c>
-      <c r="L125" s="14">
-        <v>225000</v>
-      </c>
-      <c r="M125" s="14">
-        <v>65000</v>
+      <c r="G125" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H125" s="62">
+        <v>639.83000000000004</v>
+      </c>
+      <c r="I125" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J125" s="69"/>
+      <c r="K125" s="71">
+        <v>49064</v>
+      </c>
+      <c r="L125" s="73">
+        <v>420000</v>
+      </c>
+      <c r="M125" s="6">
+        <v>70000</v>
       </c>
       <c r="N125" s="20"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C126" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D126" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E126" s="48" t="s">
-        <v>16</v>
+      <c r="C126" s="58">
+        <v>1</v>
+      </c>
+      <c r="D126" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="57" t="s">
+        <v>173</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G126" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H126" s="56">
-        <v>185</v>
-      </c>
-      <c r="I126" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J126" s="37">
-        <v>43419</v>
-      </c>
-      <c r="K126" s="37">
-        <v>44514</v>
-      </c>
-      <c r="L126" s="14">
-        <v>200000</v>
-      </c>
-      <c r="M126" s="14">
-        <v>65000</v>
+      <c r="G126" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H126" s="62">
+        <v>70</v>
+      </c>
+      <c r="I126" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J126" s="69"/>
+      <c r="K126" s="71">
+        <v>49034</v>
+      </c>
+      <c r="L126" s="73">
+        <v>435000</v>
+      </c>
+      <c r="M126" s="6">
+        <v>70000</v>
       </c>
       <c r="N126" s="20"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C127" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D127" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="48" t="s">
-        <v>16</v>
+      <c r="C127" s="4">
+        <v>1</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="57" t="s">
+        <v>173</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G127" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H127" s="56">
-        <v>82.74</v>
-      </c>
-      <c r="I127" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="14"/>
-      <c r="M127" s="14"/>
+      <c r="G127" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" s="8">
+        <v>134.37</v>
+      </c>
+      <c r="I127" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J127" s="7"/>
+      <c r="K127" s="5">
+        <v>49187</v>
+      </c>
+      <c r="L127" s="84">
+        <v>390000</v>
+      </c>
+      <c r="M127" s="6">
+        <v>70000</v>
+      </c>
       <c r="N127" s="20"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C128" s="58">
+      <c r="C128" s="4">
         <v>1</v>
       </c>
-      <c r="D128" s="58" t="s">
+      <c r="D128" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E128" s="57" t="s">
+      <c r="E128" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G128" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H128" s="62">
-        <v>639.83000000000004</v>
-      </c>
-      <c r="I128" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J128" s="69"/>
-      <c r="K128" s="71">
-        <v>49064</v>
-      </c>
-      <c r="L128" s="73">
-        <v>420000</v>
+      <c r="G128" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" s="8">
+        <v>453.65</v>
+      </c>
+      <c r="I128" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128" s="7">
+        <v>42948</v>
+      </c>
+      <c r="K128" s="5">
+        <v>49156</v>
+      </c>
+      <c r="L128" s="6">
+        <v>405000</v>
       </c>
       <c r="M128" s="6">
         <v>70000</v>
@@ -8524,161 +8629,161 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C129" s="58">
-        <v>1</v>
-      </c>
-      <c r="D129" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="57" t="s">
-        <v>173</v>
+      <c r="C129" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D129" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G129" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="H129" s="62">
-        <v>70</v>
-      </c>
-      <c r="I129" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J129" s="69"/>
-      <c r="K129" s="71">
-        <v>49034</v>
-      </c>
-      <c r="L129" s="73">
-        <v>435000</v>
-      </c>
-      <c r="M129" s="6">
-        <v>70000</v>
+      <c r="G129" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H129" s="56">
+        <v>7.4</v>
+      </c>
+      <c r="I129" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J129" s="37">
+        <v>44488</v>
+      </c>
+      <c r="K129" s="37">
+        <v>46460</v>
+      </c>
+      <c r="L129" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="M129" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="N129" s="20"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C130" s="58">
-        <v>1</v>
-      </c>
-      <c r="D130" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="57" t="s">
-        <v>173</v>
+      <c r="C130" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D130" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E130" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G130" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="H130" s="62">
-        <v>134.37</v>
-      </c>
-      <c r="I130" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J130" s="69"/>
-      <c r="K130" s="71">
-        <v>49187</v>
-      </c>
-      <c r="L130" s="79">
-        <v>390000</v>
-      </c>
-      <c r="M130" s="6">
-        <v>70000</v>
-      </c>
+      <c r="G130" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H130" s="56">
+        <v>7.9</v>
+      </c>
+      <c r="I130" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J130" s="37">
+        <v>44150</v>
+      </c>
+      <c r="K130" s="37">
+        <v>46705</v>
+      </c>
+      <c r="L130" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="M130" s="15"/>
       <c r="N130" s="20"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="29">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C131" s="4">
-        <v>1</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="57" t="s">
-        <v>173</v>
+      <c r="C131" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D131" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H131" s="8">
-        <v>453.65</v>
-      </c>
-      <c r="I131" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="J131" s="7">
-        <v>42948</v>
-      </c>
-      <c r="K131" s="5">
-        <v>49156</v>
-      </c>
-      <c r="L131" s="6">
-        <v>405000</v>
-      </c>
-      <c r="M131" s="6">
-        <v>70000</v>
-      </c>
+      <c r="G131" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H131" s="56">
+        <v>7.9</v>
+      </c>
+      <c r="I131" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J131" s="37">
+        <v>44256</v>
+      </c>
+      <c r="K131" s="37">
+        <v>46446</v>
+      </c>
+      <c r="L131" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="M131" s="15"/>
       <c r="N131" s="20"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="29">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="55" t="s">
+      <c r="C132" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D132" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E132" s="48" t="s">
+      <c r="D132" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G132" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="H132" s="56">
-        <v>7.4</v>
-      </c>
-      <c r="I132" s="66" t="s">
+      <c r="G132" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H132" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="I132" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="J132" s="37">
-        <v>44488</v>
-      </c>
-      <c r="K132" s="37">
-        <v>46460</v>
-      </c>
-      <c r="L132" s="14">
+      <c r="J132" s="12">
+        <v>44440</v>
+      </c>
+      <c r="K132" s="12">
+        <v>46630</v>
+      </c>
+      <c r="L132" s="13">
         <v>5000000</v>
       </c>
       <c r="M132" s="14" t="s">
@@ -8688,7 +8793,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="29">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="29" t="s">
         <v>175</v>
@@ -8697,7 +8802,7 @@
         <v>89</v>
       </c>
       <c r="D133" s="48" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E133" s="48" t="s">
         <v>16</v>
@@ -8706,38 +8811,40 @@
         <v>182</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H133" s="56">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="I133" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J133" s="37">
-        <v>44150</v>
+        <v>44301</v>
       </c>
       <c r="K133" s="37">
-        <v>46705</v>
+        <v>46491</v>
       </c>
       <c r="L133" s="14">
         <v>5000000</v>
       </c>
-      <c r="M133" s="15"/>
+      <c r="M133" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N133" s="20"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="29">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C134" s="55" t="s">
+      <c r="C134" s="48" t="s">
         <v>89</v>
       </c>
       <c r="D134" s="48" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E134" s="48" t="s">
         <v>16</v>
@@ -8746,7 +8853,7 @@
         <v>182</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="H134" s="56">
         <v>7.9</v>
@@ -8768,16 +8875,16 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="29">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="55" t="s">
+      <c r="C135" s="48" t="s">
         <v>89</v>
       </c>
       <c r="D135" s="48" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E135" s="48" t="s">
         <v>16</v>
@@ -8786,40 +8893,38 @@
         <v>182</v>
       </c>
       <c r="G135" s="51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H135" s="56">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="I135" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J135" s="37">
-        <v>44440</v>
+        <v>44256</v>
       </c>
       <c r="K135" s="37">
-        <v>46630</v>
+        <v>46446</v>
       </c>
       <c r="L135" s="14">
         <v>5000000</v>
       </c>
-      <c r="M135" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="M135" s="15"/>
       <c r="N135" s="20"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="29">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C136" s="55" t="s">
+      <c r="C136" s="48" t="s">
         <v>89</v>
       </c>
       <c r="D136" s="48" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E136" s="48" t="s">
         <v>16</v>
@@ -8828,19 +8933,19 @@
         <v>182</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H136" s="56">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="I136" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J136" s="37">
-        <v>44301</v>
+        <v>43661</v>
       </c>
       <c r="K136" s="37">
-        <v>46491</v>
+        <v>46582</v>
       </c>
       <c r="L136" s="14">
         <v>5000000</v>
@@ -8852,7 +8957,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="29">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>175</v>
@@ -8861,7 +8966,7 @@
         <v>89</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E137" s="48" t="s">
         <v>16</v>
@@ -8870,29 +8975,31 @@
         <v>182</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="H137" s="56">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="I137" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J137" s="37">
-        <v>44256</v>
+        <v>44105</v>
       </c>
       <c r="K137" s="37">
-        <v>46446</v>
+        <v>46660</v>
       </c>
       <c r="L137" s="14">
         <v>5000000</v>
       </c>
-      <c r="M137" s="15"/>
+      <c r="M137" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N137" s="20"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="29">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="29" t="s">
         <v>175</v>
@@ -8901,7 +9008,7 @@
         <v>89</v>
       </c>
       <c r="D138" s="48" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E138" s="48" t="s">
         <v>16</v>
@@ -8910,19 +9017,19 @@
         <v>182</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H138" s="56">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="I138" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J138" s="37">
-        <v>44256</v>
+        <v>44175</v>
       </c>
       <c r="K138" s="37">
-        <v>46446</v>
+        <v>46730</v>
       </c>
       <c r="L138" s="14">
         <v>5000000</v>
@@ -8932,7 +9039,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="29">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="29" t="s">
         <v>175</v>
@@ -8941,7 +9048,7 @@
         <v>89</v>
       </c>
       <c r="D139" s="48" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E139" s="48" t="s">
         <v>16</v>
@@ -8950,31 +9057,29 @@
         <v>182</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="H139" s="56">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="I139" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J139" s="37">
-        <v>43661</v>
+        <v>44256</v>
       </c>
       <c r="K139" s="37">
-        <v>46582</v>
+        <v>46446</v>
       </c>
       <c r="L139" s="14">
         <v>5000000</v>
       </c>
-      <c r="M139" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="M139" s="15"/>
       <c r="N139" s="20"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="29">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>175</v>
@@ -8983,7 +9088,7 @@
         <v>89</v>
       </c>
       <c r="D140" s="48" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E140" s="48" t="s">
         <v>16</v>
@@ -8992,19 +9097,19 @@
         <v>182</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H140" s="56">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="I140" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J140" s="37">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="K140" s="37">
-        <v>46660</v>
+        <v>46568</v>
       </c>
       <c r="L140" s="14">
         <v>5000000</v>
@@ -9016,7 +9121,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="29">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="29" t="s">
         <v>175</v>
@@ -9025,7 +9130,7 @@
         <v>89</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E141" s="48" t="s">
         <v>16</v>
@@ -9034,29 +9139,31 @@
         <v>182</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H141" s="56">
-        <v>6.4</v>
+        <v>100</v>
+      </c>
+      <c r="H141" s="65">
+        <v>16.350000000000001</v>
       </c>
       <c r="I141" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J141" s="37">
-        <v>44175</v>
+        <v>43983</v>
       </c>
       <c r="K141" s="37">
-        <v>46730</v>
+        <v>46538</v>
       </c>
       <c r="L141" s="14">
-        <v>5000000</v>
-      </c>
-      <c r="M141" s="15"/>
+        <v>4200000</v>
+      </c>
+      <c r="M141" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N141" s="20"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="29">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="29" t="s">
         <v>175</v>
@@ -9065,7 +9172,7 @@
         <v>89</v>
       </c>
       <c r="D142" s="48" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E142" s="48" t="s">
         <v>16</v>
@@ -9076,27 +9183,21 @@
       <c r="G142" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H142" s="56">
-        <v>6.4</v>
-      </c>
-      <c r="I142" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J142" s="37">
-        <v>44256</v>
-      </c>
-      <c r="K142" s="37">
-        <v>46446</v>
-      </c>
-      <c r="L142" s="14">
-        <v>5000000</v>
-      </c>
-      <c r="M142" s="15"/>
+      <c r="H142" s="65">
+        <v>8.11</v>
+      </c>
+      <c r="I142" s="66"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N142" s="20"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="29" t="s">
         <v>175</v>
@@ -9105,7 +9206,7 @@
         <v>89</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E143" s="48" t="s">
         <v>16</v>
@@ -9114,19 +9215,19 @@
         <v>182</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H143" s="56">
-        <v>6.4</v>
+        <v>15.73</v>
       </c>
       <c r="I143" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J143" s="37">
-        <v>44013</v>
+        <v>43617</v>
       </c>
       <c r="K143" s="37">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="L143" s="14">
         <v>5000000</v>
@@ -9138,7 +9239,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="29">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>175</v>
@@ -9147,7 +9248,7 @@
         <v>89</v>
       </c>
       <c r="D144" s="48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E144" s="48" t="s">
         <v>16</v>
@@ -9156,31 +9257,29 @@
         <v>182</v>
       </c>
       <c r="G144" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H144" s="65">
-        <v>16.350000000000001</v>
+        <v>158</v>
+      </c>
+      <c r="H144" s="56">
+        <v>97.5</v>
       </c>
       <c r="I144" s="66" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="J144" s="37">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="K144" s="37">
-        <v>46538</v>
+        <v>46477</v>
       </c>
       <c r="L144" s="14">
-        <v>4200000</v>
-      </c>
-      <c r="M144" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>360000</v>
+      </c>
+      <c r="M144" s="15"/>
       <c r="N144" s="20"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="29">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="29" t="s">
         <v>175</v>
@@ -9188,8 +9287,8 @@
       <c r="C145" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D145" s="48" t="s">
-        <v>155</v>
+      <c r="D145" s="55" t="s">
+        <v>159</v>
       </c>
       <c r="E145" s="48" t="s">
         <v>16</v>
@@ -9198,23 +9297,29 @@
         <v>182</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H145" s="65">
-        <v>8.11</v>
-      </c>
-      <c r="I145" s="66"/>
-      <c r="J145" s="37"/>
-      <c r="K145" s="37"/>
-      <c r="L145" s="14"/>
-      <c r="M145" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H145" s="56">
+        <v>9</v>
+      </c>
+      <c r="I145" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="J145" s="37">
+        <v>44150</v>
+      </c>
+      <c r="K145" s="37">
+        <v>46705</v>
+      </c>
+      <c r="L145" s="14">
+        <v>3000000</v>
+      </c>
+      <c r="M145" s="14"/>
       <c r="N145" s="20"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="29">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="29" t="s">
         <v>175</v>
@@ -9222,8 +9327,8 @@
       <c r="C146" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D146" s="48" t="s">
-        <v>156</v>
+      <c r="D146" s="55" t="s">
+        <v>160</v>
       </c>
       <c r="E146" s="48" t="s">
         <v>16</v>
@@ -9232,40 +9337,38 @@
         <v>182</v>
       </c>
       <c r="G146" s="51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H146" s="56">
-        <v>15.73</v>
+        <v>1</v>
       </c>
       <c r="I146" s="66" t="s">
         <v>171</v>
       </c>
       <c r="J146" s="37">
-        <v>43617</v>
+        <v>44027</v>
       </c>
       <c r="K146" s="37">
-        <v>46538</v>
+        <v>46582</v>
       </c>
       <c r="L146" s="14">
-        <v>5000000</v>
-      </c>
-      <c r="M146" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>3000000</v>
+      </c>
+      <c r="M146" s="14"/>
       <c r="N146" s="20"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="29">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C147" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D147" s="48" t="s">
-        <v>157</v>
+        <v>11</v>
+      </c>
+      <c r="D147" s="55">
+        <v>1</v>
       </c>
       <c r="E147" s="48" t="s">
         <v>16</v>
@@ -9274,38 +9377,34 @@
         <v>182</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="H147" s="56">
-        <v>97.5</v>
+        <v>54</v>
       </c>
       <c r="I147" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="J147" s="37">
-        <v>43922</v>
-      </c>
+      <c r="J147" s="37"/>
       <c r="K147" s="37">
-        <v>46477</v>
-      </c>
-      <c r="L147" s="14">
-        <v>360000</v>
-      </c>
+        <v>46599</v>
+      </c>
+      <c r="L147" s="14"/>
       <c r="M147" s="15"/>
       <c r="N147" s="20"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="29">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C148" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D148" s="55" t="s">
-        <v>159</v>
+        <v>11</v>
+      </c>
+      <c r="D148" s="55">
+        <v>2</v>
       </c>
       <c r="E148" s="48" t="s">
         <v>16</v>
@@ -9314,38 +9413,34 @@
         <v>182</v>
       </c>
       <c r="G148" s="51" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="H148" s="56">
-        <v>9</v>
+        <v>34.24</v>
       </c>
       <c r="I148" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J148" s="37">
-        <v>44150</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J148" s="37"/>
       <c r="K148" s="37">
-        <v>46705</v>
-      </c>
-      <c r="L148" s="14">
-        <v>3000000</v>
-      </c>
-      <c r="M148" s="14"/>
+        <v>46599</v>
+      </c>
+      <c r="L148" s="14"/>
+      <c r="M148" s="15"/>
       <c r="N148" s="20"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="29">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C149" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="55" t="s">
-        <v>160</v>
+        <v>11</v>
+      </c>
+      <c r="D149" s="55">
+        <v>3</v>
       </c>
       <c r="E149" s="48" t="s">
         <v>16</v>
@@ -9354,29 +9449,25 @@
         <v>182</v>
       </c>
       <c r="G149" s="51" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="H149" s="56">
-        <v>1</v>
+        <v>22.72</v>
       </c>
       <c r="I149" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J149" s="37">
-        <v>44027</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J149" s="37"/>
       <c r="K149" s="37">
-        <v>46582</v>
-      </c>
-      <c r="L149" s="14">
-        <v>3000000</v>
-      </c>
-      <c r="M149" s="14"/>
+        <v>46599</v>
+      </c>
+      <c r="L149" s="14"/>
+      <c r="M149" s="15"/>
       <c r="N149" s="20"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="29">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="29" t="s">
         <v>175</v>
@@ -9385,7 +9476,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150" s="48" t="s">
         <v>16</v>
@@ -9394,10 +9485,10 @@
         <v>182</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H150" s="56">
-        <v>54</v>
+        <v>139.47</v>
       </c>
       <c r="I150" s="66" t="s">
         <v>3</v>
@@ -9412,7 +9503,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="29">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>175</v>
@@ -9421,7 +9512,7 @@
         <v>11</v>
       </c>
       <c r="D151" s="55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E151" s="48" t="s">
         <v>16</v>
@@ -9430,10 +9521,10 @@
         <v>182</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H151" s="56">
-        <v>34.24</v>
+        <v>17.96</v>
       </c>
       <c r="I151" s="66" t="s">
         <v>3</v>
@@ -9448,7 +9539,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="29">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="29" t="s">
         <v>175</v>
@@ -9457,7 +9548,7 @@
         <v>11</v>
       </c>
       <c r="D152" s="55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E152" s="48" t="s">
         <v>16</v>
@@ -9466,10 +9557,10 @@
         <v>182</v>
       </c>
       <c r="G152" s="51" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H152" s="56">
-        <v>22.72</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="I152" s="66" t="s">
         <v>3</v>
@@ -9484,7 +9575,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="29">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="29" t="s">
         <v>175</v>
@@ -9492,8 +9583,8 @@
       <c r="C153" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="55">
-        <v>4</v>
+      <c r="D153" s="55" t="s">
+        <v>18</v>
       </c>
       <c r="E153" s="48" t="s">
         <v>16</v>
@@ -9502,34 +9593,38 @@
         <v>182</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="H153" s="56">
-        <v>139.47</v>
-      </c>
-      <c r="I153" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J153" s="37"/>
+        <v>26.38</v>
+      </c>
+      <c r="I153" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="J153" s="37">
+        <v>44211</v>
+      </c>
       <c r="K153" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L153" s="14"/>
+        <v>46401</v>
+      </c>
+      <c r="L153" s="14">
+        <v>2750000</v>
+      </c>
       <c r="M153" s="15"/>
       <c r="N153" s="20"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="29">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="55">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D154" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="E154" s="48" t="s">
         <v>16</v>
@@ -9538,34 +9633,40 @@
         <v>182</v>
       </c>
       <c r="G154" s="51" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="H154" s="56">
-        <v>17.96</v>
-      </c>
-      <c r="I154" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J154" s="37"/>
+        <v>26.38</v>
+      </c>
+      <c r="I154" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="J154" s="37">
+        <v>44058</v>
+      </c>
       <c r="K154" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L154" s="14"/>
-      <c r="M154" s="15"/>
+        <v>46613</v>
+      </c>
+      <c r="L154" s="14">
+        <v>2750000</v>
+      </c>
+      <c r="M154" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N154" s="20"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="29">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="55">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="D155" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="E155" s="48" t="s">
         <v>16</v>
@@ -9574,33 +9675,39 @@
         <v>182</v>
       </c>
       <c r="G155" s="51" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="H155" s="56">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="I155" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="J155" s="37"/>
+        <v>26.38</v>
+      </c>
+      <c r="I155" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="J155" s="37">
+        <v>43739</v>
+      </c>
       <c r="K155" s="37">
-        <v>46599</v>
-      </c>
-      <c r="L155" s="14"/>
-      <c r="M155" s="15"/>
+        <v>46660</v>
+      </c>
+      <c r="L155" s="14">
+        <v>2750000</v>
+      </c>
+      <c r="M155" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="N155" s="20"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="29">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C156" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D156" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E156" s="48" t="s">
@@ -9609,322 +9716,211 @@
       <c r="F156" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G156" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="H156" s="56">
+      <c r="G156" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H156" s="64">
         <v>26.38</v>
       </c>
       <c r="I156" s="68" t="s">
         <v>171</v>
       </c>
       <c r="J156" s="37">
-        <v>44211</v>
+        <v>43753</v>
       </c>
       <c r="K156" s="37">
-        <v>46401</v>
-      </c>
-      <c r="L156" s="14">
+        <v>46674</v>
+      </c>
+      <c r="L156" s="49">
         <v>2750000</v>
       </c>
-      <c r="M156" s="15"/>
+      <c r="M156" s="49" t="s">
+        <v>84</v>
+      </c>
       <c r="N156" s="20"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" s="29">
-        <v>156</v>
-      </c>
-      <c r="B157" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C157" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E157" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G157" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="H157" s="56">
-        <v>26.38</v>
-      </c>
-      <c r="I157" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="J157" s="37">
-        <v>44058</v>
-      </c>
-      <c r="K157" s="37">
-        <v>46613</v>
-      </c>
-      <c r="L157" s="14">
-        <v>2750000</v>
-      </c>
-      <c r="M157" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N157" s="20"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="29">
-        <v>157</v>
-      </c>
-      <c r="B158" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C158" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D158" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G158" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="H158" s="56">
-        <v>26.38</v>
-      </c>
-      <c r="I158" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="J158" s="37">
-        <v>43739</v>
-      </c>
-      <c r="K158" s="37">
-        <v>46660</v>
-      </c>
-      <c r="L158" s="14">
-        <v>2750000</v>
-      </c>
-      <c r="M158" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N158" s="20"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" s="29">
-        <v>158</v>
-      </c>
-      <c r="B159" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C159" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D159" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G159" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="H159" s="64">
-        <v>26.38</v>
-      </c>
-      <c r="I159" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="J159" s="37">
-        <v>43753</v>
-      </c>
-      <c r="K159" s="37">
-        <v>46674</v>
-      </c>
-      <c r="L159" s="49">
-        <v>2750000</v>
-      </c>
-      <c r="M159" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="N159" s="20"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="74" t="s">
+      <c r="A157" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B160" s="75"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="75"/>
-      <c r="G160" s="76"/>
-      <c r="H160" s="83"/>
-      <c r="I160" s="77"/>
-      <c r="J160" s="77"/>
-      <c r="K160" s="77"/>
-      <c r="L160" s="84"/>
-      <c r="M160" s="84"/>
-      <c r="N160" s="53"/>
+      <c r="B157" s="75"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="76"/>
+      <c r="H157" s="82"/>
+      <c r="I157" s="77"/>
+      <c r="J157" s="77"/>
+      <c r="K157" s="77"/>
+      <c r="L157" s="83"/>
+      <c r="M157" s="83"/>
+      <c r="N157" s="53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G157:G159 G1:G5 G111:G127 G150:G155 G132:G148 G31:G63 G12:G26 G65:G67">
-    <cfRule type="expression" dxfId="68" priority="105">
+  <conditionalFormatting sqref="G154:G156 G1:G5 G147:G152 G128:G131 G12:G26 G66:G68 G31:G47 G107:G123 G49:G58 G60:G64 G133:G145">
+    <cfRule type="expression" dxfId="60" priority="115">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="106">
+    <cfRule type="expression" dxfId="59" priority="116">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G1)),NOT(ISNUMBER(SEARCH("-&gt;",G1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27 G10 G7:G8 G29">
-    <cfRule type="expression" dxfId="66" priority="55">
+    <cfRule type="expression" dxfId="58" priority="65">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G7)),(ISNUMBER(SEARCH("-&gt;",G7))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="56">
+    <cfRule type="expression" dxfId="57" priority="66">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G7)),NOT(ISNUMBER(SEARCH("-&gt;",G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G156">
-    <cfRule type="expression" dxfId="64" priority="51">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G156)),(ISNUMBER(SEARCH("-&gt;",G156))))</formula>
+  <conditionalFormatting sqref="G153">
+    <cfRule type="expression" dxfId="56" priority="61">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G153)),(ISNUMBER(SEARCH("-&gt;",G153))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="52">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G156)),NOT(ISNUMBER(SEARCH("-&gt;",G156))))</formula>
+    <cfRule type="expression" dxfId="55" priority="62">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G153)),NOT(ISNUMBER(SEARCH("-&gt;",G153))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="62" priority="49">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G25)),(ISNUMBER(SEARCH("-&gt;",G25))))</formula>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="expression" dxfId="54" priority="59">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G26)),(ISNUMBER(SEARCH("-&gt;",G26))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="50">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G25)),NOT(ISNUMBER(SEARCH("-&gt;",G25))))</formula>
+    <cfRule type="expression" dxfId="53" priority="60">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G26)),NOT(ISNUMBER(SEARCH("-&gt;",G26))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="60" priority="47">
+    <cfRule type="expression" dxfId="52" priority="57">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G28)),(ISNUMBER(SEARCH("-&gt;",G28))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="48">
+    <cfRule type="expression" dxfId="51" priority="58">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G28)),NOT(ISNUMBER(SEARCH("-&gt;",G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G149">
-    <cfRule type="expression" dxfId="58" priority="39">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G149)),(ISNUMBER(SEARCH("-&gt;",G149))))</formula>
+  <conditionalFormatting sqref="G146">
+    <cfRule type="expression" dxfId="50" priority="49">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G146)),(ISNUMBER(SEARCH("-&gt;",G146))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="40">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G149)),NOT(ISNUMBER(SEARCH("-&gt;",G149))))</formula>
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G146)),NOT(ISNUMBER(SEARCH("-&gt;",G146))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G136:G139">
-    <cfRule type="expression" dxfId="56" priority="35">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G136)),(ISNUMBER(SEARCH("-&gt;",G136))))</formula>
+  <conditionalFormatting sqref="G133:G136">
+    <cfRule type="expression" dxfId="48" priority="45">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G133)),(ISNUMBER(SEARCH("-&gt;",G133))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="36">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G136)),NOT(ISNUMBER(SEARCH("-&gt;",G136))))</formula>
+    <cfRule type="expression" dxfId="47" priority="46">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G133)),NOT(ISNUMBER(SEARCH("-&gt;",G133))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="54" priority="31">
+    <cfRule type="expression" dxfId="46" priority="41">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G9)),(ISNUMBER(SEARCH("-&gt;",G9))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="32">
+    <cfRule type="expression" dxfId="45" priority="42">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G9)),NOT(ISNUMBER(SEARCH("-&gt;",G9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="52" priority="29">
+    <cfRule type="expression" dxfId="44" priority="39">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G11)),(ISNUMBER(SEARCH("-&gt;",G11))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G11)),NOT(ISNUMBER(SEARCH("-&gt;",G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="50" priority="23">
+    <cfRule type="expression" dxfId="42" priority="33">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G6)),(ISNUMBER(SEARCH("-&gt;",G6))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="24">
+    <cfRule type="expression" dxfId="41" priority="34">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G6)),NOT(ISNUMBER(SEARCH("-&gt;",G6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="48" priority="19">
+    <cfRule type="expression" dxfId="40" priority="29">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G30)),(ISNUMBER(SEARCH("-&gt;",G30))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="20">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>AND(ISNUMBER(SEARCH("Vacant", G30)),NOT(ISNUMBER(SEARCH("-&gt;",G30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G41">
-    <cfRule type="expression" dxfId="46" priority="17">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G36)),(ISNUMBER(SEARCH("-&gt;",G36))))</formula>
+  <conditionalFormatting sqref="G63:G64">
+    <cfRule type="expression" dxfId="38" priority="25">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G63)),(ISNUMBER(SEARCH("-&gt;",G63))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="18">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G36)),NOT(ISNUMBER(SEARCH("-&gt;",G36))))</formula>
+    <cfRule type="expression" dxfId="37" priority="26">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G63)),NOT(ISNUMBER(SEARCH("-&gt;",G63))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="44" priority="15">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G62)),(ISNUMBER(SEARCH("-&gt;",G62))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="16">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G62)),NOT(ISNUMBER(SEARCH("-&gt;",G62))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G63 G80:G81 G83:G1048576 G65:G78">
-    <cfRule type="endsWith" dxfId="42" priority="12" operator="endsWith" text="vacant}">
+  <conditionalFormatting sqref="G1:G58 G60:G64 G66:G1048576">
+    <cfRule type="endsWith" dxfId="36" priority="22" operator="endsWith" text="vacant}">
       <formula>RIGHT(G1,LEN("vacant}"))="vacant}"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G63 G80:G81 G83:G159 G65:G78">
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="vacant} -&gt;">
+  <conditionalFormatting sqref="G2:G47 G49:G58 G60:G64 G66:G156">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="vacant} -&gt;">
       <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="expression" dxfId="40" priority="9">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G64)),(ISNUMBER(SEARCH("-&gt;",G64))))</formula>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="34" priority="19">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G65)),(ISNUMBER(SEARCH("-&gt;",G65))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="10">
-      <formula>AND(ISNUMBER(SEARCH("Vacant", G64)),NOT(ISNUMBER(SEARCH("-&gt;",G64))))</formula>
+    <cfRule type="expression" dxfId="33" priority="20">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G65)),NOT(ISNUMBER(SEARCH("-&gt;",G65))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="endsWith" dxfId="38" priority="8" operator="endsWith" text="vacant}">
-      <formula>RIGHT(G64,LEN("vacant}"))="vacant}"</formula>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="endsWith" dxfId="32" priority="18" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G65,LEN("vacant}"))="vacant}"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="vacant} -&gt;">
-      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G64)))</formula>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="endsWith" dxfId="36" priority="6" operator="endsWith" text="vacant}">
+    <cfRule type="endsWith" dxfId="30" priority="14" operator="endsWith" text="vacant}">
       <formula>RIGHT(G79,LEN("vacant}"))="vacant}"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="vacant} -&gt;">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="vacant} -&gt;">
       <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G79)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="endsWith" dxfId="34" priority="4" operator="endsWith" text="vacant}">
-      <formula>RIGHT(G82,LEN("vacant}"))="vacant}"</formula>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="28" priority="6">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G48)),(ISNUMBER(SEARCH("-&gt;",G48))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="7">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G48)),NOT(ISNUMBER(SEARCH("-&gt;",G48))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="vacant} -&gt;">
-      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G82)))</formula>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G59)),(ISNUMBER(SEARCH("-&gt;",G59))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G59)),NOT(ISNUMBER(SEARCH("-&gt;",G59))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="endsWith" dxfId="23" priority="2" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G59,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9941,4 +9937,82 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8A2BF8-6D0A-BB4A-B5F9-BC8D777D0E49}">
+  <dimension ref="A5:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>58</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="8">
+        <v>137.67083232602312</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="44">
+        <v>45292</v>
+      </c>
+      <c r="K5" s="5">
+        <v>46752</v>
+      </c>
+      <c r="L5" s="6">
+        <v>410000</v>
+      </c>
+      <c r="M5" s="6">
+        <v>70000</v>
+      </c>
+      <c r="N5" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G5)),(ISNUMBER(SEARCH("-&gt;",G5))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="4">
+      <formula>AND(ISNUMBER(SEARCH("Vacant", G5)),NOT(ISNUMBER(SEARCH("-&gt;",G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="endsWith" dxfId="15" priority="2" operator="endsWith" text="vacant}">
+      <formula>RIGHT(G5,LEN("vacant}"))="vacant}"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="vacant} -&gt;">
+      <formula>NOT(ISERROR(SEARCH("vacant} -&gt;",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>